--- a/doc_new/4.服务器配置文档/商城物品列表.xlsx
+++ b/doc_new/4.服务器配置文档/商城物品列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20265" windowHeight="11100"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="商城(template_shopping)" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>字段名称</t>
   </si>
@@ -78,14 +78,14 @@
     <t>物品id_数量,物品id_数量,物品id_数量</t>
   </si>
   <si>
-    <t>物品id_数量 组合费用@分割多种支付方式,分割目前只支持货币类型物品id1琥珀2至臻积分 8金币
+    <t>物品id_数量 组合费用@分割多种支付方式,分割目前只支持货币类型物品id1琥珀2翡翠 8金币
 RMB支付_前面值不要单位元</t>
   </si>
   <si>
     <t>0 普通购买1 普通免费2 vip免费</t>
   </si>
   <si>
-    <t>0-余额 1-人民币</t>
+    <t>0-充值货币 1-人民币</t>
   </si>
   <si>
     <t>当有限购时间条件时候最低必须写1不然无法生效  和限购时间成为组合条件例如：1、限购次数：5 限购时间：D_1 结果为 每天可以购买5次2、限购次数：2 限购时间：9999 结果为 永久只能购买2次3、限购次数：0 限购时间：D_1 结果为每天购买0次4、限购次数：0 限购时间：0 则结果为无限购买</t>
@@ -142,7 +142,7 @@
     <t>purchase_limitation_time</t>
   </si>
   <si>
-    <t>抽奖券</t>
+    <t>图鉴礼包</t>
   </si>
   <si>
     <t>1_200</t>
@@ -172,7 +172,13 @@
     <t>XG</t>
   </si>
   <si>
+    <t>1005_500@1001_400</t>
+  </si>
+  <si>
     <t>月卡</t>
+  </si>
+  <si>
+    <t>1001_3000</t>
   </si>
   <si>
     <t>终身特权</t>
@@ -234,17 +240,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Microsoft YaHei UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -770,7 +776,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -900,7 +906,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -943,7 +949,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1338,30 +1347,30 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{E1066ACC-E605-489A-8D19-0AFCD15E5F6E}">
+    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{A3949931-438F-4B6B-8EDF-D22D2E8F01A0}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstColumn" dxfId="1"/>
       <tableStyleElement type="firstRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{728235DA-AE2A-408E-88B8-5FA17810698F}">
+    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{09C6A91C-E821-430F-B829-3441DD9FAAD3}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
       <tableStyleElement type="secondColumnStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{5FC5829F-B1C7-4DBD-BD1A-5BB2949FB653}">
+    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{AED5965E-D517-4FE1-815C-B3BB4BF0F355}">
       <tableStyleElement type="wholeTable" dxfId="10"/>
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{5441BEC9-28DA-40B7-A46D-4180FEC7E9F1}">
+    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{F330FBB7-1480-4B70-AF98-F444C69C2FEF}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="firstColumnStripe" dxfId="12"/>
       <tableStyleElement type="secondColumnStripe" dxfId="11"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{C9388E80-B1DE-4C83-BC12-B4AC3BD6369A}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{05A30F49-5138-4B3C-B642-5C0CA6F50A70}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="secondRowStripe" dxfId="15"/>
@@ -1664,10 +1673,10 @@
   <sheetPr/>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1960,72 +1969,92 @@
       </c>
       <c r="N7" s="12"/>
     </row>
-    <row r="8" ht="14.25"/>
-    <row r="9" ht="16.5" spans="4:5">
-      <c r="D9" s="14" t="s">
+    <row r="8" ht="14.25" spans="8:10">
+      <c r="H8" s="14" t="s">
         <v>47</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="3:9">
+      <c r="C9" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
+      <c r="G9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" ht="16.5" spans="4:5">
-      <c r="D10" s="14" t="s">
-        <v>48</v>
+      <c r="D10" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="4:5">
-      <c r="D11" s="14" t="s">
-        <v>49</v>
+      <c r="D11" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="4:5">
-      <c r="D12" s="14" t="s">
-        <v>50</v>
+      <c r="D12" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="4:5">
-      <c r="D13" s="14" t="s">
-        <v>51</v>
+      <c r="D13" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="4:5">
-      <c r="D14" s="14" t="s">
-        <v>52</v>
+      <c r="D14" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="4:5">
-      <c r="D15" s="14" t="s">
-        <v>53</v>
+      <c r="D15" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="4:5">
-      <c r="D16" s="14" t="s">
-        <v>54</v>
+      <c r="D16" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H8" r:id="rId1" display="1005_500@1001_400"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/doc_new/4.服务器配置文档/商城物品列表.xlsx
+++ b/doc_new/4.服务器配置文档/商城物品列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="23145" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="商城(template_shopping)" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="170">
   <si>
     <t>字段名称</t>
   </si>
@@ -36,37 +36,68 @@
     <t>物品引索</t>
   </si>
   <si>
-    <t>物品id</t>
-  </si>
-  <si>
-    <t>商品显示</t>
+    <t>商品名字</t>
+  </si>
+  <si>
+    <t>商品介绍</t>
+  </si>
+  <si>
+    <t>商品图片</t>
+  </si>
+  <si>
+    <t>对应物品id</t>
   </si>
   <si>
     <t>数量</t>
   </si>
   <si>
+    <t>附加物品赠送</t>
+  </si>
+  <si>
+    <t>购买类型</t>
+  </si>
+  <si>
+    <t>支付类型</t>
+  </si>
+  <si>
+    <t>原价费用 物品id_数量</t>
+  </si>
+  <si>
+    <t>费用</t>
+  </si>
+  <si>
+    <t>商品稀有度</t>
+  </si>
+  <si>
+    <t>热卖标签</t>
+  </si>
+  <si>
+    <t>折扣标签
+(10为不打折)</t>
+  </si>
+  <si>
     <t>排序</t>
   </si>
   <si>
-    <t>附加物品赠送</t>
-  </si>
-  <si>
-    <t>费用</t>
-  </si>
-  <si>
-    <t>购买类型</t>
-  </si>
-  <si>
-    <t>支付类型</t>
+    <t>商城大类</t>
   </si>
   <si>
     <t>复购后自动转换</t>
   </si>
   <si>
+    <t>单次购买限制</t>
+  </si>
+  <si>
+    <t>限购次数</t>
+  </si>
+  <si>
     <t>限购时间</t>
   </si>
   <si>
-    <t>描述</t>
+    <t>开始购买时间</t>
+  </si>
+  <si>
+    <t>结束购买时间</t>
   </si>
   <si>
     <t>说明</t>
@@ -78,16 +109,15 @@
     <t>物品id_数量,物品id_数量,物品id_数量</t>
   </si>
   <si>
-    <t>物品id_数量 组合费用@分割多种支付方式,分割目前只支持货币类型物品id1琥珀2翡翠 8金币
-RMB支付_前面值不要单位元</t>
-  </si>
-  <si>
     <t>0 普通购买1 普通免费2 vip免费</t>
   </si>
   <si>
     <t>0-充值货币 1-人民币</t>
   </si>
   <si>
+    <t>真实费用 物品id_数量</t>
+  </si>
+  <si>
     <t>当有限购时间条件时候最低必须写1不然无法生效  和限购时间成为组合条件例如：1、限购次数：5 限购时间：D_1 结果为 每天可以购买5次2、限购次数：2 限购时间：9999 结果为 永久只能购买2次3、限购次数：0 限购时间：D_1 结果为每天购买0次4、限购次数：0 限购时间：0 则结果为无限购买</t>
   </si>
   <si>
@@ -109,30 +139,30 @@
     <t>id</t>
   </si>
   <si>
+    <t>names</t>
+  </si>
+  <si>
     <t>item_id</t>
   </si>
   <si>
-    <t>names</t>
-  </si>
-  <si>
     <t>number</t>
   </si>
   <si>
+    <t>additions</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>type_payment</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
     <t>sort</t>
   </si>
   <si>
-    <t>additions</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>type_payment</t>
-  </si>
-  <si>
     <t>resolves</t>
   </si>
   <si>
@@ -142,75 +172,414 @@
     <t>purchase_limitation_time</t>
   </si>
   <si>
-    <t>图鉴礼包</t>
-  </si>
-  <si>
-    <t>1_200</t>
-  </si>
-  <si>
-    <t>材料A礼包</t>
-  </si>
-  <si>
-    <t>7_200,8_200</t>
-  </si>
-  <si>
-    <t>1_300</t>
-  </si>
-  <si>
-    <t>D_1</t>
-  </si>
-  <si>
-    <t>材料B礼包</t>
-  </si>
-  <si>
-    <t>10_200,11_200</t>
-  </si>
-  <si>
-    <t>1_400</t>
-  </si>
-  <si>
-    <t>XG</t>
-  </si>
-  <si>
-    <t>1005_500@1001_400</t>
-  </si>
-  <si>
     <t>月卡</t>
   </si>
   <si>
+    <t>购买直接获得3000琥珀，之后30天内每天登录可购买【每日月卡礼包】，礼包内容：200翡翠，2000金币。
+获得30天效果：
+通关奖励中，技能精通经验获取率+10%，地图经验获取率+10%，通关翡翠获取率+20%(和终身卡叠加)</t>
+  </si>
+  <si>
     <t>1001_3000</t>
   </si>
   <si>
+    <t>rmb_30</t>
+  </si>
+  <si>
     <t>终身特权</t>
   </si>
   <si>
-    <t>元素祈福</t>
+    <t>购买直接获得9800琥珀，
+10张【祈福卷轴】，
+之后每天登录可购买【每日终身卡礼包】，礼包内容：300翡翠，1张元素祈福，3000金币。
+终身获得效果：
+通关奖励中，技能精通经验获取率+20%，地图经验获取率+20%，通关翡翠获取率+30%(和月卡叠加)
+额外效果：魂石升级概率+10%，图鉴合成金币消耗-20%</t>
+  </si>
+  <si>
+    <t>1001_9800,1201_10</t>
+  </si>
+  <si>
+    <t>rmb_98</t>
   </si>
   <si>
     <t>天辉信物</t>
   </si>
   <si>
+    <t>攻击力+10
+生命值+200
+最大蓝量+100
+蓝量回复+2/S
+生命恢复+5/S
+技能急速+20
+*天辉任务奖励+30%</t>
+  </si>
+  <si>
     <t>夜魇信物</t>
   </si>
   <si>
+    <t>暴击概率+15%
+暴击伤害+30%
+防御力+10
+技能伤害+20%
+移动速度+10%
+*夜魇任务奖励+30%</t>
+  </si>
+  <si>
     <t>灵魂战刃</t>
   </si>
   <si>
-    <t>老者的指引</t>
-  </si>
-  <si>
-    <t>图鉴大师</t>
+    <t>攻击力+20
+攻击速度+50
+暴击伤害+20%
+移动速度+10%
+技能急速+10
+*灵魂获取率+30%</t>
+  </si>
+  <si>
+    <t>rmb_198</t>
+  </si>
+  <si>
+    <t>祈福礼包</t>
+  </si>
+  <si>
+    <t>祈福卷轴*200</t>
+  </si>
+  <si>
+    <t>1001_19800</t>
+  </si>
+  <si>
+    <t>图鉴箱礼包·小</t>
+  </si>
+  <si>
+    <t>10*精良图鉴箱
+5*史诗图鉴箱
+1*传说图鉴箱</t>
+  </si>
+  <si>
+    <t>3502_5,3503_1</t>
+  </si>
+  <si>
+    <t>1001_6800</t>
+  </si>
+  <si>
+    <t>图鉴箱礼包·中</t>
+  </si>
+  <si>
+    <t>20*精良图鉴箱
+10*史诗图鉴箱
+3*传说图鉴箱</t>
+  </si>
+  <si>
+    <t>3502_10,3503_3</t>
+  </si>
+  <si>
+    <t>1001_12800</t>
+  </si>
+  <si>
+    <t>图鉴礼包箱·大</t>
+  </si>
+  <si>
+    <t>50*精良图鉴箱
+20*史诗图鉴箱
+5*传说图鉴箱</t>
+  </si>
+  <si>
+    <t>3502_20,3503_5</t>
+  </si>
+  <si>
+    <t>每日祈福礼包</t>
+  </si>
+  <si>
+    <t>10*祈福卷轴</t>
+  </si>
+  <si>
+    <t>祈福卷轴</t>
+  </si>
+  <si>
+    <t>1*元素卷轴</t>
+  </si>
+  <si>
+    <t>1001_600,1005_60000</t>
+  </si>
+  <si>
+    <t>每日魂石礼包</t>
+  </si>
+  <si>
+    <t>100*1级魂石自选箱</t>
+  </si>
+  <si>
+    <t>1级魂石·攻击力</t>
+  </si>
+  <si>
+    <t>带攻击力属性的1级魂石</t>
+  </si>
+  <si>
+    <t>1005_10000</t>
+  </si>
+  <si>
+    <t>1级魂石·固定伤害</t>
+  </si>
+  <si>
+    <t>1级魂石·全元素伤害</t>
+  </si>
+  <si>
+    <t>1级魂石·暴击概率</t>
+  </si>
+  <si>
+    <t>1级魂石·暴击伤害</t>
+  </si>
+  <si>
+    <t>1级魂石·元素穿透</t>
+  </si>
+  <si>
+    <t>1级魂石·生命值</t>
+  </si>
+  <si>
+    <t>1级魂石·攻击速度</t>
+  </si>
+  <si>
+    <t>1级魂石·防御</t>
+  </si>
+  <si>
+    <t>1级魂石·元素抗性</t>
+  </si>
+  <si>
+    <t>1级魂石·暴击抵抗</t>
+  </si>
+  <si>
+    <t>1级魂石·爆伤抵抗</t>
+  </si>
+  <si>
+    <t>1级魂石·生命回复</t>
+  </si>
+  <si>
+    <t>1级魂石·固定伤害减免</t>
+  </si>
+  <si>
+    <t>1级魂石·技能急速</t>
+  </si>
+  <si>
+    <t>1级魂石·移动速度</t>
+  </si>
+  <si>
+    <t>1级魂石·闪避率</t>
+  </si>
+  <si>
+    <t>2级魂石·攻击力</t>
+  </si>
+  <si>
+    <t>1005_20000</t>
+  </si>
+  <si>
+    <t>2级魂石·固定伤害</t>
+  </si>
+  <si>
+    <t>2级魂石·全元素伤害</t>
+  </si>
+  <si>
+    <t>2级魂石·暴击概率</t>
+  </si>
+  <si>
+    <t>2级魂石·暴击伤害</t>
+  </si>
+  <si>
+    <t>2级魂石·元素穿透</t>
+  </si>
+  <si>
+    <t>2级魂石·生命值</t>
+  </si>
+  <si>
+    <t>2级魂石·攻击速度</t>
+  </si>
+  <si>
+    <t>2级魂石·防御</t>
+  </si>
+  <si>
+    <t>2级魂石·元素抗性</t>
+  </si>
+  <si>
+    <t>2级魂石·暴击抵抗</t>
+  </si>
+  <si>
+    <t>2级魂石·爆伤抵抗</t>
+  </si>
+  <si>
+    <t>2级魂石·生命回复</t>
+  </si>
+  <si>
+    <t>2级魂石·固定伤害减免</t>
+  </si>
+  <si>
+    <t>2级魂石·技能急速</t>
+  </si>
+  <si>
+    <t>2级魂石·移动速度</t>
+  </si>
+  <si>
+    <t>2级魂石·闪避率</t>
+  </si>
+  <si>
+    <t>3级魂石·攻击力</t>
+  </si>
+  <si>
+    <t>1005_30000</t>
+  </si>
+  <si>
+    <t>3级魂石·固定伤害</t>
+  </si>
+  <si>
+    <t>3级魂石·全元素伤害</t>
+  </si>
+  <si>
+    <t>3级魂石·暴击概率</t>
+  </si>
+  <si>
+    <t>3级魂石·暴击伤害</t>
+  </si>
+  <si>
+    <t>3级魂石·元素穿透</t>
+  </si>
+  <si>
+    <t>3级魂石·生命值</t>
+  </si>
+  <si>
+    <t>3级魂石·攻击速度</t>
+  </si>
+  <si>
+    <t>3级魂石·防御</t>
+  </si>
+  <si>
+    <t>3级魂石·元素抗性</t>
+  </si>
+  <si>
+    <t>3级魂石·暴击抵抗</t>
+  </si>
+  <si>
+    <t>3级魂石·爆伤抵抗</t>
+  </si>
+  <si>
+    <t>3级魂石·生命回复</t>
+  </si>
+  <si>
+    <t>3级魂石·固定伤害减免</t>
+  </si>
+  <si>
+    <t>3级魂石·技能急速</t>
+  </si>
+  <si>
+    <t>3级魂石·移动速度</t>
+  </si>
+  <si>
+    <t>3级魂石·闪避率</t>
+  </si>
+  <si>
+    <t>4级魂石·攻击力</t>
+  </si>
+  <si>
+    <t>1005_40000</t>
+  </si>
+  <si>
+    <t>4级魂石·固定伤害</t>
+  </si>
+  <si>
+    <t>4级魂石·全元素伤害</t>
+  </si>
+  <si>
+    <t>4级魂石·暴击概率</t>
+  </si>
+  <si>
+    <t>4级魂石·暴击伤害</t>
+  </si>
+  <si>
+    <t>4级魂石·元素穿透</t>
+  </si>
+  <si>
+    <t>4级魂石·生命值</t>
+  </si>
+  <si>
+    <t>4级魂石·攻击速度</t>
+  </si>
+  <si>
+    <t>4级魂石·防御</t>
+  </si>
+  <si>
+    <t>4级魂石·元素抗性</t>
+  </si>
+  <si>
+    <t>4级魂石·暴击抵抗</t>
+  </si>
+  <si>
+    <t>4级魂石·爆伤抵抗</t>
+  </si>
+  <si>
+    <t>4级魂石·生命回复</t>
+  </si>
+  <si>
+    <t>4级魂石·固定伤害减免</t>
+  </si>
+  <si>
+    <t>4级魂石·技能急速</t>
+  </si>
+  <si>
+    <t>4级魂石·移动速度</t>
+  </si>
+  <si>
+    <t>4级魂石·闪避率</t>
+  </si>
+  <si>
+    <t>1级魂石降级卷</t>
+  </si>
+  <si>
+    <t>2级魂石降级卷</t>
+  </si>
+  <si>
+    <t>3级魂石降级卷</t>
+  </si>
+  <si>
+    <t>4级魂石降级卷</t>
+  </si>
+  <si>
+    <t>低级魂石升级保护卷</t>
+  </si>
+  <si>
+    <t>中级魂石升级保护卷</t>
+  </si>
+  <si>
+    <t>高级魂石升级保护卷</t>
+  </si>
+  <si>
+    <t>每日登录礼包</t>
+  </si>
+  <si>
+    <t>1003_1000</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>每日月卡礼包</t>
+  </si>
+  <si>
+    <t>1003_2000</t>
+  </si>
+  <si>
+    <t>每日终身卡礼包</t>
+  </si>
+  <si>
+    <t>1003_3000,1201_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -240,17 +609,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Microsoft YaHei UI"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -601,7 +971,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -648,6 +1018,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.6"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thick">
@@ -655,6 +1051,79 @@
       </top>
       <bottom style="thick">
         <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.6"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.6"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.6"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.6"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.6"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.6"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.6"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,13 +1245,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -794,34 +1263,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -906,7 +1375,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -937,23 +1406,56 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1347,30 +1849,30 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{A3949931-438F-4B6B-8EDF-D22D2E8F01A0}">
+    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{5BC54E89-1002-471B-8B51-B8182AB24B1C}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstColumn" dxfId="1"/>
       <tableStyleElement type="firstRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{09C6A91C-E821-430F-B829-3441DD9FAAD3}">
+    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{7950D0E0-4E8F-47DA-A215-0C4A2ED0CA7E}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
       <tableStyleElement type="secondColumnStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{AED5965E-D517-4FE1-815C-B3BB4BF0F355}">
+    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{9BA58C4E-C283-48E1-AD4F-7E267359EAC5}">
       <tableStyleElement type="wholeTable" dxfId="10"/>
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{F330FBB7-1480-4B70-AF98-F444C69C2FEF}">
+    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{CC7E3B48-C332-49A2-AD62-D8CEF08A43BE}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="firstColumnStripe" dxfId="12"/>
       <tableStyleElement type="secondColumnStripe" dxfId="11"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{05A30F49-5138-4B3C-B642-5C0CA6F50A70}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{219B2C97-69B2-4781-9447-9778CD1146E1}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="secondRowStripe" dxfId="15"/>
@@ -1671,33 +2173,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:X94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="M1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.3416666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3416666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.8416666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.675" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.675" style="1" customWidth="1"/>
-    <col min="7" max="7" width="48.3416666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="50.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.5083333333333" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.175" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.8416666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="50.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="31.175" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.675" style="1" customWidth="1"/>
+    <col min="2" max="3" width="12.3416666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6416666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.3416666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.8416666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.675" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30.4333333333333" style="2" customWidth="1"/>
+    <col min="9" max="10" width="17.7916666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.2583333333333" style="2" customWidth="1"/>
+    <col min="12" max="12" width="22.35" style="3" customWidth="1"/>
+    <col min="13" max="14" width="10.8416666666667" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.9333333333333" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.675" style="1" customWidth="1"/>
+    <col min="18" max="20" width="17.8416666666667" style="1" customWidth="1"/>
+    <col min="21" max="21" width="50.625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="31.175" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.675" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1" spans="1:14">
+    <row r="1" ht="41" customHeight="1" spans="1:24">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1731,330 +2236,4570 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4">
-        <v>50</v>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" ht="88.5" customHeight="1" spans="1:14">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" ht="88.5" customHeight="1" spans="1:23">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="5"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K2" s="5"/>
-      <c r="L2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="L2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-    </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:14">
+      <c r="O2" s="5"/>
+      <c r="P2" s="6"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="5"/>
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:24">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>22</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>23</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="K3" s="7"/>
       <c r="L3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>23</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:14">
+      <c r="O3" s="7"/>
+      <c r="P3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="1:24">
       <c r="A4" s="8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>28</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>34</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="K4" s="8"/>
       <c r="L4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>36</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="M4" s="8"/>
       <c r="N4" s="8"/>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:14">
+      <c r="O4" s="8"/>
+      <c r="P4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+    </row>
+    <row r="5" ht="130" customHeight="1" spans="1:23">
       <c r="A5" s="9"/>
       <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14">
+        <v>20000</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <v>1</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="14">
         <v>5</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="N5" s="14">
+        <v>0</v>
+      </c>
+      <c r="O5" s="14">
+        <v>10</v>
+      </c>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="20"/>
+    </row>
+    <row r="6" ht="101" customHeight="1" spans="1:23">
+      <c r="A6" s="15"/>
+      <c r="B6" s="10">
+        <v>2</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19">
+        <v>20001</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
+        <v>1</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="19">
+        <v>5</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0</v>
+      </c>
+      <c r="O6" s="14">
+        <v>10</v>
+      </c>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="16">
+        <v>1</v>
+      </c>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="21"/>
+    </row>
+    <row r="7" ht="101" customHeight="1" spans="1:23">
+      <c r="A7" s="15"/>
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19">
+        <v>20003</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
+        <v>1</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="19">
+        <v>5</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0</v>
+      </c>
+      <c r="O7" s="14">
+        <v>10</v>
+      </c>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="16">
+        <v>1</v>
+      </c>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="21"/>
+    </row>
+    <row r="8" ht="101" customHeight="1" spans="2:23">
+      <c r="B8" s="10">
+        <v>4</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19">
+        <v>20004</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <v>1</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="19">
+        <v>5</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14">
+        <v>10</v>
+      </c>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="16">
+        <v>1</v>
+      </c>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="21"/>
+    </row>
+    <row r="9" ht="101" customHeight="1" spans="2:23">
+      <c r="B9" s="10">
+        <v>5</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19">
+        <v>20005</v>
+      </c>
+      <c r="G9" s="16">
+        <v>1</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16">
+        <v>1</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="19">
+        <v>5</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14">
+        <v>10</v>
+      </c>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="16">
+        <v>1</v>
+      </c>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="21"/>
+    </row>
+    <row r="10" ht="101" customHeight="1" spans="2:23">
+      <c r="B10" s="10">
+        <v>6</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19">
+        <v>1201</v>
+      </c>
+      <c r="G10" s="16">
+        <v>200</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16">
+        <v>0</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="19">
+        <v>5</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0</v>
+      </c>
+      <c r="O10" s="14">
+        <v>10</v>
+      </c>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="16">
+        <v>1</v>
+      </c>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="21"/>
+    </row>
+    <row r="11" ht="101" customHeight="1" spans="2:23">
+      <c r="B11" s="10">
+        <v>7</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19">
+        <v>3501</v>
+      </c>
+      <c r="G11" s="16">
+        <v>10</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="19">
+        <v>3</v>
+      </c>
+      <c r="N11" s="14">
+        <v>0</v>
+      </c>
+      <c r="O11" s="14">
+        <v>10</v>
+      </c>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="16">
+        <v>3</v>
+      </c>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="21"/>
+    </row>
+    <row r="12" ht="101" customHeight="1" spans="2:23">
+      <c r="B12" s="10">
+        <v>8</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19">
+        <v>3501</v>
+      </c>
+      <c r="G12" s="16">
+        <v>20</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="16">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="19">
+        <v>4</v>
+      </c>
+      <c r="N12" s="14">
+        <v>0</v>
+      </c>
+      <c r="O12" s="14">
+        <v>10</v>
+      </c>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="16">
+        <v>3</v>
+      </c>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="21"/>
+    </row>
+    <row r="13" ht="101" customHeight="1" spans="2:23">
+      <c r="B13" s="10">
+        <v>9</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19">
+        <v>3501</v>
+      </c>
+      <c r="G13" s="16">
+        <v>50</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="16">
+        <v>0</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="19">
+        <v>5</v>
+      </c>
+      <c r="N13" s="14">
+        <v>0</v>
+      </c>
+      <c r="O13" s="14">
+        <v>10</v>
+      </c>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="16">
+        <v>3</v>
+      </c>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="21"/>
+    </row>
+    <row r="14" ht="101" customHeight="1" spans="2:23">
+      <c r="B14" s="10">
+        <v>10</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19">
+        <v>1201</v>
+      </c>
+      <c r="G14" s="16">
+        <v>10</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16">
+        <v>0</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="19">
+        <v>3</v>
+      </c>
+      <c r="N14" s="14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="14">
+        <v>10</v>
+      </c>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="16">
+        <v>1</v>
+      </c>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="21"/>
+    </row>
+    <row r="15" ht="101" customHeight="1" spans="2:23">
+      <c r="B15" s="10">
+        <v>11</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19">
+        <v>1201</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16">
+        <v>0</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" s="19">
+        <v>2</v>
+      </c>
+      <c r="N15" s="14">
+        <v>0</v>
+      </c>
+      <c r="O15" s="14">
+        <v>10</v>
+      </c>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="16">
+        <v>99</v>
+      </c>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="21"/>
+    </row>
+    <row r="16" ht="101" customHeight="1" spans="2:23">
+      <c r="B16" s="10">
+        <v>12</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19">
+        <v>1287</v>
+      </c>
+      <c r="G16" s="16">
+        <v>100</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" s="19">
+        <v>5</v>
+      </c>
+      <c r="N16" s="14">
+        <v>0</v>
+      </c>
+      <c r="O16" s="14">
+        <v>10</v>
+      </c>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="16">
+        <v>1</v>
+      </c>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="21"/>
+    </row>
+    <row r="17" ht="101" customHeight="1" spans="2:23">
+      <c r="B17" s="10">
+        <v>13</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="16">
+        <v>10000</v>
+      </c>
+      <c r="G17" s="16">
+        <v>1</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16">
+        <v>0</v>
+      </c>
+      <c r="J17" s="16">
+        <v>0</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" s="19">
+        <v>2</v>
+      </c>
+      <c r="N17" s="14">
+        <v>0</v>
+      </c>
+      <c r="O17" s="14">
+        <v>10</v>
+      </c>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="16">
+        <v>99</v>
+      </c>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="21"/>
+    </row>
+    <row r="18" ht="101" customHeight="1" spans="2:23">
+      <c r="B18" s="10">
+        <v>14</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="16">
+        <v>10001</v>
+      </c>
+      <c r="G18" s="16">
+        <v>1</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16">
+        <v>0</v>
+      </c>
+      <c r="J18" s="16">
+        <v>0</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18" s="19">
+        <v>2</v>
+      </c>
+      <c r="N18" s="14">
+        <v>0</v>
+      </c>
+      <c r="O18" s="14">
+        <v>10</v>
+      </c>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="16">
+        <v>99</v>
+      </c>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="21"/>
+    </row>
+    <row r="19" ht="101" customHeight="1" spans="2:23">
+      <c r="B19" s="10">
+        <v>15</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="16">
+        <v>10002</v>
+      </c>
+      <c r="G19" s="16">
+        <v>1</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16">
+        <v>0</v>
+      </c>
+      <c r="J19" s="16">
+        <v>0</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19" s="19">
+        <v>2</v>
+      </c>
+      <c r="N19" s="14">
+        <v>0</v>
+      </c>
+      <c r="O19" s="14">
+        <v>10</v>
+      </c>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="16">
+        <v>99</v>
+      </c>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="21"/>
+    </row>
+    <row r="20" ht="101" customHeight="1" spans="2:23">
+      <c r="B20" s="10">
+        <v>16</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="16">
+        <v>10003</v>
+      </c>
+      <c r="G20" s="16">
+        <v>1</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16">
+        <v>0</v>
+      </c>
+      <c r="J20" s="16">
+        <v>0</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M20" s="19">
+        <v>2</v>
+      </c>
+      <c r="N20" s="14">
+        <v>0</v>
+      </c>
+      <c r="O20" s="14">
+        <v>10</v>
+      </c>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="16">
+        <v>99</v>
+      </c>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="21"/>
+    </row>
+    <row r="21" ht="101" customHeight="1" spans="2:23">
+      <c r="B21" s="10">
+        <v>17</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="16">
+        <v>10004</v>
+      </c>
+      <c r="G21" s="16">
+        <v>1</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16">
+        <v>0</v>
+      </c>
+      <c r="J21" s="16">
+        <v>0</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M21" s="19">
+        <v>2</v>
+      </c>
+      <c r="N21" s="14">
+        <v>0</v>
+      </c>
+      <c r="O21" s="14">
+        <v>10</v>
+      </c>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="16">
+        <v>99</v>
+      </c>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="21"/>
+    </row>
+    <row r="22" ht="101" customHeight="1" spans="2:23">
+      <c r="B22" s="10">
+        <v>18</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="16">
+        <v>10005</v>
+      </c>
+      <c r="G22" s="16">
+        <v>1</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16">
+        <v>0</v>
+      </c>
+      <c r="J22" s="16">
+        <v>0</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M22" s="19">
+        <v>2</v>
+      </c>
+      <c r="N22" s="14">
+        <v>0</v>
+      </c>
+      <c r="O22" s="14">
+        <v>10</v>
+      </c>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="16">
+        <v>99</v>
+      </c>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="21"/>
+    </row>
+    <row r="23" ht="101" customHeight="1" spans="2:23">
+      <c r="B23" s="10">
+        <v>19</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="16">
+        <v>10006</v>
+      </c>
+      <c r="G23" s="16">
+        <v>1</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16">
+        <v>0</v>
+      </c>
+      <c r="J23" s="16">
+        <v>0</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M23" s="19">
+        <v>2</v>
+      </c>
+      <c r="N23" s="14">
+        <v>0</v>
+      </c>
+      <c r="O23" s="14">
+        <v>10</v>
+      </c>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="16">
+        <v>99</v>
+      </c>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="21"/>
+    </row>
+    <row r="24" ht="101" customHeight="1" spans="2:23">
+      <c r="B24" s="10">
+        <v>20</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="16">
+        <v>10007</v>
+      </c>
+      <c r="G24" s="16">
+        <v>1</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16">
+        <v>0</v>
+      </c>
+      <c r="J24" s="16">
+        <v>0</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M24" s="19">
+        <v>2</v>
+      </c>
+      <c r="N24" s="14">
+        <v>0</v>
+      </c>
+      <c r="O24" s="14">
+        <v>10</v>
+      </c>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="16">
+        <v>99</v>
+      </c>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="21"/>
+    </row>
+    <row r="25" ht="101" customHeight="1" spans="2:23">
+      <c r="B25" s="10">
+        <v>21</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="16">
+        <v>10008</v>
+      </c>
+      <c r="G25" s="16">
+        <v>1</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16">
+        <v>0</v>
+      </c>
+      <c r="J25" s="16">
+        <v>0</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M25" s="19">
+        <v>2</v>
+      </c>
+      <c r="N25" s="14">
+        <v>0</v>
+      </c>
+      <c r="O25" s="14">
+        <v>10</v>
+      </c>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="16">
+        <v>99</v>
+      </c>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="21"/>
+    </row>
+    <row r="26" ht="101" customHeight="1" spans="2:23">
+      <c r="B26" s="10">
+        <v>22</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="16">
+        <v>10009</v>
+      </c>
+      <c r="G26" s="16">
+        <v>1</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16">
+        <v>0</v>
+      </c>
+      <c r="J26" s="16">
+        <v>0</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M26" s="19">
+        <v>2</v>
+      </c>
+      <c r="N26" s="14">
+        <v>0</v>
+      </c>
+      <c r="O26" s="14">
+        <v>10</v>
+      </c>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="16">
+        <v>99</v>
+      </c>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="21"/>
+    </row>
+    <row r="27" ht="101" customHeight="1" spans="2:23">
+      <c r="B27" s="10">
+        <v>23</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="16">
+        <v>10010</v>
+      </c>
+      <c r="G27" s="16">
+        <v>1</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16">
+        <v>0</v>
+      </c>
+      <c r="J27" s="16">
+        <v>0</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M27" s="19">
+        <v>2</v>
+      </c>
+      <c r="N27" s="14">
+        <v>0</v>
+      </c>
+      <c r="O27" s="14">
+        <v>10</v>
+      </c>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="16">
+        <v>99</v>
+      </c>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="21"/>
+    </row>
+    <row r="28" ht="101" customHeight="1" spans="2:23">
+      <c r="B28" s="10">
+        <v>24</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="16">
+        <v>10011</v>
+      </c>
+      <c r="G28" s="16">
+        <v>1</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16">
+        <v>0</v>
+      </c>
+      <c r="J28" s="16">
+        <v>0</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M28" s="19">
+        <v>2</v>
+      </c>
+      <c r="N28" s="14">
+        <v>0</v>
+      </c>
+      <c r="O28" s="14">
+        <v>10</v>
+      </c>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="16">
+        <v>99</v>
+      </c>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="21"/>
+    </row>
+    <row r="29" ht="101" customHeight="1" spans="2:23">
+      <c r="B29" s="10">
+        <v>25</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="16">
+        <v>10012</v>
+      </c>
+      <c r="G29" s="16">
+        <v>1</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16">
+        <v>0</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M29" s="19">
+        <v>2</v>
+      </c>
+      <c r="N29" s="14">
+        <v>0</v>
+      </c>
+      <c r="O29" s="14">
+        <v>10</v>
+      </c>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="16">
+        <v>99</v>
+      </c>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="21"/>
+    </row>
+    <row r="30" ht="101" customHeight="1" spans="2:23">
+      <c r="B30" s="10">
+        <v>26</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="16">
+        <v>10013</v>
+      </c>
+      <c r="G30" s="16">
+        <v>1</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16">
+        <v>0</v>
+      </c>
+      <c r="J30" s="16">
+        <v>0</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M30" s="19">
+        <v>2</v>
+      </c>
+      <c r="N30" s="14">
+        <v>0</v>
+      </c>
+      <c r="O30" s="14">
+        <v>10</v>
+      </c>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="16">
+        <v>99</v>
+      </c>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="21"/>
+    </row>
+    <row r="31" ht="101" customHeight="1" spans="2:23">
+      <c r="B31" s="10">
+        <v>27</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="16">
+        <v>10014</v>
+      </c>
+      <c r="G31" s="16">
+        <v>1</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16">
+        <v>0</v>
+      </c>
+      <c r="J31" s="16">
+        <v>0</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M31" s="19">
+        <v>2</v>
+      </c>
+      <c r="N31" s="14">
+        <v>0</v>
+      </c>
+      <c r="O31" s="14">
+        <v>10</v>
+      </c>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="16">
+        <v>99</v>
+      </c>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="21"/>
+    </row>
+    <row r="32" ht="101" customHeight="1" spans="2:23">
+      <c r="B32" s="10">
+        <v>28</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="16">
+        <v>10016</v>
+      </c>
+      <c r="G32" s="16">
+        <v>1</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16">
+        <v>0</v>
+      </c>
+      <c r="J32" s="16">
+        <v>0</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M32" s="19">
+        <v>2</v>
+      </c>
+      <c r="N32" s="14">
+        <v>0</v>
+      </c>
+      <c r="O32" s="14">
+        <v>10</v>
+      </c>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="16">
+        <v>99</v>
+      </c>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="21"/>
+    </row>
+    <row r="33" ht="101" customHeight="1" spans="2:23">
+      <c r="B33" s="10">
+        <v>29</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="19">
+        <v>10017</v>
+      </c>
+      <c r="G33" s="16">
+        <v>1</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16">
+        <v>0</v>
+      </c>
+      <c r="J33" s="16">
+        <v>0</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M33" s="19">
+        <v>2</v>
+      </c>
+      <c r="N33" s="14">
+        <v>0</v>
+      </c>
+      <c r="O33" s="14">
+        <v>10</v>
+      </c>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="16">
+        <v>99</v>
+      </c>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="21"/>
+    </row>
+    <row r="34" ht="101" customHeight="1" spans="2:23">
+      <c r="B34" s="10">
+        <v>30</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="16">
+        <v>10101</v>
+      </c>
+      <c r="G34" s="16">
+        <v>1</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16">
+        <v>0</v>
+      </c>
+      <c r="J34" s="16">
+        <v>0</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M34" s="19">
+        <v>3</v>
+      </c>
+      <c r="N34" s="14">
+        <v>0</v>
+      </c>
+      <c r="O34" s="14">
+        <v>10</v>
+      </c>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="16">
+        <v>99</v>
+      </c>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="21"/>
+    </row>
+    <row r="35" ht="101" customHeight="1" spans="2:23">
+      <c r="B35" s="10">
+        <v>31</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="16">
+        <v>10102</v>
+      </c>
+      <c r="G35" s="16">
+        <v>1</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16">
+        <v>0</v>
+      </c>
+      <c r="J35" s="16">
+        <v>0</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M35" s="19">
+        <v>3</v>
+      </c>
+      <c r="N35" s="14">
+        <v>0</v>
+      </c>
+      <c r="O35" s="14">
+        <v>10</v>
+      </c>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="16">
+        <v>99</v>
+      </c>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="21"/>
+    </row>
+    <row r="36" ht="101" customHeight="1" spans="2:23">
+      <c r="B36" s="10">
+        <v>32</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="16">
+        <v>10103</v>
+      </c>
+      <c r="G36" s="16">
+        <v>1</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16">
+        <v>0</v>
+      </c>
+      <c r="J36" s="16">
+        <v>0</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M36" s="19">
+        <v>3</v>
+      </c>
+      <c r="N36" s="14">
+        <v>0</v>
+      </c>
+      <c r="O36" s="14">
+        <v>10</v>
+      </c>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="16">
+        <v>99</v>
+      </c>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="21"/>
+    </row>
+    <row r="37" ht="101" customHeight="1" spans="2:23">
+      <c r="B37" s="10">
+        <v>33</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="16">
+        <v>10104</v>
+      </c>
+      <c r="G37" s="16">
+        <v>1</v>
+      </c>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16">
+        <v>0</v>
+      </c>
+      <c r="J37" s="16">
+        <v>0</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M37" s="19">
+        <v>3</v>
+      </c>
+      <c r="N37" s="14">
+        <v>0</v>
+      </c>
+      <c r="O37" s="14">
+        <v>10</v>
+      </c>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="16">
+        <v>99</v>
+      </c>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="21"/>
+    </row>
+    <row r="38" ht="101" customHeight="1" spans="2:23">
+      <c r="B38" s="10">
+        <v>34</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="16">
+        <v>10105</v>
+      </c>
+      <c r="G38" s="16">
+        <v>1</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16">
+        <v>0</v>
+      </c>
+      <c r="J38" s="16">
+        <v>0</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M38" s="19">
+        <v>3</v>
+      </c>
+      <c r="N38" s="14">
+        <v>0</v>
+      </c>
+      <c r="O38" s="14">
+        <v>10</v>
+      </c>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="16">
+        <v>99</v>
+      </c>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="21"/>
+    </row>
+    <row r="39" ht="101" customHeight="1" spans="2:23">
+      <c r="B39" s="10">
+        <v>35</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="16">
+        <v>10106</v>
+      </c>
+      <c r="G39" s="16">
+        <v>1</v>
+      </c>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16">
+        <v>0</v>
+      </c>
+      <c r="J39" s="16">
+        <v>0</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L39" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M39" s="19">
+        <v>3</v>
+      </c>
+      <c r="N39" s="14">
+        <v>0</v>
+      </c>
+      <c r="O39" s="14">
+        <v>10</v>
+      </c>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="16">
+        <v>99</v>
+      </c>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="21"/>
+    </row>
+    <row r="40" ht="101" customHeight="1" spans="2:23">
+      <c r="B40" s="10">
+        <v>36</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="16">
+        <v>10107</v>
+      </c>
+      <c r="G40" s="16">
+        <v>1</v>
+      </c>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16">
+        <v>0</v>
+      </c>
+      <c r="J40" s="16">
+        <v>0</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L40" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M40" s="19">
+        <v>3</v>
+      </c>
+      <c r="N40" s="14">
+        <v>0</v>
+      </c>
+      <c r="O40" s="14">
+        <v>10</v>
+      </c>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="16">
+        <v>99</v>
+      </c>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="21"/>
+    </row>
+    <row r="41" ht="101" customHeight="1" spans="2:23">
+      <c r="B41" s="10">
         <v>37</v>
       </c>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10" t="s">
+      <c r="C41" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="16">
+        <v>10108</v>
+      </c>
+      <c r="G41" s="16">
+        <v>1</v>
+      </c>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16">
+        <v>0</v>
+      </c>
+      <c r="J41" s="16">
+        <v>0</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M41" s="19">
+        <v>3</v>
+      </c>
+      <c r="N41" s="14">
+        <v>0</v>
+      </c>
+      <c r="O41" s="14">
+        <v>10</v>
+      </c>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="16">
+        <v>99</v>
+      </c>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="21"/>
+    </row>
+    <row r="42" ht="101" customHeight="1" spans="2:23">
+      <c r="B42" s="10">
         <v>38</v>
       </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9">
-        <v>0</v>
-      </c>
-      <c r="M5" s="10">
-        <v>0</v>
-      </c>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13">
+      <c r="C42" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="16">
+        <v>10109</v>
+      </c>
+      <c r="G42" s="16">
+        <v>1</v>
+      </c>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16">
+        <v>0</v>
+      </c>
+      <c r="J42" s="16">
+        <v>0</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M42" s="19">
+        <v>3</v>
+      </c>
+      <c r="N42" s="14">
+        <v>0</v>
+      </c>
+      <c r="O42" s="14">
+        <v>10</v>
+      </c>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="16">
+        <v>99</v>
+      </c>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="21"/>
+    </row>
+    <row r="43" ht="101" customHeight="1" spans="2:23">
+      <c r="B43" s="10">
+        <v>39</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="16">
+        <v>10110</v>
+      </c>
+      <c r="G43" s="16">
+        <v>1</v>
+      </c>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16">
+        <v>0</v>
+      </c>
+      <c r="J43" s="16">
+        <v>0</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L43" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M43" s="19">
+        <v>3</v>
+      </c>
+      <c r="N43" s="14">
+        <v>0</v>
+      </c>
+      <c r="O43" s="14">
+        <v>10</v>
+      </c>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="16">
+        <v>99</v>
+      </c>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="21"/>
+    </row>
+    <row r="44" ht="101" customHeight="1" spans="2:23">
+      <c r="B44" s="10">
+        <v>40</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="16">
+        <v>10111</v>
+      </c>
+      <c r="G44" s="16">
+        <v>1</v>
+      </c>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16">
+        <v>0</v>
+      </c>
+      <c r="J44" s="16">
+        <v>0</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M44" s="19">
+        <v>3</v>
+      </c>
+      <c r="N44" s="14">
+        <v>0</v>
+      </c>
+      <c r="O44" s="14">
+        <v>10</v>
+      </c>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="16">
+        <v>99</v>
+      </c>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="21"/>
+    </row>
+    <row r="45" ht="101" customHeight="1" spans="2:23">
+      <c r="B45" s="10">
+        <v>41</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="16">
+        <v>10112</v>
+      </c>
+      <c r="G45" s="16">
+        <v>1</v>
+      </c>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16">
+        <v>0</v>
+      </c>
+      <c r="J45" s="16">
+        <v>0</v>
+      </c>
+      <c r="K45" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L45" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M45" s="19">
+        <v>3</v>
+      </c>
+      <c r="N45" s="14">
+        <v>0</v>
+      </c>
+      <c r="O45" s="14">
+        <v>10</v>
+      </c>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="16">
+        <v>99</v>
+      </c>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="21"/>
+    </row>
+    <row r="46" ht="101" customHeight="1" spans="2:23">
+      <c r="B46" s="10">
+        <v>42</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="16">
+        <v>10113</v>
+      </c>
+      <c r="G46" s="16">
+        <v>1</v>
+      </c>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16">
+        <v>0</v>
+      </c>
+      <c r="J46" s="16">
+        <v>0</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L46" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M46" s="19">
+        <v>3</v>
+      </c>
+      <c r="N46" s="14">
+        <v>0</v>
+      </c>
+      <c r="O46" s="14">
+        <v>10</v>
+      </c>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="16">
+        <v>99</v>
+      </c>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="16"/>
+      <c r="W46" s="21"/>
+    </row>
+    <row r="47" ht="101" customHeight="1" spans="2:23">
+      <c r="B47" s="10">
+        <v>43</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="16">
+        <v>10114</v>
+      </c>
+      <c r="G47" s="16">
+        <v>1</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16">
+        <v>0</v>
+      </c>
+      <c r="J47" s="16">
+        <v>0</v>
+      </c>
+      <c r="K47" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L47" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M47" s="19">
+        <v>3</v>
+      </c>
+      <c r="N47" s="14">
+        <v>0</v>
+      </c>
+      <c r="O47" s="14">
+        <v>10</v>
+      </c>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="16">
+        <v>99</v>
+      </c>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="21"/>
+    </row>
+    <row r="48" ht="101" customHeight="1" spans="2:23">
+      <c r="B48" s="10">
+        <v>44</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="16">
+        <v>10115</v>
+      </c>
+      <c r="G48" s="16">
+        <v>1</v>
+      </c>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16">
+        <v>0</v>
+      </c>
+      <c r="J48" s="16">
+        <v>0</v>
+      </c>
+      <c r="K48" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L48" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M48" s="19">
+        <v>3</v>
+      </c>
+      <c r="N48" s="14">
+        <v>0</v>
+      </c>
+      <c r="O48" s="14">
+        <v>10</v>
+      </c>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="16">
+        <v>99</v>
+      </c>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
+      <c r="W48" s="21"/>
+    </row>
+    <row r="49" ht="101" customHeight="1" spans="2:23">
+      <c r="B49" s="10">
+        <v>45</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="16">
+        <v>10117</v>
+      </c>
+      <c r="G49" s="16">
+        <v>1</v>
+      </c>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16">
+        <v>0</v>
+      </c>
+      <c r="J49" s="16">
+        <v>0</v>
+      </c>
+      <c r="K49" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L49" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M49" s="19">
+        <v>3</v>
+      </c>
+      <c r="N49" s="14">
+        <v>0</v>
+      </c>
+      <c r="O49" s="14">
+        <v>10</v>
+      </c>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="16">
+        <v>99</v>
+      </c>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="21"/>
+    </row>
+    <row r="50" ht="101" customHeight="1" spans="2:23">
+      <c r="B50" s="10">
+        <v>46</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" s="17"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="16">
+        <v>10118</v>
+      </c>
+      <c r="G50" s="16">
+        <v>1</v>
+      </c>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16">
+        <v>0</v>
+      </c>
+      <c r="J50" s="16">
+        <v>0</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L50" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M50" s="19">
+        <v>3</v>
+      </c>
+      <c r="N50" s="14">
+        <v>0</v>
+      </c>
+      <c r="O50" s="14">
+        <v>10</v>
+      </c>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="16">
+        <v>99</v>
+      </c>
+      <c r="T50" s="16"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="16"/>
+      <c r="W50" s="21"/>
+    </row>
+    <row r="51" ht="101" customHeight="1" spans="2:23">
+      <c r="B51" s="10">
+        <v>47</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="16">
+        <v>10201</v>
+      </c>
+      <c r="G51" s="16">
+        <v>1</v>
+      </c>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16">
+        <v>0</v>
+      </c>
+      <c r="J51" s="16">
+        <v>0</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L51" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="M51" s="19">
+        <v>4</v>
+      </c>
+      <c r="N51" s="14">
+        <v>0</v>
+      </c>
+      <c r="O51" s="14">
+        <v>10</v>
+      </c>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="16">
+        <v>99</v>
+      </c>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16"/>
+      <c r="W51" s="21"/>
+    </row>
+    <row r="52" ht="101" customHeight="1" spans="2:23">
+      <c r="B52" s="10">
+        <v>48</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="17"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="16">
+        <v>10202</v>
+      </c>
+      <c r="G52" s="16">
+        <v>1</v>
+      </c>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16">
+        <v>0</v>
+      </c>
+      <c r="J52" s="16">
+        <v>0</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L52" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="M52" s="19">
+        <v>4</v>
+      </c>
+      <c r="N52" s="14">
+        <v>0</v>
+      </c>
+      <c r="O52" s="14">
+        <v>10</v>
+      </c>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="16">
+        <v>99</v>
+      </c>
+      <c r="T52" s="16"/>
+      <c r="U52" s="16"/>
+      <c r="V52" s="16"/>
+      <c r="W52" s="21"/>
+    </row>
+    <row r="53" ht="101" customHeight="1" spans="2:23">
+      <c r="B53" s="10">
+        <v>49</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="17"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="16">
+        <v>10203</v>
+      </c>
+      <c r="G53" s="16">
+        <v>1</v>
+      </c>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16">
+        <v>0</v>
+      </c>
+      <c r="J53" s="16">
+        <v>0</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L53" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="M53" s="19">
+        <v>4</v>
+      </c>
+      <c r="N53" s="14">
+        <v>0</v>
+      </c>
+      <c r="O53" s="14">
+        <v>10</v>
+      </c>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="16">
+        <v>99</v>
+      </c>
+      <c r="T53" s="16"/>
+      <c r="U53" s="16"/>
+      <c r="V53" s="16"/>
+      <c r="W53" s="21"/>
+    </row>
+    <row r="54" ht="101" customHeight="1" spans="2:23">
+      <c r="B54" s="10">
+        <v>50</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" s="17"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="16">
+        <v>10204</v>
+      </c>
+      <c r="G54" s="16">
+        <v>1</v>
+      </c>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16">
+        <v>0</v>
+      </c>
+      <c r="J54" s="16">
+        <v>0</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L54" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="M54" s="19">
+        <v>4</v>
+      </c>
+      <c r="N54" s="14">
+        <v>0</v>
+      </c>
+      <c r="O54" s="14">
+        <v>10</v>
+      </c>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="16">
+        <v>99</v>
+      </c>
+      <c r="T54" s="16"/>
+      <c r="U54" s="16"/>
+      <c r="V54" s="16"/>
+      <c r="W54" s="21"/>
+    </row>
+    <row r="55" ht="101" customHeight="1" spans="2:23">
+      <c r="B55" s="10">
+        <v>51</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="17"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="16">
+        <v>10205</v>
+      </c>
+      <c r="G55" s="16">
+        <v>1</v>
+      </c>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16">
+        <v>0</v>
+      </c>
+      <c r="J55" s="16">
+        <v>0</v>
+      </c>
+      <c r="K55" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L55" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="M55" s="19">
+        <v>4</v>
+      </c>
+      <c r="N55" s="14">
+        <v>0</v>
+      </c>
+      <c r="O55" s="14">
+        <v>10</v>
+      </c>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="16">
+        <v>99</v>
+      </c>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
+      <c r="W55" s="21"/>
+    </row>
+    <row r="56" ht="101" customHeight="1" spans="2:23">
+      <c r="B56" s="10">
+        <v>52</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" s="17"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="16">
+        <v>10206</v>
+      </c>
+      <c r="G56" s="16">
+        <v>1</v>
+      </c>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16">
+        <v>0</v>
+      </c>
+      <c r="J56" s="16">
+        <v>0</v>
+      </c>
+      <c r="K56" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L56" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="M56" s="19">
+        <v>4</v>
+      </c>
+      <c r="N56" s="14">
+        <v>0</v>
+      </c>
+      <c r="O56" s="14">
+        <v>10</v>
+      </c>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="16">
+        <v>99</v>
+      </c>
+      <c r="T56" s="16"/>
+      <c r="U56" s="16"/>
+      <c r="V56" s="16"/>
+      <c r="W56" s="21"/>
+    </row>
+    <row r="57" ht="101" customHeight="1" spans="2:23">
+      <c r="B57" s="10">
+        <v>53</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" s="17"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="16">
+        <v>10207</v>
+      </c>
+      <c r="G57" s="16">
+        <v>1</v>
+      </c>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16">
+        <v>0</v>
+      </c>
+      <c r="J57" s="16">
+        <v>0</v>
+      </c>
+      <c r="K57" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L57" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="M57" s="19">
+        <v>4</v>
+      </c>
+      <c r="N57" s="14">
+        <v>0</v>
+      </c>
+      <c r="O57" s="14">
+        <v>10</v>
+      </c>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="16">
+        <v>99</v>
+      </c>
+      <c r="T57" s="16"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="16"/>
+      <c r="W57" s="21"/>
+    </row>
+    <row r="58" ht="101" customHeight="1" spans="2:23">
+      <c r="B58" s="10">
+        <v>54</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58" s="17"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="16">
+        <v>10208</v>
+      </c>
+      <c r="G58" s="16">
+        <v>1</v>
+      </c>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16">
+        <v>0</v>
+      </c>
+      <c r="J58" s="16">
+        <v>0</v>
+      </c>
+      <c r="K58" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L58" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="M58" s="19">
+        <v>4</v>
+      </c>
+      <c r="N58" s="14">
+        <v>0</v>
+      </c>
+      <c r="O58" s="14">
+        <v>10</v>
+      </c>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="16">
+        <v>99</v>
+      </c>
+      <c r="T58" s="16"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="16"/>
+      <c r="W58" s="21"/>
+    </row>
+    <row r="59" ht="101" customHeight="1" spans="2:23">
+      <c r="B59" s="10">
+        <v>55</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" s="17"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="16">
+        <v>10209</v>
+      </c>
+      <c r="G59" s="16">
+        <v>1</v>
+      </c>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16">
+        <v>0</v>
+      </c>
+      <c r="J59" s="16">
+        <v>0</v>
+      </c>
+      <c r="K59" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L59" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="M59" s="19">
+        <v>4</v>
+      </c>
+      <c r="N59" s="14">
+        <v>0</v>
+      </c>
+      <c r="O59" s="14">
+        <v>10</v>
+      </c>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="16">
+        <v>99</v>
+      </c>
+      <c r="T59" s="16"/>
+      <c r="U59" s="16"/>
+      <c r="V59" s="16"/>
+      <c r="W59" s="21"/>
+    </row>
+    <row r="60" ht="101" customHeight="1" spans="2:23">
+      <c r="B60" s="10">
+        <v>56</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" s="17"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="16">
+        <v>10210</v>
+      </c>
+      <c r="G60" s="16">
+        <v>1</v>
+      </c>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16">
+        <v>0</v>
+      </c>
+      <c r="J60" s="16">
+        <v>0</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L60" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="M60" s="19">
+        <v>4</v>
+      </c>
+      <c r="N60" s="14">
+        <v>0</v>
+      </c>
+      <c r="O60" s="14">
+        <v>10</v>
+      </c>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="16">
+        <v>99</v>
+      </c>
+      <c r="T60" s="16"/>
+      <c r="U60" s="16"/>
+      <c r="V60" s="16"/>
+      <c r="W60" s="21"/>
+    </row>
+    <row r="61" ht="101" customHeight="1" spans="2:23">
+      <c r="B61" s="10">
+        <v>57</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61" s="17"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="16">
+        <v>10211</v>
+      </c>
+      <c r="G61" s="16">
+        <v>1</v>
+      </c>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16">
+        <v>0</v>
+      </c>
+      <c r="J61" s="16">
+        <v>0</v>
+      </c>
+      <c r="K61" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L61" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="M61" s="19">
+        <v>4</v>
+      </c>
+      <c r="N61" s="14">
+        <v>0</v>
+      </c>
+      <c r="O61" s="14">
+        <v>10</v>
+      </c>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="16">
+        <v>99</v>
+      </c>
+      <c r="T61" s="16"/>
+      <c r="U61" s="16"/>
+      <c r="V61" s="16"/>
+      <c r="W61" s="21"/>
+    </row>
+    <row r="62" ht="101" customHeight="1" spans="2:23">
+      <c r="B62" s="10">
+        <v>58</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" s="17"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="16">
+        <v>10212</v>
+      </c>
+      <c r="G62" s="16">
+        <v>1</v>
+      </c>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16">
+        <v>0</v>
+      </c>
+      <c r="J62" s="16">
+        <v>0</v>
+      </c>
+      <c r="K62" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L62" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="M62" s="19">
+        <v>4</v>
+      </c>
+      <c r="N62" s="14">
+        <v>0</v>
+      </c>
+      <c r="O62" s="14">
+        <v>10</v>
+      </c>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="16">
+        <v>99</v>
+      </c>
+      <c r="T62" s="16"/>
+      <c r="U62" s="16"/>
+      <c r="V62" s="16"/>
+      <c r="W62" s="21"/>
+    </row>
+    <row r="63" ht="101" customHeight="1" spans="2:23">
+      <c r="B63" s="10">
+        <v>59</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D63" s="17"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="16">
+        <v>10213</v>
+      </c>
+      <c r="G63" s="16">
+        <v>1</v>
+      </c>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16">
+        <v>0</v>
+      </c>
+      <c r="J63" s="16">
+        <v>0</v>
+      </c>
+      <c r="K63" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L63" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="M63" s="19">
+        <v>4</v>
+      </c>
+      <c r="N63" s="14">
+        <v>0</v>
+      </c>
+      <c r="O63" s="14">
+        <v>10</v>
+      </c>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="16">
+        <v>99</v>
+      </c>
+      <c r="T63" s="16"/>
+      <c r="U63" s="16"/>
+      <c r="V63" s="16"/>
+      <c r="W63" s="21"/>
+    </row>
+    <row r="64" ht="101" customHeight="1" spans="2:23">
+      <c r="B64" s="10">
+        <v>60</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="17"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="16">
+        <v>10214</v>
+      </c>
+      <c r="G64" s="16">
+        <v>1</v>
+      </c>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16">
+        <v>0</v>
+      </c>
+      <c r="J64" s="16">
+        <v>0</v>
+      </c>
+      <c r="K64" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L64" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="M64" s="19">
+        <v>4</v>
+      </c>
+      <c r="N64" s="14">
+        <v>0</v>
+      </c>
+      <c r="O64" s="14">
+        <v>10</v>
+      </c>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="19"/>
+      <c r="R64" s="19"/>
+      <c r="S64" s="16">
+        <v>99</v>
+      </c>
+      <c r="T64" s="16"/>
+      <c r="U64" s="16"/>
+      <c r="V64" s="16"/>
+      <c r="W64" s="21"/>
+    </row>
+    <row r="65" ht="101" customHeight="1" spans="2:23">
+      <c r="B65" s="10">
+        <v>61</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D65" s="17"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="16">
+        <v>10215</v>
+      </c>
+      <c r="G65" s="16">
+        <v>1</v>
+      </c>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16">
+        <v>0</v>
+      </c>
+      <c r="J65" s="16">
+        <v>0</v>
+      </c>
+      <c r="K65" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L65" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="M65" s="19">
+        <v>4</v>
+      </c>
+      <c r="N65" s="14">
+        <v>0</v>
+      </c>
+      <c r="O65" s="14">
+        <v>10</v>
+      </c>
+      <c r="P65" s="19"/>
+      <c r="Q65" s="19"/>
+      <c r="R65" s="19"/>
+      <c r="S65" s="16">
+        <v>99</v>
+      </c>
+      <c r="T65" s="16"/>
+      <c r="U65" s="16"/>
+      <c r="V65" s="16"/>
+      <c r="W65" s="21"/>
+    </row>
+    <row r="66" ht="101" customHeight="1" spans="2:23">
+      <c r="B66" s="10">
+        <v>62</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" s="17"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="16">
+        <v>10217</v>
+      </c>
+      <c r="G66" s="16">
+        <v>1</v>
+      </c>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16">
+        <v>0</v>
+      </c>
+      <c r="J66" s="16">
+        <v>0</v>
+      </c>
+      <c r="K66" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L66" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="M66" s="19">
+        <v>4</v>
+      </c>
+      <c r="N66" s="14">
+        <v>0</v>
+      </c>
+      <c r="O66" s="14">
+        <v>10</v>
+      </c>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="19"/>
+      <c r="S66" s="16">
+        <v>99</v>
+      </c>
+      <c r="T66" s="16"/>
+      <c r="U66" s="16"/>
+      <c r="V66" s="16"/>
+      <c r="W66" s="21"/>
+    </row>
+    <row r="67" ht="101" customHeight="1" spans="2:23">
+      <c r="B67" s="10">
+        <v>63</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" s="17"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="16">
+        <v>10218</v>
+      </c>
+      <c r="G67" s="16">
+        <v>1</v>
+      </c>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16">
+        <v>0</v>
+      </c>
+      <c r="J67" s="16">
+        <v>0</v>
+      </c>
+      <c r="K67" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="M67" s="19">
+        <v>4</v>
+      </c>
+      <c r="N67" s="14">
+        <v>0</v>
+      </c>
+      <c r="O67" s="14">
+        <v>10</v>
+      </c>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="16">
+        <v>99</v>
+      </c>
+      <c r="T67" s="16"/>
+      <c r="U67" s="16"/>
+      <c r="V67" s="16"/>
+      <c r="W67" s="21"/>
+    </row>
+    <row r="68" ht="101" customHeight="1" spans="2:23">
+      <c r="B68" s="10">
+        <v>64</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68" s="17"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="16">
+        <v>10301</v>
+      </c>
+      <c r="G68" s="16">
+        <v>1</v>
+      </c>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16">
+        <v>0</v>
+      </c>
+      <c r="J68" s="16">
+        <v>0</v>
+      </c>
+      <c r="K68" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L68" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M68" s="19">
+        <v>5</v>
+      </c>
+      <c r="N68" s="14">
+        <v>0</v>
+      </c>
+      <c r="O68" s="14">
+        <v>10</v>
+      </c>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
+      <c r="S68" s="16">
+        <v>99</v>
+      </c>
+      <c r="T68" s="16"/>
+      <c r="U68" s="16"/>
+      <c r="V68" s="16"/>
+      <c r="W68" s="21"/>
+    </row>
+    <row r="69" ht="101" customHeight="1" spans="2:23">
+      <c r="B69" s="10">
+        <v>65</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D69" s="17"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="16">
+        <v>10302</v>
+      </c>
+      <c r="G69" s="16">
+        <v>1</v>
+      </c>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16">
+        <v>0</v>
+      </c>
+      <c r="J69" s="16">
+        <v>0</v>
+      </c>
+      <c r="K69" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L69" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M69" s="19">
+        <v>5</v>
+      </c>
+      <c r="N69" s="14">
+        <v>0</v>
+      </c>
+      <c r="O69" s="14">
+        <v>10</v>
+      </c>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="16">
+        <v>99</v>
+      </c>
+      <c r="T69" s="16"/>
+      <c r="U69" s="16"/>
+      <c r="V69" s="16"/>
+      <c r="W69" s="21"/>
+    </row>
+    <row r="70" ht="101" customHeight="1" spans="2:23">
+      <c r="B70" s="10">
+        <v>66</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D70" s="17"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="16">
+        <v>10303</v>
+      </c>
+      <c r="G70" s="16">
+        <v>1</v>
+      </c>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16">
+        <v>0</v>
+      </c>
+      <c r="J70" s="16">
+        <v>0</v>
+      </c>
+      <c r="K70" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L70" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M70" s="19">
+        <v>5</v>
+      </c>
+      <c r="N70" s="14">
+        <v>0</v>
+      </c>
+      <c r="O70" s="14">
+        <v>10</v>
+      </c>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="19"/>
+      <c r="S70" s="16">
+        <v>99</v>
+      </c>
+      <c r="T70" s="16"/>
+      <c r="U70" s="16"/>
+      <c r="V70" s="16"/>
+      <c r="W70" s="21"/>
+    </row>
+    <row r="71" ht="101" customHeight="1" spans="2:23">
+      <c r="B71" s="10">
+        <v>67</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D71" s="17"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="16">
+        <v>10304</v>
+      </c>
+      <c r="G71" s="16">
+        <v>1</v>
+      </c>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16">
+        <v>0</v>
+      </c>
+      <c r="J71" s="16">
+        <v>0</v>
+      </c>
+      <c r="K71" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L71" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M71" s="19">
+        <v>5</v>
+      </c>
+      <c r="N71" s="14">
+        <v>0</v>
+      </c>
+      <c r="O71" s="14">
+        <v>10</v>
+      </c>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="19"/>
+      <c r="S71" s="16">
+        <v>99</v>
+      </c>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="16"/>
+      <c r="W71" s="21"/>
+    </row>
+    <row r="72" ht="101" customHeight="1" spans="2:23">
+      <c r="B72" s="10">
+        <v>68</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D72" s="17"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="16">
+        <v>10305</v>
+      </c>
+      <c r="G72" s="16">
+        <v>1</v>
+      </c>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16">
+        <v>0</v>
+      </c>
+      <c r="J72" s="16">
+        <v>0</v>
+      </c>
+      <c r="K72" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L72" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M72" s="19">
+        <v>5</v>
+      </c>
+      <c r="N72" s="14">
+        <v>0</v>
+      </c>
+      <c r="O72" s="14">
+        <v>10</v>
+      </c>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="19"/>
+      <c r="S72" s="16">
+        <v>99</v>
+      </c>
+      <c r="T72" s="16"/>
+      <c r="U72" s="16"/>
+      <c r="V72" s="16"/>
+      <c r="W72" s="21"/>
+    </row>
+    <row r="73" ht="101" customHeight="1" spans="2:23">
+      <c r="B73" s="10">
+        <v>69</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D73" s="17"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="16">
+        <v>10306</v>
+      </c>
+      <c r="G73" s="16">
+        <v>1</v>
+      </c>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16">
+        <v>0</v>
+      </c>
+      <c r="J73" s="16">
+        <v>0</v>
+      </c>
+      <c r="K73" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L73" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M73" s="19">
+        <v>5</v>
+      </c>
+      <c r="N73" s="14">
+        <v>0</v>
+      </c>
+      <c r="O73" s="14">
+        <v>10</v>
+      </c>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="19"/>
+      <c r="S73" s="16">
+        <v>99</v>
+      </c>
+      <c r="T73" s="16"/>
+      <c r="U73" s="16"/>
+      <c r="V73" s="16"/>
+      <c r="W73" s="21"/>
+    </row>
+    <row r="74" ht="101" customHeight="1" spans="2:23">
+      <c r="B74" s="10">
+        <v>70</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" s="17"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="16">
+        <v>10307</v>
+      </c>
+      <c r="G74" s="16">
+        <v>1</v>
+      </c>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16">
+        <v>0</v>
+      </c>
+      <c r="J74" s="16">
+        <v>0</v>
+      </c>
+      <c r="K74" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L74" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M74" s="19">
+        <v>5</v>
+      </c>
+      <c r="N74" s="14">
+        <v>0</v>
+      </c>
+      <c r="O74" s="14">
+        <v>10</v>
+      </c>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
+      <c r="S74" s="16">
+        <v>99</v>
+      </c>
+      <c r="T74" s="16"/>
+      <c r="U74" s="16"/>
+      <c r="V74" s="16"/>
+      <c r="W74" s="21"/>
+    </row>
+    <row r="75" ht="101" customHeight="1" spans="2:23">
+      <c r="B75" s="10">
+        <v>71</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D75" s="17"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="16">
+        <v>10308</v>
+      </c>
+      <c r="G75" s="16">
+        <v>1</v>
+      </c>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16">
+        <v>0</v>
+      </c>
+      <c r="J75" s="16">
+        <v>0</v>
+      </c>
+      <c r="K75" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L75" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M75" s="19">
+        <v>5</v>
+      </c>
+      <c r="N75" s="14">
+        <v>0</v>
+      </c>
+      <c r="O75" s="14">
+        <v>10</v>
+      </c>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="19"/>
+      <c r="S75" s="16">
+        <v>99</v>
+      </c>
+      <c r="T75" s="16"/>
+      <c r="U75" s="16"/>
+      <c r="V75" s="16"/>
+      <c r="W75" s="21"/>
+    </row>
+    <row r="76" ht="101" customHeight="1" spans="2:23">
+      <c r="B76" s="10">
+        <v>72</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D76" s="17"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="16">
+        <v>10309</v>
+      </c>
+      <c r="G76" s="16">
+        <v>1</v>
+      </c>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16">
+        <v>0</v>
+      </c>
+      <c r="J76" s="16">
+        <v>0</v>
+      </c>
+      <c r="K76" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L76" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M76" s="19">
+        <v>5</v>
+      </c>
+      <c r="N76" s="14">
+        <v>0</v>
+      </c>
+      <c r="O76" s="14">
+        <v>10</v>
+      </c>
+      <c r="P76" s="19"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="19"/>
+      <c r="S76" s="16">
+        <v>99</v>
+      </c>
+      <c r="T76" s="16"/>
+      <c r="U76" s="16"/>
+      <c r="V76" s="16"/>
+      <c r="W76" s="21"/>
+    </row>
+    <row r="77" ht="101" customHeight="1" spans="2:23">
+      <c r="B77" s="10">
+        <v>73</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D77" s="17"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="16">
+        <v>10310</v>
+      </c>
+      <c r="G77" s="16">
+        <v>1</v>
+      </c>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16">
+        <v>0</v>
+      </c>
+      <c r="J77" s="16">
+        <v>0</v>
+      </c>
+      <c r="K77" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L77" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M77" s="19">
+        <v>5</v>
+      </c>
+      <c r="N77" s="14">
+        <v>0</v>
+      </c>
+      <c r="O77" s="14">
+        <v>10</v>
+      </c>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="19"/>
+      <c r="S77" s="16">
+        <v>99</v>
+      </c>
+      <c r="T77" s="16"/>
+      <c r="U77" s="16"/>
+      <c r="V77" s="16"/>
+      <c r="W77" s="21"/>
+    </row>
+    <row r="78" ht="101" customHeight="1" spans="2:23">
+      <c r="B78" s="10">
+        <v>74</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D78" s="17"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="16">
+        <v>10311</v>
+      </c>
+      <c r="G78" s="16">
+        <v>1</v>
+      </c>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16">
+        <v>0</v>
+      </c>
+      <c r="J78" s="16">
+        <v>0</v>
+      </c>
+      <c r="K78" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L78" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M78" s="19">
+        <v>5</v>
+      </c>
+      <c r="N78" s="14">
+        <v>0</v>
+      </c>
+      <c r="O78" s="14">
+        <v>10</v>
+      </c>
+      <c r="P78" s="19"/>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="19"/>
+      <c r="S78" s="16">
+        <v>99</v>
+      </c>
+      <c r="T78" s="16"/>
+      <c r="U78" s="16"/>
+      <c r="V78" s="16"/>
+      <c r="W78" s="21"/>
+    </row>
+    <row r="79" ht="101" customHeight="1" spans="2:23">
+      <c r="B79" s="10">
+        <v>75</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D79" s="17"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="16">
+        <v>10312</v>
+      </c>
+      <c r="G79" s="16">
+        <v>1</v>
+      </c>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16">
+        <v>0</v>
+      </c>
+      <c r="J79" s="16">
+        <v>0</v>
+      </c>
+      <c r="K79" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L79" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M79" s="19">
+        <v>5</v>
+      </c>
+      <c r="N79" s="14">
+        <v>0</v>
+      </c>
+      <c r="O79" s="14">
+        <v>10</v>
+      </c>
+      <c r="P79" s="19"/>
+      <c r="Q79" s="19"/>
+      <c r="R79" s="19"/>
+      <c r="S79" s="16">
+        <v>99</v>
+      </c>
+      <c r="T79" s="16"/>
+      <c r="U79" s="16"/>
+      <c r="V79" s="16"/>
+      <c r="W79" s="21"/>
+    </row>
+    <row r="80" ht="101" customHeight="1" spans="2:23">
+      <c r="B80" s="10">
+        <v>76</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D80" s="17"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="16">
+        <v>10313</v>
+      </c>
+      <c r="G80" s="16">
+        <v>1</v>
+      </c>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16">
+        <v>0</v>
+      </c>
+      <c r="J80" s="16">
+        <v>0</v>
+      </c>
+      <c r="K80" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L80" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M80" s="19">
+        <v>5</v>
+      </c>
+      <c r="N80" s="14">
+        <v>0</v>
+      </c>
+      <c r="O80" s="14">
+        <v>10</v>
+      </c>
+      <c r="P80" s="19"/>
+      <c r="Q80" s="19"/>
+      <c r="R80" s="19"/>
+      <c r="S80" s="16">
+        <v>99</v>
+      </c>
+      <c r="T80" s="16"/>
+      <c r="U80" s="16"/>
+      <c r="V80" s="16"/>
+      <c r="W80" s="21"/>
+    </row>
+    <row r="81" ht="101" customHeight="1" spans="2:23">
+      <c r="B81" s="10">
+        <v>77</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D81" s="17"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="16">
+        <v>10314</v>
+      </c>
+      <c r="G81" s="16">
+        <v>1</v>
+      </c>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16">
+        <v>0</v>
+      </c>
+      <c r="J81" s="16">
+        <v>0</v>
+      </c>
+      <c r="K81" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L81" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M81" s="19">
+        <v>5</v>
+      </c>
+      <c r="N81" s="14">
+        <v>0</v>
+      </c>
+      <c r="O81" s="14">
+        <v>10</v>
+      </c>
+      <c r="P81" s="19"/>
+      <c r="Q81" s="19"/>
+      <c r="R81" s="19"/>
+      <c r="S81" s="16">
+        <v>99</v>
+      </c>
+      <c r="T81" s="16"/>
+      <c r="U81" s="16"/>
+      <c r="V81" s="16"/>
+      <c r="W81" s="21"/>
+    </row>
+    <row r="82" ht="101" customHeight="1" spans="2:23">
+      <c r="B82" s="10">
+        <v>78</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D82" s="17"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="16">
+        <v>10315</v>
+      </c>
+      <c r="G82" s="16">
+        <v>1</v>
+      </c>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16">
+        <v>0</v>
+      </c>
+      <c r="J82" s="16">
+        <v>0</v>
+      </c>
+      <c r="K82" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L82" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M82" s="19">
+        <v>5</v>
+      </c>
+      <c r="N82" s="14">
+        <v>0</v>
+      </c>
+      <c r="O82" s="14">
+        <v>10</v>
+      </c>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="19"/>
+      <c r="S82" s="16">
+        <v>99</v>
+      </c>
+      <c r="T82" s="16"/>
+      <c r="U82" s="16"/>
+      <c r="V82" s="16"/>
+      <c r="W82" s="21"/>
+    </row>
+    <row r="83" ht="101" customHeight="1" spans="2:23">
+      <c r="B83" s="10">
+        <v>79</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D83" s="17"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="16">
+        <v>10317</v>
+      </c>
+      <c r="G83" s="16">
+        <v>1</v>
+      </c>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16">
+        <v>0</v>
+      </c>
+      <c r="J83" s="16">
+        <v>0</v>
+      </c>
+      <c r="K83" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L83" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M83" s="19">
+        <v>5</v>
+      </c>
+      <c r="N83" s="14">
+        <v>0</v>
+      </c>
+      <c r="O83" s="14">
+        <v>10</v>
+      </c>
+      <c r="P83" s="19"/>
+      <c r="Q83" s="19"/>
+      <c r="R83" s="19"/>
+      <c r="S83" s="16">
+        <v>99</v>
+      </c>
+      <c r="T83" s="16"/>
+      <c r="U83" s="16"/>
+      <c r="V83" s="16"/>
+      <c r="W83" s="21"/>
+    </row>
+    <row r="84" ht="101" customHeight="1" spans="2:23">
+      <c r="B84" s="10">
+        <v>80</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D84" s="17"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="16">
+        <v>10318</v>
+      </c>
+      <c r="G84" s="16">
+        <v>1</v>
+      </c>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16">
+        <v>0</v>
+      </c>
+      <c r="J84" s="16">
+        <v>0</v>
+      </c>
+      <c r="K84" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L84" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M84" s="19">
+        <v>5</v>
+      </c>
+      <c r="N84" s="14">
+        <v>0</v>
+      </c>
+      <c r="O84" s="14">
+        <v>10</v>
+      </c>
+      <c r="P84" s="19"/>
+      <c r="Q84" s="19"/>
+      <c r="R84" s="19"/>
+      <c r="S84" s="16">
+        <v>99</v>
+      </c>
+      <c r="T84" s="16"/>
+      <c r="U84" s="16"/>
+      <c r="V84" s="16"/>
+      <c r="W84" s="21"/>
+    </row>
+    <row r="85" ht="101" customHeight="1" spans="2:23">
+      <c r="B85" s="10">
+        <v>81</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D85" s="17"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="16">
+        <v>1279</v>
+      </c>
+      <c r="G85" s="16">
+        <v>1</v>
+      </c>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16">
+        <v>0</v>
+      </c>
+      <c r="J85" s="16">
+        <v>0</v>
+      </c>
+      <c r="K85" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L85" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M85" s="19">
         <v>2</v>
       </c>
-      <c r="C6" s="12">
-        <v>6</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="12">
-        <v>100</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="N85" s="14">
+        <v>0</v>
+      </c>
+      <c r="O85" s="14">
+        <v>10</v>
+      </c>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="19"/>
+      <c r="S85" s="16">
+        <v>99</v>
+      </c>
+      <c r="T85" s="16"/>
+      <c r="U85" s="16"/>
+      <c r="V85" s="16"/>
+      <c r="W85" s="21"/>
+    </row>
+    <row r="86" ht="101" customHeight="1" spans="2:23">
+      <c r="B86" s="10">
+        <v>82</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D86" s="17"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="16">
+        <v>1280</v>
+      </c>
+      <c r="G86" s="16">
+        <v>1</v>
+      </c>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16">
+        <v>0</v>
+      </c>
+      <c r="J86" s="16">
+        <v>0</v>
+      </c>
+      <c r="K86" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L86" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M86" s="19">
+        <v>3</v>
+      </c>
+      <c r="N86" s="14">
+        <v>0</v>
+      </c>
+      <c r="O86" s="14">
+        <v>10</v>
+      </c>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="19"/>
+      <c r="S86" s="16">
+        <v>99</v>
+      </c>
+      <c r="T86" s="16"/>
+      <c r="U86" s="16"/>
+      <c r="V86" s="16"/>
+      <c r="W86" s="21"/>
+    </row>
+    <row r="87" ht="101" customHeight="1" spans="2:23">
+      <c r="B87" s="10">
+        <v>83</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D87" s="17"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="16">
+        <v>1281</v>
+      </c>
+      <c r="G87" s="16">
+        <v>1</v>
+      </c>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16">
+        <v>0</v>
+      </c>
+      <c r="J87" s="16">
+        <v>0</v>
+      </c>
+      <c r="K87" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L87" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="M87" s="19">
+        <v>4</v>
+      </c>
+      <c r="N87" s="14">
+        <v>0</v>
+      </c>
+      <c r="O87" s="14">
+        <v>10</v>
+      </c>
+      <c r="P87" s="19"/>
+      <c r="Q87" s="19"/>
+      <c r="R87" s="19"/>
+      <c r="S87" s="16">
+        <v>99</v>
+      </c>
+      <c r="T87" s="16"/>
+      <c r="U87" s="16"/>
+      <c r="V87" s="16"/>
+      <c r="W87" s="21"/>
+    </row>
+    <row r="88" ht="101" customHeight="1" spans="2:23">
+      <c r="B88" s="10">
+        <v>84</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D88" s="17"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="16">
+        <v>1282</v>
+      </c>
+      <c r="G88" s="16">
+        <v>1</v>
+      </c>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16">
+        <v>0</v>
+      </c>
+      <c r="J88" s="16">
+        <v>0</v>
+      </c>
+      <c r="K88" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L88" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M88" s="19">
+        <v>5</v>
+      </c>
+      <c r="N88" s="14">
+        <v>0</v>
+      </c>
+      <c r="O88" s="14">
+        <v>10</v>
+      </c>
+      <c r="P88" s="19"/>
+      <c r="Q88" s="19"/>
+      <c r="R88" s="19"/>
+      <c r="S88" s="16">
+        <v>99</v>
+      </c>
+      <c r="T88" s="16"/>
+      <c r="U88" s="16"/>
+      <c r="V88" s="16"/>
+      <c r="W88" s="21"/>
+    </row>
+    <row r="89" ht="101" customHeight="1" spans="2:23">
+      <c r="B89" s="10">
+        <v>85</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D89" s="17"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="16">
+        <v>1283</v>
+      </c>
+      <c r="G89" s="16">
+        <v>1</v>
+      </c>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16">
+        <v>0</v>
+      </c>
+      <c r="J89" s="16">
+        <v>0</v>
+      </c>
+      <c r="K89" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L89" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M89" s="19">
+        <v>3</v>
+      </c>
+      <c r="N89" s="14">
+        <v>0</v>
+      </c>
+      <c r="O89" s="14">
+        <v>10</v>
+      </c>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="19"/>
+      <c r="R89" s="19"/>
+      <c r="S89" s="16">
+        <v>99</v>
+      </c>
+      <c r="T89" s="16"/>
+      <c r="U89" s="16"/>
+      <c r="V89" s="16"/>
+      <c r="W89" s="21"/>
+    </row>
+    <row r="90" ht="101" customHeight="1" spans="2:23">
+      <c r="B90" s="10">
+        <v>86</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D90" s="17"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="16">
+        <v>1284</v>
+      </c>
+      <c r="G90" s="16">
+        <v>1</v>
+      </c>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16">
+        <v>0</v>
+      </c>
+      <c r="J90" s="16">
+        <v>0</v>
+      </c>
+      <c r="K90" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L90" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="M90" s="19">
+        <v>4</v>
+      </c>
+      <c r="N90" s="14">
+        <v>0</v>
+      </c>
+      <c r="O90" s="14">
+        <v>10</v>
+      </c>
+      <c r="P90" s="19"/>
+      <c r="Q90" s="19"/>
+      <c r="R90" s="19"/>
+      <c r="S90" s="16">
+        <v>99</v>
+      </c>
+      <c r="T90" s="16"/>
+      <c r="U90" s="16"/>
+      <c r="V90" s="16"/>
+      <c r="W90" s="21"/>
+    </row>
+    <row r="91" ht="101" customHeight="1" spans="2:23">
+      <c r="B91" s="10">
+        <v>87</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D91" s="17"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="16">
+        <v>1285</v>
+      </c>
+      <c r="G91" s="16">
+        <v>1</v>
+      </c>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16">
+        <v>0</v>
+      </c>
+      <c r="J91" s="16">
+        <v>0</v>
+      </c>
+      <c r="K91" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L91" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M91" s="19">
+        <v>5</v>
+      </c>
+      <c r="N91" s="14">
+        <v>0</v>
+      </c>
+      <c r="O91" s="14">
+        <v>10</v>
+      </c>
+      <c r="P91" s="19"/>
+      <c r="Q91" s="19"/>
+      <c r="R91" s="19"/>
+      <c r="S91" s="16">
+        <v>99</v>
+      </c>
+      <c r="T91" s="16"/>
+      <c r="U91" s="16"/>
+      <c r="V91" s="16"/>
+      <c r="W91" s="21"/>
+    </row>
+    <row r="92" ht="101" customHeight="1" spans="2:23">
+      <c r="B92" s="10">
+        <v>88</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D92" s="17"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="16">
+        <v>1005</v>
+      </c>
+      <c r="G92" s="16">
+        <v>10000</v>
+      </c>
+      <c r="H92" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="I92" s="16">
+        <v>1</v>
+      </c>
+      <c r="J92" s="16"/>
+      <c r="K92" s="16"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="19">
         <v>2</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0</v>
-      </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="9">
-        <v>1</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13">
+      <c r="N92" s="14">
+        <v>0</v>
+      </c>
+      <c r="O92" s="14">
+        <v>10</v>
+      </c>
+      <c r="P92" s="19"/>
+      <c r="Q92" s="19"/>
+      <c r="R92" s="19"/>
+      <c r="S92" s="16">
+        <v>1</v>
+      </c>
+      <c r="T92" s="16">
+        <v>1</v>
+      </c>
+      <c r="U92" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="V92" s="16"/>
+      <c r="W92" s="21"/>
+    </row>
+    <row r="93" ht="101" customHeight="1" spans="2:23">
+      <c r="B93" s="10">
+        <v>89</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D93" s="17"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="16">
+        <v>1005</v>
+      </c>
+      <c r="G93" s="16">
+        <v>20000</v>
+      </c>
+      <c r="H93" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="I93" s="16">
+        <v>2</v>
+      </c>
+      <c r="J93" s="16"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="19">
         <v>3</v>
       </c>
-      <c r="C7" s="12">
-        <v>9</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="12">
-        <v>100</v>
-      </c>
-      <c r="F7" s="11">
-        <v>3</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-      <c r="J7" s="13">
-        <v>0</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="9">
-        <v>1</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" ht="14.25" spans="8:10">
-      <c r="H8" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="3:9">
-      <c r="C9" s="2">
-        <v>20000</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="4:5">
-      <c r="D10" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="4:5">
-      <c r="D11" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" spans="4:5">
-      <c r="D12" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" spans="4:5">
-      <c r="D13" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" spans="4:5">
-      <c r="D14" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="4:5">
-      <c r="D15" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" spans="4:5">
-      <c r="D16" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
+      <c r="N93" s="14">
+        <v>0</v>
+      </c>
+      <c r="O93" s="14">
+        <v>10</v>
+      </c>
+      <c r="P93" s="19"/>
+      <c r="Q93" s="19"/>
+      <c r="R93" s="19"/>
+      <c r="S93" s="16">
+        <v>1</v>
+      </c>
+      <c r="T93" s="16">
+        <v>1</v>
+      </c>
+      <c r="U93" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="V93" s="16"/>
+      <c r="W93" s="21"/>
+    </row>
+    <row r="94" ht="101" customHeight="1" spans="2:23">
+      <c r="B94" s="10">
+        <v>90</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D94" s="23"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="24">
+        <v>1005</v>
+      </c>
+      <c r="G94" s="24">
+        <v>30000</v>
+      </c>
+      <c r="H94" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="I94" s="24">
+        <v>2</v>
+      </c>
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="25">
+        <v>4</v>
+      </c>
+      <c r="N94" s="14">
+        <v>0</v>
+      </c>
+      <c r="O94" s="14">
+        <v>10</v>
+      </c>
+      <c r="P94" s="25"/>
+      <c r="Q94" s="25"/>
+      <c r="R94" s="25"/>
+      <c r="S94" s="24">
+        <v>1</v>
+      </c>
+      <c r="T94" s="24">
+        <v>1</v>
+      </c>
+      <c r="U94" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="V94" s="24"/>
+      <c r="W94" s="26"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H8" r:id="rId1" display="1005_500@1001_400"/>
-  </hyperlinks>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H94">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/doc_new/4.服务器配置文档/商城物品列表.xlsx
+++ b/doc_new/4.服务器配置文档/商城物品列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="13395"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="商城(template_shopping)" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="177">
   <si>
     <t>字段名称</t>
   </si>
@@ -121,7 +121,7 @@
     <t>当有限购时间条件时候最低必须写1不然无法生效  和限购时间成为组合条件例如：1、限购次数：5 限购时间：D_1 结果为 每天可以购买5次2、限购次数：2 限购时间：9999 结果为 永久只能购买2次3、限购次数：0 限购时间：D_1 结果为每天购买0次4、限购次数：0 限购时间：0 则结果为无限购买</t>
   </si>
   <si>
-    <t>0无D_0 天W_0 星期 XG永久限购 (必须大写)</t>
+    <t>N_0 无 D_0 天W_0 星期 XG永久限购 (必须大写)</t>
   </si>
   <si>
     <t>数据类型</t>
@@ -180,10 +180,16 @@
 通关奖励中，技能精通经验获取率+10%，地图经验获取率+10%，通关翡翠获取率+20%(和终身卡叠加)</t>
   </si>
   <si>
+    <t>item_store/默认商品图标0</t>
+  </si>
+  <si>
     <t>1001_3000</t>
   </si>
   <si>
     <t>rmb_30</t>
+  </si>
+  <si>
+    <t>N_0</t>
   </si>
   <si>
     <t>终身特权</t>
@@ -197,10 +203,16 @@
 额外效果：魂石升级概率+10%，图鉴合成金币消耗-20%</t>
   </si>
   <si>
+    <t>item_store/默认商品图标1</t>
+  </si>
+  <si>
     <t>1001_9800,1201_10</t>
   </si>
   <si>
     <t>rmb_98</t>
+  </si>
+  <si>
+    <t>XG</t>
   </si>
   <si>
     <t>天辉信物</t>
@@ -215,6 +227,9 @@
 *天辉任务奖励+30%</t>
   </si>
   <si>
+    <t>item_store/默认商品图标2</t>
+  </si>
+  <si>
     <t>夜魇信物</t>
   </si>
   <si>
@@ -226,6 +241,9 @@
 *夜魇任务奖励+30%</t>
   </si>
   <si>
+    <t>item_store/默认商品图标3</t>
+  </si>
+  <si>
     <t>灵魂战刃</t>
   </si>
   <si>
@@ -263,6 +281,9 @@
     <t>1001_6800</t>
   </si>
   <si>
+    <t>D_1</t>
+  </si>
+  <si>
     <t>图鉴箱礼包·中</t>
   </si>
   <si>
@@ -555,7 +576,7 @@
     <t>1003_1000</t>
   </si>
   <si>
-    <t>D</t>
+    <t>0_0</t>
   </si>
   <si>
     <t>每日月卡礼包</t>
@@ -971,7 +992,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1087,37 +1108,7 @@
         <color theme="1" tint="0.6"/>
       </left>
       <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
         <color theme="1" tint="0.6"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.6"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.6"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.6"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.6"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
       </right>
       <top style="thin">
         <color theme="1" tint="0.6"/>
@@ -1251,7 +1242,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1263,34 +1254,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1375,7 +1366,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1430,31 +1421,25 @@
     <xf numFmtId="176" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1849,30 +1834,30 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{5BC54E89-1002-471B-8B51-B8182AB24B1C}">
+    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{65375B9A-857C-4D0E-89FA-A6547CE58E96}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstColumn" dxfId="1"/>
       <tableStyleElement type="firstRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{7950D0E0-4E8F-47DA-A215-0C4A2ED0CA7E}">
+    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{4C652CE0-6CF3-4BEC-A946-1715273AD255}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
       <tableStyleElement type="secondColumnStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{9BA58C4E-C283-48E1-AD4F-7E267359EAC5}">
+    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{8659D3AB-D35D-4B60-A0C2-56E742B6D3D1}">
       <tableStyleElement type="wholeTable" dxfId="10"/>
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{CC7E3B48-C332-49A2-AD62-D8CEF08A43BE}">
+    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{AEF2111C-E8F1-4E84-BC91-D3ED72A569DB}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="firstColumnStripe" dxfId="12"/>
       <tableStyleElement type="secondColumnStripe" dxfId="11"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{219B2C97-69B2-4781-9447-9778CD1146E1}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{EF209206-825F-44A1-865E-2DF204CA7BDE}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="secondRowStripe" dxfId="15"/>
@@ -2175,10 +2160,10 @@
   <sheetPr/>
   <dimension ref="A1:X94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="U5" sqref="U5"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:W94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2429,7 +2414,9 @@
       <c r="D5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="F5" s="14">
         <v>20000</v>
       </c>
@@ -2437,7 +2424,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I5" s="11">
         <v>0</v>
@@ -2446,10 +2433,10 @@
         <v>1</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M5" s="14">
         <v>5</v>
@@ -2463,11 +2450,21 @@
       <c r="P5" s="11"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="20"/>
+      <c r="S5" s="11">
+        <v>0</v>
+      </c>
+      <c r="T5" s="11">
+        <v>0</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="V5" s="11">
+        <v>0</v>
+      </c>
+      <c r="W5" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" ht="101" customHeight="1" spans="1:23">
       <c r="A6" s="15"/>
@@ -2475,20 +2472,22 @@
         <v>2</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19">
+        <v>54</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="18">
         <v>20001</v>
       </c>
       <c r="G6" s="16">
         <v>1</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I6" s="16">
         <v>0</v>
@@ -2497,12 +2496,12 @@
         <v>1</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" s="19">
+        <v>57</v>
+      </c>
+      <c r="M6" s="18">
         <v>5</v>
       </c>
       <c r="N6" s="14">
@@ -2511,16 +2510,24 @@
       <c r="O6" s="14">
         <v>10</v>
       </c>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
       <c r="S6" s="16">
         <v>1</v>
       </c>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="21"/>
+      <c r="T6" s="16">
+        <v>1</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="V6" s="11">
+        <v>0</v>
+      </c>
+      <c r="W6" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" ht="101" customHeight="1" spans="1:23">
       <c r="A7" s="15"/>
@@ -2528,13 +2535,15 @@
         <v>3</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
+        <v>60</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="18">
         <v>20003</v>
       </c>
       <c r="G7" s="16">
@@ -2548,12 +2557,12 @@
         <v>1</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="19">
+        <v>57</v>
+      </c>
+      <c r="M7" s="18">
         <v>5</v>
       </c>
       <c r="N7" s="14">
@@ -2562,29 +2571,39 @@
       <c r="O7" s="14">
         <v>10</v>
       </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
       <c r="S7" s="16">
         <v>1</v>
       </c>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="21"/>
+      <c r="T7" s="16">
+        <v>1</v>
+      </c>
+      <c r="U7" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="V7" s="11">
+        <v>0</v>
+      </c>
+      <c r="W7" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" ht="101" customHeight="1" spans="2:23">
       <c r="B8" s="10">
         <v>4</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19">
+        <v>63</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="18">
         <v>20004</v>
       </c>
       <c r="G8" s="16">
@@ -2598,12 +2617,12 @@
         <v>1</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="19">
+        <v>57</v>
+      </c>
+      <c r="M8" s="18">
         <v>5</v>
       </c>
       <c r="N8" s="14">
@@ -2612,29 +2631,39 @@
       <c r="O8" s="14">
         <v>10</v>
       </c>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
       <c r="S8" s="16">
         <v>1</v>
       </c>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="21"/>
+      <c r="T8" s="16">
+        <v>1</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="V8" s="11">
+        <v>0</v>
+      </c>
+      <c r="W8" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" ht="101" customHeight="1" spans="2:23">
       <c r="B9" s="10">
         <v>5</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19">
+        <v>66</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="18">
         <v>20005</v>
       </c>
       <c r="G9" s="16">
@@ -2648,12 +2677,12 @@
         <v>1</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="M9" s="19">
+        <v>67</v>
+      </c>
+      <c r="M9" s="18">
         <v>5</v>
       </c>
       <c r="N9" s="14">
@@ -2662,29 +2691,39 @@
       <c r="O9" s="14">
         <v>10</v>
       </c>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
       <c r="S9" s="16">
         <v>1</v>
       </c>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="21"/>
+      <c r="T9" s="16">
+        <v>1</v>
+      </c>
+      <c r="U9" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="V9" s="11">
+        <v>0</v>
+      </c>
+      <c r="W9" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" ht="101" customHeight="1" spans="2:23">
       <c r="B10" s="10">
         <v>6</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19">
+        <v>69</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="18">
         <v>1201</v>
       </c>
       <c r="G10" s="16">
@@ -2698,12 +2737,12 @@
         <v>0</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="M10" s="19">
+        <v>70</v>
+      </c>
+      <c r="M10" s="18">
         <v>5</v>
       </c>
       <c r="N10" s="14">
@@ -2712,36 +2751,46 @@
       <c r="O10" s="14">
         <v>10</v>
       </c>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
       <c r="S10" s="16">
         <v>1</v>
       </c>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="21"/>
+      <c r="T10" s="16">
+        <v>1</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="V10" s="11">
+        <v>0</v>
+      </c>
+      <c r="W10" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" ht="101" customHeight="1" spans="2:23">
       <c r="B11" s="10">
         <v>7</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19">
+        <v>72</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="18">
         <v>3501</v>
       </c>
       <c r="G11" s="16">
         <v>10</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I11" s="16">
         <v>0</v>
@@ -2750,12 +2799,12 @@
         <v>0</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="M11" s="19">
+        <v>74</v>
+      </c>
+      <c r="M11" s="18">
         <v>3</v>
       </c>
       <c r="N11" s="14">
@@ -2764,36 +2813,46 @@
       <c r="O11" s="14">
         <v>10</v>
       </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
       <c r="S11" s="16">
         <v>3</v>
       </c>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="21"/>
+      <c r="T11" s="16">
+        <v>3</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="V11" s="11">
+        <v>0</v>
+      </c>
+      <c r="W11" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" ht="101" customHeight="1" spans="2:23">
       <c r="B12" s="10">
         <v>8</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19">
+        <v>77</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="18">
         <v>3501</v>
       </c>
       <c r="G12" s="16">
         <v>20</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I12" s="16">
         <v>0</v>
@@ -2802,12 +2861,12 @@
         <v>0</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="M12" s="19">
+        <v>79</v>
+      </c>
+      <c r="M12" s="18">
         <v>4</v>
       </c>
       <c r="N12" s="14">
@@ -2816,36 +2875,46 @@
       <c r="O12" s="14">
         <v>10</v>
       </c>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
       <c r="S12" s="16">
         <v>3</v>
       </c>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="21"/>
+      <c r="T12" s="16">
+        <v>3</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="V12" s="11">
+        <v>0</v>
+      </c>
+      <c r="W12" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" ht="101" customHeight="1" spans="2:23">
       <c r="B13" s="10">
         <v>9</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19">
+        <v>81</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="18">
         <v>3501</v>
       </c>
       <c r="G13" s="16">
         <v>50</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I13" s="16">
         <v>0</v>
@@ -2854,12 +2923,12 @@
         <v>0</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="M13" s="19">
+        <v>70</v>
+      </c>
+      <c r="M13" s="18">
         <v>5</v>
       </c>
       <c r="N13" s="14">
@@ -2868,29 +2937,39 @@
       <c r="O13" s="14">
         <v>10</v>
       </c>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
       <c r="S13" s="16">
         <v>3</v>
       </c>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="21"/>
+      <c r="T13" s="16">
+        <v>3</v>
+      </c>
+      <c r="U13" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="V13" s="11">
+        <v>0</v>
+      </c>
+      <c r="W13" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" ht="101" customHeight="1" spans="2:23">
       <c r="B14" s="10">
         <v>10</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19">
+        <v>84</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="18">
         <v>1201</v>
       </c>
       <c r="G14" s="16">
@@ -2904,12 +2983,12 @@
         <v>0</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="M14" s="19">
+        <v>50</v>
+      </c>
+      <c r="M14" s="18">
         <v>3</v>
       </c>
       <c r="N14" s="14">
@@ -2918,29 +2997,39 @@
       <c r="O14" s="14">
         <v>10</v>
       </c>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
       <c r="S14" s="16">
         <v>1</v>
       </c>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="21"/>
+      <c r="T14" s="16">
+        <v>1</v>
+      </c>
+      <c r="U14" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="V14" s="11">
+        <v>0</v>
+      </c>
+      <c r="W14" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" ht="101" customHeight="1" spans="2:23">
       <c r="B15" s="10">
         <v>11</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19">
+        <v>86</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="18">
         <v>1201</v>
       </c>
       <c r="G15" s="16">
@@ -2954,12 +3043,12 @@
         <v>0</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="M15" s="19">
+        <v>87</v>
+      </c>
+      <c r="M15" s="18">
         <v>2</v>
       </c>
       <c r="N15" s="14">
@@ -2968,29 +3057,39 @@
       <c r="O15" s="14">
         <v>10</v>
       </c>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
       <c r="S15" s="16">
         <v>99</v>
       </c>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="21"/>
+      <c r="T15" s="16">
+        <v>0</v>
+      </c>
+      <c r="U15" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V15" s="11">
+        <v>0</v>
+      </c>
+      <c r="W15" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" ht="101" customHeight="1" spans="2:23">
       <c r="B16" s="10">
         <v>12</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19">
+        <v>89</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="18">
         <v>1287</v>
       </c>
       <c r="G16" s="16">
@@ -3004,12 +3103,12 @@
         <v>0</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="M16" s="19">
+        <v>74</v>
+      </c>
+      <c r="M16" s="18">
         <v>5</v>
       </c>
       <c r="N16" s="14">
@@ -3018,28 +3117,38 @@
       <c r="O16" s="14">
         <v>10</v>
       </c>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
       <c r="S16" s="16">
         <v>1</v>
       </c>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="21"/>
+      <c r="T16" s="16">
+        <v>1</v>
+      </c>
+      <c r="U16" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="V16" s="11">
+        <v>0</v>
+      </c>
+      <c r="W16" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" ht="101" customHeight="1" spans="2:23">
       <c r="B17" s="10">
         <v>13</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="18"/>
+        <v>91</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="F17" s="16">
         <v>10000</v>
       </c>
@@ -3054,12 +3163,12 @@
         <v>0</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M17" s="19">
+        <v>92</v>
+      </c>
+      <c r="M17" s="18">
         <v>2</v>
       </c>
       <c r="N17" s="14">
@@ -3068,26 +3177,36 @@
       <c r="O17" s="14">
         <v>10</v>
       </c>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
       <c r="S17" s="16">
         <v>99</v>
       </c>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="21"/>
+      <c r="T17" s="16">
+        <v>0</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V17" s="11">
+        <v>0</v>
+      </c>
+      <c r="W17" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" ht="101" customHeight="1" spans="2:23">
       <c r="B18" s="10">
         <v>14</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
+      <c r="E18" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="F18" s="16">
         <v>10001</v>
       </c>
@@ -3102,12 +3221,12 @@
         <v>0</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M18" s="19">
+        <v>92</v>
+      </c>
+      <c r="M18" s="18">
         <v>2</v>
       </c>
       <c r="N18" s="14">
@@ -3116,26 +3235,36 @@
       <c r="O18" s="14">
         <v>10</v>
       </c>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
       <c r="S18" s="16">
         <v>99</v>
       </c>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="21"/>
+      <c r="T18" s="16">
+        <v>0</v>
+      </c>
+      <c r="U18" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V18" s="11">
+        <v>0</v>
+      </c>
+      <c r="W18" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" ht="101" customHeight="1" spans="2:23">
       <c r="B19" s="10">
         <v>15</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
+      <c r="E19" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="F19" s="16">
         <v>10002</v>
       </c>
@@ -3150,12 +3279,12 @@
         <v>0</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M19" s="19">
+        <v>92</v>
+      </c>
+      <c r="M19" s="18">
         <v>2</v>
       </c>
       <c r="N19" s="14">
@@ -3164,26 +3293,36 @@
       <c r="O19" s="14">
         <v>10</v>
       </c>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
       <c r="S19" s="16">
         <v>99</v>
       </c>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="21"/>
+      <c r="T19" s="16">
+        <v>0</v>
+      </c>
+      <c r="U19" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V19" s="11">
+        <v>0</v>
+      </c>
+      <c r="W19" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" ht="101" customHeight="1" spans="2:23">
       <c r="B20" s="10">
         <v>16</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
+      <c r="E20" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="F20" s="16">
         <v>10003</v>
       </c>
@@ -3198,12 +3337,12 @@
         <v>0</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M20" s="19">
+        <v>92</v>
+      </c>
+      <c r="M20" s="18">
         <v>2</v>
       </c>
       <c r="N20" s="14">
@@ -3212,26 +3351,36 @@
       <c r="O20" s="14">
         <v>10</v>
       </c>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
       <c r="S20" s="16">
         <v>99</v>
       </c>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="21"/>
+      <c r="T20" s="16">
+        <v>0</v>
+      </c>
+      <c r="U20" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V20" s="11">
+        <v>0</v>
+      </c>
+      <c r="W20" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" ht="101" customHeight="1" spans="2:23">
       <c r="B21" s="10">
         <v>17</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
+      <c r="E21" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="F21" s="16">
         <v>10004</v>
       </c>
@@ -3246,12 +3395,12 @@
         <v>0</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M21" s="19">
+        <v>92</v>
+      </c>
+      <c r="M21" s="18">
         <v>2</v>
       </c>
       <c r="N21" s="14">
@@ -3260,26 +3409,36 @@
       <c r="O21" s="14">
         <v>10</v>
       </c>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
       <c r="S21" s="16">
         <v>99</v>
       </c>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="21"/>
+      <c r="T21" s="16">
+        <v>0</v>
+      </c>
+      <c r="U21" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V21" s="11">
+        <v>0</v>
+      </c>
+      <c r="W21" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" ht="101" customHeight="1" spans="2:23">
       <c r="B22" s="10">
         <v>18</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
+      <c r="E22" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="F22" s="16">
         <v>10005</v>
       </c>
@@ -3294,12 +3453,12 @@
         <v>0</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M22" s="19">
+        <v>92</v>
+      </c>
+      <c r="M22" s="18">
         <v>2</v>
       </c>
       <c r="N22" s="14">
@@ -3308,26 +3467,36 @@
       <c r="O22" s="14">
         <v>10</v>
       </c>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
       <c r="S22" s="16">
         <v>99</v>
       </c>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="21"/>
+      <c r="T22" s="16">
+        <v>0</v>
+      </c>
+      <c r="U22" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V22" s="11">
+        <v>0</v>
+      </c>
+      <c r="W22" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" ht="101" customHeight="1" spans="2:23">
       <c r="B23" s="10">
         <v>19</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
+      <c r="E23" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="F23" s="16">
         <v>10006</v>
       </c>
@@ -3342,12 +3511,12 @@
         <v>0</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M23" s="19">
+        <v>92</v>
+      </c>
+      <c r="M23" s="18">
         <v>2</v>
       </c>
       <c r="N23" s="14">
@@ -3356,26 +3525,36 @@
       <c r="O23" s="14">
         <v>10</v>
       </c>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
       <c r="S23" s="16">
         <v>99</v>
       </c>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="21"/>
+      <c r="T23" s="16">
+        <v>0</v>
+      </c>
+      <c r="U23" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V23" s="11">
+        <v>0</v>
+      </c>
+      <c r="W23" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" ht="101" customHeight="1" spans="2:23">
       <c r="B24" s="10">
         <v>20</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
+      <c r="E24" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="F24" s="16">
         <v>10007</v>
       </c>
@@ -3390,12 +3569,12 @@
         <v>0</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M24" s="19">
+        <v>92</v>
+      </c>
+      <c r="M24" s="18">
         <v>2</v>
       </c>
       <c r="N24" s="14">
@@ -3404,26 +3583,36 @@
       <c r="O24" s="14">
         <v>10</v>
       </c>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
       <c r="S24" s="16">
         <v>99</v>
       </c>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="21"/>
+      <c r="T24" s="16">
+        <v>0</v>
+      </c>
+      <c r="U24" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V24" s="11">
+        <v>0</v>
+      </c>
+      <c r="W24" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" ht="101" customHeight="1" spans="2:23">
       <c r="B25" s="10">
         <v>21</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
+      <c r="E25" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="F25" s="16">
         <v>10008</v>
       </c>
@@ -3438,12 +3627,12 @@
         <v>0</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M25" s="19">
+        <v>92</v>
+      </c>
+      <c r="M25" s="18">
         <v>2</v>
       </c>
       <c r="N25" s="14">
@@ -3452,26 +3641,36 @@
       <c r="O25" s="14">
         <v>10</v>
       </c>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
       <c r="S25" s="16">
         <v>99</v>
       </c>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="21"/>
+      <c r="T25" s="16">
+        <v>0</v>
+      </c>
+      <c r="U25" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V25" s="11">
+        <v>0</v>
+      </c>
+      <c r="W25" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" ht="101" customHeight="1" spans="2:23">
       <c r="B26" s="10">
         <v>22</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
+      <c r="E26" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="F26" s="16">
         <v>10009</v>
       </c>
@@ -3486,12 +3685,12 @@
         <v>0</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M26" s="19">
+        <v>92</v>
+      </c>
+      <c r="M26" s="18">
         <v>2</v>
       </c>
       <c r="N26" s="14">
@@ -3500,26 +3699,36 @@
       <c r="O26" s="14">
         <v>10</v>
       </c>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
       <c r="S26" s="16">
         <v>99</v>
       </c>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="21"/>
+      <c r="T26" s="16">
+        <v>0</v>
+      </c>
+      <c r="U26" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V26" s="11">
+        <v>0</v>
+      </c>
+      <c r="W26" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" ht="101" customHeight="1" spans="2:23">
       <c r="B27" s="10">
         <v>23</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
+      <c r="E27" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="F27" s="16">
         <v>10010</v>
       </c>
@@ -3534,12 +3743,12 @@
         <v>0</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M27" s="19">
+        <v>92</v>
+      </c>
+      <c r="M27" s="18">
         <v>2</v>
       </c>
       <c r="N27" s="14">
@@ -3548,26 +3757,36 @@
       <c r="O27" s="14">
         <v>10</v>
       </c>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
       <c r="S27" s="16">
         <v>99</v>
       </c>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="21"/>
+      <c r="T27" s="16">
+        <v>0</v>
+      </c>
+      <c r="U27" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V27" s="11">
+        <v>0</v>
+      </c>
+      <c r="W27" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" ht="101" customHeight="1" spans="2:23">
       <c r="B28" s="10">
         <v>24</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
+      <c r="E28" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="F28" s="16">
         <v>10011</v>
       </c>
@@ -3582,12 +3801,12 @@
         <v>0</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M28" s="19">
+        <v>92</v>
+      </c>
+      <c r="M28" s="18">
         <v>2</v>
       </c>
       <c r="N28" s="14">
@@ -3596,26 +3815,36 @@
       <c r="O28" s="14">
         <v>10</v>
       </c>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
       <c r="S28" s="16">
         <v>99</v>
       </c>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="21"/>
+      <c r="T28" s="16">
+        <v>0</v>
+      </c>
+      <c r="U28" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V28" s="11">
+        <v>0</v>
+      </c>
+      <c r="W28" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" ht="101" customHeight="1" spans="2:23">
       <c r="B29" s="10">
         <v>25</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
+      <c r="E29" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="F29" s="16">
         <v>10012</v>
       </c>
@@ -3630,12 +3859,12 @@
         <v>0</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M29" s="19">
+        <v>92</v>
+      </c>
+      <c r="M29" s="18">
         <v>2</v>
       </c>
       <c r="N29" s="14">
@@ -3644,26 +3873,36 @@
       <c r="O29" s="14">
         <v>10</v>
       </c>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
       <c r="S29" s="16">
         <v>99</v>
       </c>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="21"/>
+      <c r="T29" s="16">
+        <v>0</v>
+      </c>
+      <c r="U29" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="11">
+        <v>0</v>
+      </c>
+      <c r="W29" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" ht="101" customHeight="1" spans="2:23">
       <c r="B30" s="10">
         <v>26</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
+      <c r="E30" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="F30" s="16">
         <v>10013</v>
       </c>
@@ -3678,12 +3917,12 @@
         <v>0</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M30" s="19">
+        <v>92</v>
+      </c>
+      <c r="M30" s="18">
         <v>2</v>
       </c>
       <c r="N30" s="14">
@@ -3692,26 +3931,36 @@
       <c r="O30" s="14">
         <v>10</v>
       </c>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
       <c r="S30" s="16">
         <v>99</v>
       </c>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="21"/>
+      <c r="T30" s="16">
+        <v>0</v>
+      </c>
+      <c r="U30" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V30" s="11">
+        <v>0</v>
+      </c>
+      <c r="W30" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" ht="101" customHeight="1" spans="2:23">
       <c r="B31" s="10">
         <v>27</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
+      <c r="E31" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="F31" s="16">
         <v>10014</v>
       </c>
@@ -3726,12 +3975,12 @@
         <v>0</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M31" s="19">
+        <v>92</v>
+      </c>
+      <c r="M31" s="18">
         <v>2</v>
       </c>
       <c r="N31" s="14">
@@ -3740,26 +3989,36 @@
       <c r="O31" s="14">
         <v>10</v>
       </c>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
       <c r="S31" s="16">
         <v>99</v>
       </c>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="21"/>
+      <c r="T31" s="16">
+        <v>0</v>
+      </c>
+      <c r="U31" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V31" s="11">
+        <v>0</v>
+      </c>
+      <c r="W31" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" ht="101" customHeight="1" spans="2:23">
       <c r="B32" s="10">
         <v>28</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
+      <c r="E32" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="F32" s="16">
         <v>10016</v>
       </c>
@@ -3774,12 +4033,12 @@
         <v>0</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M32" s="19">
+        <v>92</v>
+      </c>
+      <c r="M32" s="18">
         <v>2</v>
       </c>
       <c r="N32" s="14">
@@ -3788,27 +4047,37 @@
       <c r="O32" s="14">
         <v>10</v>
       </c>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
       <c r="S32" s="16">
         <v>99</v>
       </c>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="21"/>
+      <c r="T32" s="16">
+        <v>0</v>
+      </c>
+      <c r="U32" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V32" s="11">
+        <v>0</v>
+      </c>
+      <c r="W32" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" ht="101" customHeight="1" spans="2:23">
       <c r="B33" s="10">
         <v>29</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19">
+      <c r="E33" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="18">
         <v>10017</v>
       </c>
       <c r="G33" s="16">
@@ -3822,12 +4091,12 @@
         <v>0</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M33" s="19">
+        <v>92</v>
+      </c>
+      <c r="M33" s="18">
         <v>2</v>
       </c>
       <c r="N33" s="14">
@@ -3836,26 +4105,36 @@
       <c r="O33" s="14">
         <v>10</v>
       </c>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
       <c r="S33" s="16">
         <v>99</v>
       </c>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="21"/>
+      <c r="T33" s="16">
+        <v>0</v>
+      </c>
+      <c r="U33" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V33" s="11">
+        <v>0</v>
+      </c>
+      <c r="W33" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" ht="101" customHeight="1" spans="2:23">
       <c r="B34" s="10">
         <v>30</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
+      <c r="E34" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="F34" s="16">
         <v>10101</v>
       </c>
@@ -3870,12 +4149,12 @@
         <v>0</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L34" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="M34" s="19">
+        <v>110</v>
+      </c>
+      <c r="M34" s="18">
         <v>3</v>
       </c>
       <c r="N34" s="14">
@@ -3884,26 +4163,36 @@
       <c r="O34" s="14">
         <v>10</v>
       </c>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
       <c r="S34" s="16">
         <v>99</v>
       </c>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="21"/>
+      <c r="T34" s="16">
+        <v>0</v>
+      </c>
+      <c r="U34" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V34" s="11">
+        <v>0</v>
+      </c>
+      <c r="W34" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" ht="101" customHeight="1" spans="2:23">
       <c r="B35" s="10">
         <v>31</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
+      <c r="E35" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="F35" s="16">
         <v>10102</v>
       </c>
@@ -3918,12 +4207,12 @@
         <v>0</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="M35" s="19">
+        <v>110</v>
+      </c>
+      <c r="M35" s="18">
         <v>3</v>
       </c>
       <c r="N35" s="14">
@@ -3932,26 +4221,36 @@
       <c r="O35" s="14">
         <v>10</v>
       </c>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
       <c r="S35" s="16">
         <v>99</v>
       </c>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="21"/>
+      <c r="T35" s="16">
+        <v>0</v>
+      </c>
+      <c r="U35" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V35" s="11">
+        <v>0</v>
+      </c>
+      <c r="W35" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" ht="101" customHeight="1" spans="2:23">
       <c r="B36" s="10">
         <v>32</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
+      <c r="E36" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="F36" s="16">
         <v>10103</v>
       </c>
@@ -3966,12 +4265,12 @@
         <v>0</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="M36" s="19">
+        <v>110</v>
+      </c>
+      <c r="M36" s="18">
         <v>3</v>
       </c>
       <c r="N36" s="14">
@@ -3980,26 +4279,36 @@
       <c r="O36" s="14">
         <v>10</v>
       </c>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
       <c r="S36" s="16">
         <v>99</v>
       </c>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="21"/>
+      <c r="T36" s="16">
+        <v>0</v>
+      </c>
+      <c r="U36" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V36" s="11">
+        <v>0</v>
+      </c>
+      <c r="W36" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" ht="101" customHeight="1" spans="2:23">
       <c r="B37" s="10">
         <v>33</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D37" s="17"/>
-      <c r="E37" s="18"/>
+      <c r="E37" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="F37" s="16">
         <v>10104</v>
       </c>
@@ -4014,12 +4323,12 @@
         <v>0</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="M37" s="19">
+        <v>110</v>
+      </c>
+      <c r="M37" s="18">
         <v>3</v>
       </c>
       <c r="N37" s="14">
@@ -4028,26 +4337,36 @@
       <c r="O37" s="14">
         <v>10</v>
       </c>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
       <c r="S37" s="16">
         <v>99</v>
       </c>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="21"/>
+      <c r="T37" s="16">
+        <v>0</v>
+      </c>
+      <c r="U37" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V37" s="11">
+        <v>0</v>
+      </c>
+      <c r="W37" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" ht="101" customHeight="1" spans="2:23">
       <c r="B38" s="10">
         <v>34</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D38" s="17"/>
-      <c r="E38" s="18"/>
+      <c r="E38" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="F38" s="16">
         <v>10105</v>
       </c>
@@ -4062,12 +4381,12 @@
         <v>0</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L38" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="M38" s="19">
+        <v>110</v>
+      </c>
+      <c r="M38" s="18">
         <v>3</v>
       </c>
       <c r="N38" s="14">
@@ -4076,26 +4395,36 @@
       <c r="O38" s="14">
         <v>10</v>
       </c>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
       <c r="S38" s="16">
         <v>99</v>
       </c>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="21"/>
+      <c r="T38" s="16">
+        <v>0</v>
+      </c>
+      <c r="U38" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V38" s="11">
+        <v>0</v>
+      </c>
+      <c r="W38" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" ht="101" customHeight="1" spans="2:23">
       <c r="B39" s="10">
         <v>35</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
+      <c r="E39" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="F39" s="16">
         <v>10106</v>
       </c>
@@ -4110,12 +4439,12 @@
         <v>0</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="M39" s="19">
+        <v>110</v>
+      </c>
+      <c r="M39" s="18">
         <v>3</v>
       </c>
       <c r="N39" s="14">
@@ -4124,26 +4453,36 @@
       <c r="O39" s="14">
         <v>10</v>
       </c>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
       <c r="S39" s="16">
         <v>99</v>
       </c>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="21"/>
+      <c r="T39" s="16">
+        <v>0</v>
+      </c>
+      <c r="U39" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V39" s="11">
+        <v>0</v>
+      </c>
+      <c r="W39" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" ht="101" customHeight="1" spans="2:23">
       <c r="B40" s="10">
         <v>36</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
+      <c r="E40" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F40" s="16">
         <v>10107</v>
       </c>
@@ -4158,12 +4497,12 @@
         <v>0</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L40" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="M40" s="19">
+        <v>110</v>
+      </c>
+      <c r="M40" s="18">
         <v>3</v>
       </c>
       <c r="N40" s="14">
@@ -4172,26 +4511,36 @@
       <c r="O40" s="14">
         <v>10</v>
       </c>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
       <c r="S40" s="16">
         <v>99</v>
       </c>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="21"/>
+      <c r="T40" s="16">
+        <v>0</v>
+      </c>
+      <c r="U40" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V40" s="11">
+        <v>0</v>
+      </c>
+      <c r="W40" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" ht="101" customHeight="1" spans="2:23">
       <c r="B41" s="10">
         <v>37</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D41" s="17"/>
-      <c r="E41" s="18"/>
+      <c r="E41" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F41" s="16">
         <v>10108</v>
       </c>
@@ -4206,12 +4555,12 @@
         <v>0</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L41" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="M41" s="19">
+        <v>110</v>
+      </c>
+      <c r="M41" s="18">
         <v>3</v>
       </c>
       <c r="N41" s="14">
@@ -4220,26 +4569,36 @@
       <c r="O41" s="14">
         <v>10</v>
       </c>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
       <c r="S41" s="16">
         <v>99</v>
       </c>
-      <c r="T41" s="16"/>
-      <c r="U41" s="16"/>
-      <c r="V41" s="16"/>
-      <c r="W41" s="21"/>
+      <c r="T41" s="16">
+        <v>0</v>
+      </c>
+      <c r="U41" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V41" s="11">
+        <v>0</v>
+      </c>
+      <c r="W41" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" ht="101" customHeight="1" spans="2:23">
       <c r="B42" s="10">
         <v>38</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D42" s="17"/>
-      <c r="E42" s="18"/>
+      <c r="E42" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F42" s="16">
         <v>10109</v>
       </c>
@@ -4254,12 +4613,12 @@
         <v>0</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L42" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="M42" s="19">
+        <v>110</v>
+      </c>
+      <c r="M42" s="18">
         <v>3</v>
       </c>
       <c r="N42" s="14">
@@ -4268,26 +4627,36 @@
       <c r="O42" s="14">
         <v>10</v>
       </c>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
       <c r="S42" s="16">
         <v>99</v>
       </c>
-      <c r="T42" s="16"/>
-      <c r="U42" s="16"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="21"/>
+      <c r="T42" s="16">
+        <v>0</v>
+      </c>
+      <c r="U42" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V42" s="11">
+        <v>0</v>
+      </c>
+      <c r="W42" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" ht="101" customHeight="1" spans="2:23">
       <c r="B43" s="10">
         <v>39</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D43" s="17"/>
-      <c r="E43" s="18"/>
+      <c r="E43" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F43" s="16">
         <v>10110</v>
       </c>
@@ -4302,12 +4671,12 @@
         <v>0</v>
       </c>
       <c r="K43" s="16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L43" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="M43" s="19">
+        <v>110</v>
+      </c>
+      <c r="M43" s="18">
         <v>3</v>
       </c>
       <c r="N43" s="14">
@@ -4316,26 +4685,36 @@
       <c r="O43" s="14">
         <v>10</v>
       </c>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
       <c r="S43" s="16">
         <v>99</v>
       </c>
-      <c r="T43" s="16"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="21"/>
+      <c r="T43" s="16">
+        <v>0</v>
+      </c>
+      <c r="U43" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V43" s="11">
+        <v>0</v>
+      </c>
+      <c r="W43" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" ht="101" customHeight="1" spans="2:23">
       <c r="B44" s="10">
         <v>40</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D44" s="17"/>
-      <c r="E44" s="18"/>
+      <c r="E44" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F44" s="16">
         <v>10111</v>
       </c>
@@ -4350,12 +4729,12 @@
         <v>0</v>
       </c>
       <c r="K44" s="16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L44" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="M44" s="19">
+        <v>110</v>
+      </c>
+      <c r="M44" s="18">
         <v>3</v>
       </c>
       <c r="N44" s="14">
@@ -4364,26 +4743,36 @@
       <c r="O44" s="14">
         <v>10</v>
       </c>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
       <c r="S44" s="16">
         <v>99</v>
       </c>
-      <c r="T44" s="16"/>
-      <c r="U44" s="16"/>
-      <c r="V44" s="16"/>
-      <c r="W44" s="21"/>
+      <c r="T44" s="16">
+        <v>0</v>
+      </c>
+      <c r="U44" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V44" s="11">
+        <v>0</v>
+      </c>
+      <c r="W44" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" ht="101" customHeight="1" spans="2:23">
       <c r="B45" s="10">
         <v>41</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D45" s="17"/>
-      <c r="E45" s="18"/>
+      <c r="E45" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F45" s="16">
         <v>10112</v>
       </c>
@@ -4398,12 +4787,12 @@
         <v>0</v>
       </c>
       <c r="K45" s="16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L45" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="M45" s="19">
+        <v>110</v>
+      </c>
+      <c r="M45" s="18">
         <v>3</v>
       </c>
       <c r="N45" s="14">
@@ -4412,26 +4801,36 @@
       <c r="O45" s="14">
         <v>10</v>
       </c>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
       <c r="S45" s="16">
         <v>99</v>
       </c>
-      <c r="T45" s="16"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="21"/>
+      <c r="T45" s="16">
+        <v>0</v>
+      </c>
+      <c r="U45" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V45" s="11">
+        <v>0</v>
+      </c>
+      <c r="W45" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" ht="101" customHeight="1" spans="2:23">
       <c r="B46" s="10">
         <v>42</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D46" s="17"/>
-      <c r="E46" s="18"/>
+      <c r="E46" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F46" s="16">
         <v>10113</v>
       </c>
@@ -4446,12 +4845,12 @@
         <v>0</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L46" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="M46" s="19">
+        <v>110</v>
+      </c>
+      <c r="M46" s="18">
         <v>3</v>
       </c>
       <c r="N46" s="14">
@@ -4460,26 +4859,36 @@
       <c r="O46" s="14">
         <v>10</v>
       </c>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
       <c r="S46" s="16">
         <v>99</v>
       </c>
-      <c r="T46" s="16"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="16"/>
-      <c r="W46" s="21"/>
+      <c r="T46" s="16">
+        <v>0</v>
+      </c>
+      <c r="U46" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V46" s="11">
+        <v>0</v>
+      </c>
+      <c r="W46" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" ht="101" customHeight="1" spans="2:23">
       <c r="B47" s="10">
         <v>43</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D47" s="17"/>
-      <c r="E47" s="18"/>
+      <c r="E47" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F47" s="16">
         <v>10114</v>
       </c>
@@ -4494,12 +4903,12 @@
         <v>0</v>
       </c>
       <c r="K47" s="16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="M47" s="19">
+        <v>110</v>
+      </c>
+      <c r="M47" s="18">
         <v>3</v>
       </c>
       <c r="N47" s="14">
@@ -4508,26 +4917,36 @@
       <c r="O47" s="14">
         <v>10</v>
       </c>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
+      <c r="R47" s="18"/>
       <c r="S47" s="16">
         <v>99</v>
       </c>
-      <c r="T47" s="16"/>
-      <c r="U47" s="16"/>
-      <c r="V47" s="16"/>
-      <c r="W47" s="21"/>
+      <c r="T47" s="16">
+        <v>0</v>
+      </c>
+      <c r="U47" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V47" s="11">
+        <v>0</v>
+      </c>
+      <c r="W47" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" ht="101" customHeight="1" spans="2:23">
       <c r="B48" s="10">
         <v>44</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D48" s="17"/>
-      <c r="E48" s="18"/>
+      <c r="E48" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F48" s="16">
         <v>10115</v>
       </c>
@@ -4542,12 +4961,12 @@
         <v>0</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L48" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="M48" s="19">
+        <v>110</v>
+      </c>
+      <c r="M48" s="18">
         <v>3</v>
       </c>
       <c r="N48" s="14">
@@ -4556,26 +4975,36 @@
       <c r="O48" s="14">
         <v>10</v>
       </c>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="18"/>
       <c r="S48" s="16">
         <v>99</v>
       </c>
-      <c r="T48" s="16"/>
-      <c r="U48" s="16"/>
-      <c r="V48" s="16"/>
-      <c r="W48" s="21"/>
+      <c r="T48" s="16">
+        <v>0</v>
+      </c>
+      <c r="U48" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V48" s="11">
+        <v>0</v>
+      </c>
+      <c r="W48" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" ht="101" customHeight="1" spans="2:23">
       <c r="B49" s="10">
         <v>45</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D49" s="17"/>
-      <c r="E49" s="18"/>
+      <c r="E49" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F49" s="16">
         <v>10117</v>
       </c>
@@ -4590,12 +5019,12 @@
         <v>0</v>
       </c>
       <c r="K49" s="16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L49" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="M49" s="19">
+        <v>110</v>
+      </c>
+      <c r="M49" s="18">
         <v>3</v>
       </c>
       <c r="N49" s="14">
@@ -4604,26 +5033,36 @@
       <c r="O49" s="14">
         <v>10</v>
       </c>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
       <c r="S49" s="16">
         <v>99</v>
       </c>
-      <c r="T49" s="16"/>
-      <c r="U49" s="16"/>
-      <c r="V49" s="16"/>
-      <c r="W49" s="21"/>
+      <c r="T49" s="16">
+        <v>0</v>
+      </c>
+      <c r="U49" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V49" s="11">
+        <v>0</v>
+      </c>
+      <c r="W49" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" ht="101" customHeight="1" spans="2:23">
       <c r="B50" s="10">
         <v>46</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D50" s="17"/>
-      <c r="E50" s="18"/>
+      <c r="E50" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F50" s="16">
         <v>10118</v>
       </c>
@@ -4638,12 +5077,12 @@
         <v>0</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L50" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="M50" s="19">
+        <v>110</v>
+      </c>
+      <c r="M50" s="18">
         <v>3</v>
       </c>
       <c r="N50" s="14">
@@ -4652,26 +5091,36 @@
       <c r="O50" s="14">
         <v>10</v>
       </c>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
       <c r="S50" s="16">
         <v>99</v>
       </c>
-      <c r="T50" s="16"/>
-      <c r="U50" s="16"/>
-      <c r="V50" s="16"/>
-      <c r="W50" s="21"/>
+      <c r="T50" s="16">
+        <v>0</v>
+      </c>
+      <c r="U50" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V50" s="11">
+        <v>0</v>
+      </c>
+      <c r="W50" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" ht="101" customHeight="1" spans="2:23">
       <c r="B51" s="10">
         <v>47</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D51" s="17"/>
-      <c r="E51" s="18"/>
+      <c r="E51" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F51" s="16">
         <v>10201</v>
       </c>
@@ -4686,12 +5135,12 @@
         <v>0</v>
       </c>
       <c r="K51" s="16" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L51" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="M51" s="19">
+        <v>128</v>
+      </c>
+      <c r="M51" s="18">
         <v>4</v>
       </c>
       <c r="N51" s="14">
@@ -4700,26 +5149,36 @@
       <c r="O51" s="14">
         <v>10</v>
       </c>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
       <c r="S51" s="16">
         <v>99</v>
       </c>
-      <c r="T51" s="16"/>
-      <c r="U51" s="16"/>
-      <c r="V51" s="16"/>
-      <c r="W51" s="21"/>
+      <c r="T51" s="16">
+        <v>0</v>
+      </c>
+      <c r="U51" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V51" s="11">
+        <v>0</v>
+      </c>
+      <c r="W51" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" ht="101" customHeight="1" spans="2:23">
       <c r="B52" s="10">
         <v>48</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D52" s="17"/>
-      <c r="E52" s="18"/>
+      <c r="E52" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F52" s="16">
         <v>10202</v>
       </c>
@@ -4734,12 +5193,12 @@
         <v>0</v>
       </c>
       <c r="K52" s="16" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L52" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="M52" s="19">
+        <v>128</v>
+      </c>
+      <c r="M52" s="18">
         <v>4</v>
       </c>
       <c r="N52" s="14">
@@ -4748,26 +5207,36 @@
       <c r="O52" s="14">
         <v>10</v>
       </c>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="19"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="18"/>
       <c r="S52" s="16">
         <v>99</v>
       </c>
-      <c r="T52" s="16"/>
-      <c r="U52" s="16"/>
-      <c r="V52" s="16"/>
-      <c r="W52" s="21"/>
+      <c r="T52" s="16">
+        <v>0</v>
+      </c>
+      <c r="U52" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V52" s="11">
+        <v>0</v>
+      </c>
+      <c r="W52" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" ht="101" customHeight="1" spans="2:23">
       <c r="B53" s="10">
         <v>49</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D53" s="17"/>
-      <c r="E53" s="18"/>
+      <c r="E53" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F53" s="16">
         <v>10203</v>
       </c>
@@ -4782,12 +5251,12 @@
         <v>0</v>
       </c>
       <c r="K53" s="16" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L53" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="M53" s="19">
+        <v>128</v>
+      </c>
+      <c r="M53" s="18">
         <v>4</v>
       </c>
       <c r="N53" s="14">
@@ -4796,26 +5265,36 @@
       <c r="O53" s="14">
         <v>10</v>
       </c>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="18"/>
       <c r="S53" s="16">
         <v>99</v>
       </c>
-      <c r="T53" s="16"/>
-      <c r="U53" s="16"/>
-      <c r="V53" s="16"/>
-      <c r="W53" s="21"/>
+      <c r="T53" s="16">
+        <v>0</v>
+      </c>
+      <c r="U53" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V53" s="11">
+        <v>0</v>
+      </c>
+      <c r="W53" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" ht="101" customHeight="1" spans="2:23">
       <c r="B54" s="10">
         <v>50</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D54" s="17"/>
-      <c r="E54" s="18"/>
+      <c r="E54" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F54" s="16">
         <v>10204</v>
       </c>
@@ -4830,12 +5309,12 @@
         <v>0</v>
       </c>
       <c r="K54" s="16" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L54" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="M54" s="19">
+        <v>128</v>
+      </c>
+      <c r="M54" s="18">
         <v>4</v>
       </c>
       <c r="N54" s="14">
@@ -4844,26 +5323,36 @@
       <c r="O54" s="14">
         <v>10</v>
       </c>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="19"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="18"/>
       <c r="S54" s="16">
         <v>99</v>
       </c>
-      <c r="T54" s="16"/>
-      <c r="U54" s="16"/>
-      <c r="V54" s="16"/>
-      <c r="W54" s="21"/>
+      <c r="T54" s="16">
+        <v>0</v>
+      </c>
+      <c r="U54" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V54" s="11">
+        <v>0</v>
+      </c>
+      <c r="W54" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" ht="101" customHeight="1" spans="2:23">
       <c r="B55" s="10">
         <v>51</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D55" s="17"/>
-      <c r="E55" s="18"/>
+      <c r="E55" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F55" s="16">
         <v>10205</v>
       </c>
@@ -4878,12 +5367,12 @@
         <v>0</v>
       </c>
       <c r="K55" s="16" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L55" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="M55" s="19">
+        <v>128</v>
+      </c>
+      <c r="M55" s="18">
         <v>4</v>
       </c>
       <c r="N55" s="14">
@@ -4892,26 +5381,36 @@
       <c r="O55" s="14">
         <v>10</v>
       </c>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="19"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
       <c r="S55" s="16">
         <v>99</v>
       </c>
-      <c r="T55" s="16"/>
-      <c r="U55" s="16"/>
-      <c r="V55" s="16"/>
-      <c r="W55" s="21"/>
+      <c r="T55" s="16">
+        <v>0</v>
+      </c>
+      <c r="U55" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V55" s="11">
+        <v>0</v>
+      </c>
+      <c r="W55" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" ht="101" customHeight="1" spans="2:23">
       <c r="B56" s="10">
         <v>52</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D56" s="17"/>
-      <c r="E56" s="18"/>
+      <c r="E56" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F56" s="16">
         <v>10206</v>
       </c>
@@ -4926,12 +5425,12 @@
         <v>0</v>
       </c>
       <c r="K56" s="16" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L56" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="M56" s="19">
+        <v>128</v>
+      </c>
+      <c r="M56" s="18">
         <v>4</v>
       </c>
       <c r="N56" s="14">
@@ -4940,26 +5439,36 @@
       <c r="O56" s="14">
         <v>10</v>
       </c>
-      <c r="P56" s="19"/>
-      <c r="Q56" s="19"/>
-      <c r="R56" s="19"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
       <c r="S56" s="16">
         <v>99</v>
       </c>
-      <c r="T56" s="16"/>
-      <c r="U56" s="16"/>
-      <c r="V56" s="16"/>
-      <c r="W56" s="21"/>
+      <c r="T56" s="16">
+        <v>0</v>
+      </c>
+      <c r="U56" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V56" s="11">
+        <v>0</v>
+      </c>
+      <c r="W56" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" ht="101" customHeight="1" spans="2:23">
       <c r="B57" s="10">
         <v>53</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D57" s="17"/>
-      <c r="E57" s="18"/>
+      <c r="E57" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F57" s="16">
         <v>10207</v>
       </c>
@@ -4974,12 +5483,12 @@
         <v>0</v>
       </c>
       <c r="K57" s="16" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L57" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="M57" s="19">
+        <v>128</v>
+      </c>
+      <c r="M57" s="18">
         <v>4</v>
       </c>
       <c r="N57" s="14">
@@ -4988,26 +5497,36 @@
       <c r="O57" s="14">
         <v>10</v>
       </c>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="19"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="18"/>
       <c r="S57" s="16">
         <v>99</v>
       </c>
-      <c r="T57" s="16"/>
-      <c r="U57" s="16"/>
-      <c r="V57" s="16"/>
-      <c r="W57" s="21"/>
+      <c r="T57" s="16">
+        <v>0</v>
+      </c>
+      <c r="U57" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V57" s="11">
+        <v>0</v>
+      </c>
+      <c r="W57" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" ht="101" customHeight="1" spans="2:23">
       <c r="B58" s="10">
         <v>54</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D58" s="17"/>
-      <c r="E58" s="18"/>
+      <c r="E58" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F58" s="16">
         <v>10208</v>
       </c>
@@ -5022,12 +5541,12 @@
         <v>0</v>
       </c>
       <c r="K58" s="16" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L58" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="M58" s="19">
+        <v>128</v>
+      </c>
+      <c r="M58" s="18">
         <v>4</v>
       </c>
       <c r="N58" s="14">
@@ -5036,26 +5555,36 @@
       <c r="O58" s="14">
         <v>10</v>
       </c>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="19"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
       <c r="S58" s="16">
         <v>99</v>
       </c>
-      <c r="T58" s="16"/>
-      <c r="U58" s="16"/>
-      <c r="V58" s="16"/>
-      <c r="W58" s="21"/>
+      <c r="T58" s="16">
+        <v>0</v>
+      </c>
+      <c r="U58" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V58" s="11">
+        <v>0</v>
+      </c>
+      <c r="W58" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" ht="101" customHeight="1" spans="2:23">
       <c r="B59" s="10">
         <v>55</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D59" s="17"/>
-      <c r="E59" s="18"/>
+      <c r="E59" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F59" s="16">
         <v>10209</v>
       </c>
@@ -5070,12 +5599,12 @@
         <v>0</v>
       </c>
       <c r="K59" s="16" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L59" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="M59" s="19">
+        <v>128</v>
+      </c>
+      <c r="M59" s="18">
         <v>4</v>
       </c>
       <c r="N59" s="14">
@@ -5084,26 +5613,36 @@
       <c r="O59" s="14">
         <v>10</v>
       </c>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="18"/>
       <c r="S59" s="16">
         <v>99</v>
       </c>
-      <c r="T59" s="16"/>
-      <c r="U59" s="16"/>
-      <c r="V59" s="16"/>
-      <c r="W59" s="21"/>
+      <c r="T59" s="16">
+        <v>0</v>
+      </c>
+      <c r="U59" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V59" s="11">
+        <v>0</v>
+      </c>
+      <c r="W59" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" ht="101" customHeight="1" spans="2:23">
       <c r="B60" s="10">
         <v>56</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D60" s="17"/>
-      <c r="E60" s="18"/>
+      <c r="E60" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F60" s="16">
         <v>10210</v>
       </c>
@@ -5118,12 +5657,12 @@
         <v>0</v>
       </c>
       <c r="K60" s="16" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L60" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="M60" s="19">
+        <v>128</v>
+      </c>
+      <c r="M60" s="18">
         <v>4</v>
       </c>
       <c r="N60" s="14">
@@ -5132,26 +5671,36 @@
       <c r="O60" s="14">
         <v>10</v>
       </c>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="19"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="18"/>
+      <c r="R60" s="18"/>
       <c r="S60" s="16">
         <v>99</v>
       </c>
-      <c r="T60" s="16"/>
-      <c r="U60" s="16"/>
-      <c r="V60" s="16"/>
-      <c r="W60" s="21"/>
+      <c r="T60" s="16">
+        <v>0</v>
+      </c>
+      <c r="U60" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V60" s="11">
+        <v>0</v>
+      </c>
+      <c r="W60" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" ht="101" customHeight="1" spans="2:23">
       <c r="B61" s="10">
         <v>57</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D61" s="17"/>
-      <c r="E61" s="18"/>
+      <c r="E61" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F61" s="16">
         <v>10211</v>
       </c>
@@ -5166,12 +5715,12 @@
         <v>0</v>
       </c>
       <c r="K61" s="16" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L61" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="M61" s="19">
+        <v>128</v>
+      </c>
+      <c r="M61" s="18">
         <v>4</v>
       </c>
       <c r="N61" s="14">
@@ -5180,26 +5729,36 @@
       <c r="O61" s="14">
         <v>10</v>
       </c>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="19"/>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="18"/>
+      <c r="R61" s="18"/>
       <c r="S61" s="16">
         <v>99</v>
       </c>
-      <c r="T61" s="16"/>
-      <c r="U61" s="16"/>
-      <c r="V61" s="16"/>
-      <c r="W61" s="21"/>
+      <c r="T61" s="16">
+        <v>0</v>
+      </c>
+      <c r="U61" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V61" s="11">
+        <v>0</v>
+      </c>
+      <c r="W61" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" ht="101" customHeight="1" spans="2:23">
       <c r="B62" s="10">
         <v>58</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D62" s="17"/>
-      <c r="E62" s="18"/>
+      <c r="E62" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F62" s="16">
         <v>10212</v>
       </c>
@@ -5214,12 +5773,12 @@
         <v>0</v>
       </c>
       <c r="K62" s="16" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L62" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="M62" s="19">
+        <v>128</v>
+      </c>
+      <c r="M62" s="18">
         <v>4</v>
       </c>
       <c r="N62" s="14">
@@ -5228,26 +5787,36 @@
       <c r="O62" s="14">
         <v>10</v>
       </c>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="19"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="18"/>
+      <c r="R62" s="18"/>
       <c r="S62" s="16">
         <v>99</v>
       </c>
-      <c r="T62" s="16"/>
-      <c r="U62" s="16"/>
-      <c r="V62" s="16"/>
-      <c r="W62" s="21"/>
+      <c r="T62" s="16">
+        <v>0</v>
+      </c>
+      <c r="U62" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V62" s="11">
+        <v>0</v>
+      </c>
+      <c r="W62" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" ht="101" customHeight="1" spans="2:23">
       <c r="B63" s="10">
         <v>59</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D63" s="17"/>
-      <c r="E63" s="18"/>
+      <c r="E63" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F63" s="16">
         <v>10213</v>
       </c>
@@ -5262,12 +5831,12 @@
         <v>0</v>
       </c>
       <c r="K63" s="16" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L63" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="M63" s="19">
+        <v>128</v>
+      </c>
+      <c r="M63" s="18">
         <v>4</v>
       </c>
       <c r="N63" s="14">
@@ -5276,26 +5845,36 @@
       <c r="O63" s="14">
         <v>10</v>
       </c>
-      <c r="P63" s="19"/>
-      <c r="Q63" s="19"/>
-      <c r="R63" s="19"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
       <c r="S63" s="16">
         <v>99</v>
       </c>
-      <c r="T63" s="16"/>
-      <c r="U63" s="16"/>
-      <c r="V63" s="16"/>
-      <c r="W63" s="21"/>
+      <c r="T63" s="16">
+        <v>0</v>
+      </c>
+      <c r="U63" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V63" s="11">
+        <v>0</v>
+      </c>
+      <c r="W63" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" ht="101" customHeight="1" spans="2:23">
       <c r="B64" s="10">
         <v>60</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D64" s="17"/>
-      <c r="E64" s="18"/>
+      <c r="E64" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F64" s="16">
         <v>10214</v>
       </c>
@@ -5310,12 +5889,12 @@
         <v>0</v>
       </c>
       <c r="K64" s="16" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L64" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="M64" s="19">
+        <v>128</v>
+      </c>
+      <c r="M64" s="18">
         <v>4</v>
       </c>
       <c r="N64" s="14">
@@ -5324,26 +5903,36 @@
       <c r="O64" s="14">
         <v>10</v>
       </c>
-      <c r="P64" s="19"/>
-      <c r="Q64" s="19"/>
-      <c r="R64" s="19"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18"/>
+      <c r="R64" s="18"/>
       <c r="S64" s="16">
         <v>99</v>
       </c>
-      <c r="T64" s="16"/>
-      <c r="U64" s="16"/>
-      <c r="V64" s="16"/>
-      <c r="W64" s="21"/>
+      <c r="T64" s="16">
+        <v>0</v>
+      </c>
+      <c r="U64" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V64" s="11">
+        <v>0</v>
+      </c>
+      <c r="W64" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" ht="101" customHeight="1" spans="2:23">
       <c r="B65" s="10">
         <v>61</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D65" s="17"/>
-      <c r="E65" s="18"/>
+      <c r="E65" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F65" s="16">
         <v>10215</v>
       </c>
@@ -5358,12 +5947,12 @@
         <v>0</v>
       </c>
       <c r="K65" s="16" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L65" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="M65" s="19">
+        <v>128</v>
+      </c>
+      <c r="M65" s="18">
         <v>4</v>
       </c>
       <c r="N65" s="14">
@@ -5372,26 +5961,36 @@
       <c r="O65" s="14">
         <v>10</v>
       </c>
-      <c r="P65" s="19"/>
-      <c r="Q65" s="19"/>
-      <c r="R65" s="19"/>
+      <c r="P65" s="18"/>
+      <c r="Q65" s="18"/>
+      <c r="R65" s="18"/>
       <c r="S65" s="16">
         <v>99</v>
       </c>
-      <c r="T65" s="16"/>
-      <c r="U65" s="16"/>
-      <c r="V65" s="16"/>
-      <c r="W65" s="21"/>
+      <c r="T65" s="16">
+        <v>0</v>
+      </c>
+      <c r="U65" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V65" s="11">
+        <v>0</v>
+      </c>
+      <c r="W65" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" ht="101" customHeight="1" spans="2:23">
       <c r="B66" s="10">
         <v>62</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D66" s="17"/>
-      <c r="E66" s="18"/>
+      <c r="E66" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F66" s="16">
         <v>10217</v>
       </c>
@@ -5406,12 +6005,12 @@
         <v>0</v>
       </c>
       <c r="K66" s="16" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L66" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="M66" s="19">
+        <v>128</v>
+      </c>
+      <c r="M66" s="18">
         <v>4</v>
       </c>
       <c r="N66" s="14">
@@ -5420,26 +6019,36 @@
       <c r="O66" s="14">
         <v>10</v>
       </c>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="19"/>
-      <c r="R66" s="19"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="18"/>
+      <c r="R66" s="18"/>
       <c r="S66" s="16">
         <v>99</v>
       </c>
-      <c r="T66" s="16"/>
-      <c r="U66" s="16"/>
-      <c r="V66" s="16"/>
-      <c r="W66" s="21"/>
+      <c r="T66" s="16">
+        <v>0</v>
+      </c>
+      <c r="U66" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V66" s="11">
+        <v>0</v>
+      </c>
+      <c r="W66" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" ht="101" customHeight="1" spans="2:23">
       <c r="B67" s="10">
         <v>63</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D67" s="17"/>
-      <c r="E67" s="18"/>
+      <c r="E67" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F67" s="16">
         <v>10218</v>
       </c>
@@ -5454,12 +6063,12 @@
         <v>0</v>
       </c>
       <c r="K67" s="16" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L67" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="M67" s="19">
+        <v>128</v>
+      </c>
+      <c r="M67" s="18">
         <v>4</v>
       </c>
       <c r="N67" s="14">
@@ -5468,26 +6077,36 @@
       <c r="O67" s="14">
         <v>10</v>
       </c>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="19"/>
-      <c r="R67" s="19"/>
+      <c r="P67" s="18"/>
+      <c r="Q67" s="18"/>
+      <c r="R67" s="18"/>
       <c r="S67" s="16">
         <v>99</v>
       </c>
-      <c r="T67" s="16"/>
-      <c r="U67" s="16"/>
-      <c r="V67" s="16"/>
-      <c r="W67" s="21"/>
+      <c r="T67" s="16">
+        <v>0</v>
+      </c>
+      <c r="U67" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V67" s="11">
+        <v>0</v>
+      </c>
+      <c r="W67" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" ht="101" customHeight="1" spans="2:23">
       <c r="B68" s="10">
         <v>64</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D68" s="17"/>
-      <c r="E68" s="18"/>
+      <c r="E68" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F68" s="16">
         <v>10301</v>
       </c>
@@ -5502,12 +6121,12 @@
         <v>0</v>
       </c>
       <c r="K68" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="L68" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="M68" s="19">
+        <v>146</v>
+      </c>
+      <c r="M68" s="18">
         <v>5</v>
       </c>
       <c r="N68" s="14">
@@ -5516,26 +6135,36 @@
       <c r="O68" s="14">
         <v>10</v>
       </c>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="19"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="18"/>
+      <c r="R68" s="18"/>
       <c r="S68" s="16">
         <v>99</v>
       </c>
-      <c r="T68" s="16"/>
-      <c r="U68" s="16"/>
-      <c r="V68" s="16"/>
-      <c r="W68" s="21"/>
+      <c r="T68" s="16">
+        <v>0</v>
+      </c>
+      <c r="U68" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V68" s="11">
+        <v>0</v>
+      </c>
+      <c r="W68" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" ht="101" customHeight="1" spans="2:23">
       <c r="B69" s="10">
         <v>65</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D69" s="17"/>
-      <c r="E69" s="18"/>
+      <c r="E69" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F69" s="16">
         <v>10302</v>
       </c>
@@ -5550,12 +6179,12 @@
         <v>0</v>
       </c>
       <c r="K69" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="L69" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="M69" s="19">
+        <v>146</v>
+      </c>
+      <c r="M69" s="18">
         <v>5</v>
       </c>
       <c r="N69" s="14">
@@ -5564,26 +6193,36 @@
       <c r="O69" s="14">
         <v>10</v>
       </c>
-      <c r="P69" s="19"/>
-      <c r="Q69" s="19"/>
-      <c r="R69" s="19"/>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="18"/>
+      <c r="R69" s="18"/>
       <c r="S69" s="16">
         <v>99</v>
       </c>
-      <c r="T69" s="16"/>
-      <c r="U69" s="16"/>
-      <c r="V69" s="16"/>
-      <c r="W69" s="21"/>
+      <c r="T69" s="16">
+        <v>0</v>
+      </c>
+      <c r="U69" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V69" s="11">
+        <v>0</v>
+      </c>
+      <c r="W69" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" ht="101" customHeight="1" spans="2:23">
       <c r="B70" s="10">
         <v>66</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D70" s="17"/>
-      <c r="E70" s="18"/>
+      <c r="E70" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F70" s="16">
         <v>10303</v>
       </c>
@@ -5598,12 +6237,12 @@
         <v>0</v>
       </c>
       <c r="K70" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="L70" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="M70" s="19">
+        <v>146</v>
+      </c>
+      <c r="M70" s="18">
         <v>5</v>
       </c>
       <c r="N70" s="14">
@@ -5612,26 +6251,36 @@
       <c r="O70" s="14">
         <v>10</v>
       </c>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="19"/>
-      <c r="R70" s="19"/>
+      <c r="P70" s="18"/>
+      <c r="Q70" s="18"/>
+      <c r="R70" s="18"/>
       <c r="S70" s="16">
         <v>99</v>
       </c>
-      <c r="T70" s="16"/>
-      <c r="U70" s="16"/>
-      <c r="V70" s="16"/>
-      <c r="W70" s="21"/>
+      <c r="T70" s="16">
+        <v>0</v>
+      </c>
+      <c r="U70" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V70" s="11">
+        <v>0</v>
+      </c>
+      <c r="W70" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" ht="101" customHeight="1" spans="2:23">
       <c r="B71" s="10">
         <v>67</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D71" s="17"/>
-      <c r="E71" s="18"/>
+      <c r="E71" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F71" s="16">
         <v>10304</v>
       </c>
@@ -5646,12 +6295,12 @@
         <v>0</v>
       </c>
       <c r="K71" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="L71" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="M71" s="19">
+        <v>146</v>
+      </c>
+      <c r="M71" s="18">
         <v>5</v>
       </c>
       <c r="N71" s="14">
@@ -5660,26 +6309,36 @@
       <c r="O71" s="14">
         <v>10</v>
       </c>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="19"/>
-      <c r="R71" s="19"/>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="18"/>
+      <c r="R71" s="18"/>
       <c r="S71" s="16">
         <v>99</v>
       </c>
-      <c r="T71" s="16"/>
-      <c r="U71" s="16"/>
-      <c r="V71" s="16"/>
-      <c r="W71" s="21"/>
+      <c r="T71" s="16">
+        <v>0</v>
+      </c>
+      <c r="U71" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V71" s="11">
+        <v>0</v>
+      </c>
+      <c r="W71" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" ht="101" customHeight="1" spans="2:23">
       <c r="B72" s="10">
         <v>68</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D72" s="17"/>
-      <c r="E72" s="18"/>
+      <c r="E72" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F72" s="16">
         <v>10305</v>
       </c>
@@ -5694,12 +6353,12 @@
         <v>0</v>
       </c>
       <c r="K72" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="L72" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="M72" s="19">
+        <v>146</v>
+      </c>
+      <c r="M72" s="18">
         <v>5</v>
       </c>
       <c r="N72" s="14">
@@ -5708,26 +6367,36 @@
       <c r="O72" s="14">
         <v>10</v>
       </c>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="19"/>
-      <c r="R72" s="19"/>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="18"/>
       <c r="S72" s="16">
         <v>99</v>
       </c>
-      <c r="T72" s="16"/>
-      <c r="U72" s="16"/>
-      <c r="V72" s="16"/>
-      <c r="W72" s="21"/>
+      <c r="T72" s="16">
+        <v>0</v>
+      </c>
+      <c r="U72" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V72" s="11">
+        <v>0</v>
+      </c>
+      <c r="W72" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" ht="101" customHeight="1" spans="2:23">
       <c r="B73" s="10">
         <v>69</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D73" s="17"/>
-      <c r="E73" s="18"/>
+      <c r="E73" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F73" s="16">
         <v>10306</v>
       </c>
@@ -5742,12 +6411,12 @@
         <v>0</v>
       </c>
       <c r="K73" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="L73" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="M73" s="19">
+        <v>146</v>
+      </c>
+      <c r="M73" s="18">
         <v>5</v>
       </c>
       <c r="N73" s="14">
@@ -5756,26 +6425,36 @@
       <c r="O73" s="14">
         <v>10</v>
       </c>
-      <c r="P73" s="19"/>
-      <c r="Q73" s="19"/>
-      <c r="R73" s="19"/>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18"/>
+      <c r="R73" s="18"/>
       <c r="S73" s="16">
         <v>99</v>
       </c>
-      <c r="T73" s="16"/>
-      <c r="U73" s="16"/>
-      <c r="V73" s="16"/>
-      <c r="W73" s="21"/>
+      <c r="T73" s="16">
+        <v>0</v>
+      </c>
+      <c r="U73" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V73" s="11">
+        <v>0</v>
+      </c>
+      <c r="W73" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" ht="101" customHeight="1" spans="2:23">
       <c r="B74" s="10">
         <v>70</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D74" s="17"/>
-      <c r="E74" s="18"/>
+      <c r="E74" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F74" s="16">
         <v>10307</v>
       </c>
@@ -5790,12 +6469,12 @@
         <v>0</v>
       </c>
       <c r="K74" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="L74" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="M74" s="19">
+        <v>146</v>
+      </c>
+      <c r="M74" s="18">
         <v>5</v>
       </c>
       <c r="N74" s="14">
@@ -5804,26 +6483,36 @@
       <c r="O74" s="14">
         <v>10</v>
       </c>
-      <c r="P74" s="19"/>
-      <c r="Q74" s="19"/>
-      <c r="R74" s="19"/>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="18"/>
+      <c r="R74" s="18"/>
       <c r="S74" s="16">
         <v>99</v>
       </c>
-      <c r="T74" s="16"/>
-      <c r="U74" s="16"/>
-      <c r="V74" s="16"/>
-      <c r="W74" s="21"/>
+      <c r="T74" s="16">
+        <v>0</v>
+      </c>
+      <c r="U74" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V74" s="11">
+        <v>0</v>
+      </c>
+      <c r="W74" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" ht="101" customHeight="1" spans="2:23">
       <c r="B75" s="10">
         <v>71</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D75" s="17"/>
-      <c r="E75" s="18"/>
+      <c r="E75" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F75" s="16">
         <v>10308</v>
       </c>
@@ -5838,12 +6527,12 @@
         <v>0</v>
       </c>
       <c r="K75" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="L75" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="M75" s="19">
+        <v>146</v>
+      </c>
+      <c r="M75" s="18">
         <v>5</v>
       </c>
       <c r="N75" s="14">
@@ -5852,26 +6541,36 @@
       <c r="O75" s="14">
         <v>10</v>
       </c>
-      <c r="P75" s="19"/>
-      <c r="Q75" s="19"/>
-      <c r="R75" s="19"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="18"/>
+      <c r="R75" s="18"/>
       <c r="S75" s="16">
         <v>99</v>
       </c>
-      <c r="T75" s="16"/>
-      <c r="U75" s="16"/>
-      <c r="V75" s="16"/>
-      <c r="W75" s="21"/>
+      <c r="T75" s="16">
+        <v>0</v>
+      </c>
+      <c r="U75" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V75" s="11">
+        <v>0</v>
+      </c>
+      <c r="W75" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" ht="101" customHeight="1" spans="2:23">
       <c r="B76" s="10">
         <v>72</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D76" s="17"/>
-      <c r="E76" s="18"/>
+      <c r="E76" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F76" s="16">
         <v>10309</v>
       </c>
@@ -5886,12 +6585,12 @@
         <v>0</v>
       </c>
       <c r="K76" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="L76" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="M76" s="19">
+        <v>146</v>
+      </c>
+      <c r="M76" s="18">
         <v>5</v>
       </c>
       <c r="N76" s="14">
@@ -5900,26 +6599,36 @@
       <c r="O76" s="14">
         <v>10</v>
       </c>
-      <c r="P76" s="19"/>
-      <c r="Q76" s="19"/>
-      <c r="R76" s="19"/>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="18"/>
+      <c r="R76" s="18"/>
       <c r="S76" s="16">
         <v>99</v>
       </c>
-      <c r="T76" s="16"/>
-      <c r="U76" s="16"/>
-      <c r="V76" s="16"/>
-      <c r="W76" s="21"/>
+      <c r="T76" s="16">
+        <v>0</v>
+      </c>
+      <c r="U76" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V76" s="11">
+        <v>0</v>
+      </c>
+      <c r="W76" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" ht="101" customHeight="1" spans="2:23">
       <c r="B77" s="10">
         <v>73</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D77" s="17"/>
-      <c r="E77" s="18"/>
+      <c r="E77" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F77" s="16">
         <v>10310</v>
       </c>
@@ -5934,12 +6643,12 @@
         <v>0</v>
       </c>
       <c r="K77" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="L77" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="M77" s="19">
+        <v>146</v>
+      </c>
+      <c r="M77" s="18">
         <v>5</v>
       </c>
       <c r="N77" s="14">
@@ -5948,26 +6657,36 @@
       <c r="O77" s="14">
         <v>10</v>
       </c>
-      <c r="P77" s="19"/>
-      <c r="Q77" s="19"/>
-      <c r="R77" s="19"/>
+      <c r="P77" s="18"/>
+      <c r="Q77" s="18"/>
+      <c r="R77" s="18"/>
       <c r="S77" s="16">
         <v>99</v>
       </c>
-      <c r="T77" s="16"/>
-      <c r="U77" s="16"/>
-      <c r="V77" s="16"/>
-      <c r="W77" s="21"/>
+      <c r="T77" s="16">
+        <v>0</v>
+      </c>
+      <c r="U77" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V77" s="11">
+        <v>0</v>
+      </c>
+      <c r="W77" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" ht="101" customHeight="1" spans="2:23">
       <c r="B78" s="10">
         <v>74</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D78" s="17"/>
-      <c r="E78" s="18"/>
+      <c r="E78" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F78" s="16">
         <v>10311</v>
       </c>
@@ -5982,12 +6701,12 @@
         <v>0</v>
       </c>
       <c r="K78" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="L78" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="M78" s="19">
+        <v>146</v>
+      </c>
+      <c r="M78" s="18">
         <v>5</v>
       </c>
       <c r="N78" s="14">
@@ -5996,26 +6715,36 @@
       <c r="O78" s="14">
         <v>10</v>
       </c>
-      <c r="P78" s="19"/>
-      <c r="Q78" s="19"/>
-      <c r="R78" s="19"/>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="18"/>
+      <c r="R78" s="18"/>
       <c r="S78" s="16">
         <v>99</v>
       </c>
-      <c r="T78" s="16"/>
-      <c r="U78" s="16"/>
-      <c r="V78" s="16"/>
-      <c r="W78" s="21"/>
+      <c r="T78" s="16">
+        <v>0</v>
+      </c>
+      <c r="U78" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V78" s="11">
+        <v>0</v>
+      </c>
+      <c r="W78" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" ht="101" customHeight="1" spans="2:23">
       <c r="B79" s="10">
         <v>75</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D79" s="17"/>
-      <c r="E79" s="18"/>
+      <c r="E79" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F79" s="16">
         <v>10312</v>
       </c>
@@ -6030,12 +6759,12 @@
         <v>0</v>
       </c>
       <c r="K79" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="L79" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="M79" s="19">
+        <v>146</v>
+      </c>
+      <c r="M79" s="18">
         <v>5</v>
       </c>
       <c r="N79" s="14">
@@ -6044,26 +6773,36 @@
       <c r="O79" s="14">
         <v>10</v>
       </c>
-      <c r="P79" s="19"/>
-      <c r="Q79" s="19"/>
-      <c r="R79" s="19"/>
+      <c r="P79" s="18"/>
+      <c r="Q79" s="18"/>
+      <c r="R79" s="18"/>
       <c r="S79" s="16">
         <v>99</v>
       </c>
-      <c r="T79" s="16"/>
-      <c r="U79" s="16"/>
-      <c r="V79" s="16"/>
-      <c r="W79" s="21"/>
+      <c r="T79" s="16">
+        <v>0</v>
+      </c>
+      <c r="U79" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V79" s="11">
+        <v>0</v>
+      </c>
+      <c r="W79" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" ht="101" customHeight="1" spans="2:23">
       <c r="B80" s="10">
         <v>76</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D80" s="17"/>
-      <c r="E80" s="18"/>
+      <c r="E80" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F80" s="16">
         <v>10313</v>
       </c>
@@ -6078,12 +6817,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="L80" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="M80" s="19">
+        <v>146</v>
+      </c>
+      <c r="M80" s="18">
         <v>5</v>
       </c>
       <c r="N80" s="14">
@@ -6092,26 +6831,36 @@
       <c r="O80" s="14">
         <v>10</v>
       </c>
-      <c r="P80" s="19"/>
-      <c r="Q80" s="19"/>
-      <c r="R80" s="19"/>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="18"/>
+      <c r="R80" s="18"/>
       <c r="S80" s="16">
         <v>99</v>
       </c>
-      <c r="T80" s="16"/>
-      <c r="U80" s="16"/>
-      <c r="V80" s="16"/>
-      <c r="W80" s="21"/>
+      <c r="T80" s="16">
+        <v>0</v>
+      </c>
+      <c r="U80" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V80" s="11">
+        <v>0</v>
+      </c>
+      <c r="W80" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" ht="101" customHeight="1" spans="2:23">
       <c r="B81" s="10">
         <v>77</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D81" s="17"/>
-      <c r="E81" s="18"/>
+      <c r="E81" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F81" s="16">
         <v>10314</v>
       </c>
@@ -6126,12 +6875,12 @@
         <v>0</v>
       </c>
       <c r="K81" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="L81" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="M81" s="19">
+        <v>146</v>
+      </c>
+      <c r="M81" s="18">
         <v>5</v>
       </c>
       <c r="N81" s="14">
@@ -6140,26 +6889,36 @@
       <c r="O81" s="14">
         <v>10</v>
       </c>
-      <c r="P81" s="19"/>
-      <c r="Q81" s="19"/>
-      <c r="R81" s="19"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="18"/>
+      <c r="R81" s="18"/>
       <c r="S81" s="16">
         <v>99</v>
       </c>
-      <c r="T81" s="16"/>
-      <c r="U81" s="16"/>
-      <c r="V81" s="16"/>
-      <c r="W81" s="21"/>
+      <c r="T81" s="16">
+        <v>0</v>
+      </c>
+      <c r="U81" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V81" s="11">
+        <v>0</v>
+      </c>
+      <c r="W81" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" ht="101" customHeight="1" spans="2:23">
       <c r="B82" s="10">
         <v>78</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D82" s="17"/>
-      <c r="E82" s="18"/>
+      <c r="E82" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F82" s="16">
         <v>10315</v>
       </c>
@@ -6174,12 +6933,12 @@
         <v>0</v>
       </c>
       <c r="K82" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="L82" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="M82" s="19">
+        <v>146</v>
+      </c>
+      <c r="M82" s="18">
         <v>5</v>
       </c>
       <c r="N82" s="14">
@@ -6188,26 +6947,36 @@
       <c r="O82" s="14">
         <v>10</v>
       </c>
-      <c r="P82" s="19"/>
-      <c r="Q82" s="19"/>
-      <c r="R82" s="19"/>
+      <c r="P82" s="18"/>
+      <c r="Q82" s="18"/>
+      <c r="R82" s="18"/>
       <c r="S82" s="16">
         <v>99</v>
       </c>
-      <c r="T82" s="16"/>
-      <c r="U82" s="16"/>
-      <c r="V82" s="16"/>
-      <c r="W82" s="21"/>
+      <c r="T82" s="16">
+        <v>0</v>
+      </c>
+      <c r="U82" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V82" s="11">
+        <v>0</v>
+      </c>
+      <c r="W82" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" ht="101" customHeight="1" spans="2:23">
       <c r="B83" s="10">
         <v>79</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D83" s="17"/>
-      <c r="E83" s="18"/>
+      <c r="E83" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F83" s="16">
         <v>10317</v>
       </c>
@@ -6222,12 +6991,12 @@
         <v>0</v>
       </c>
       <c r="K83" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="L83" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="M83" s="19">
+        <v>146</v>
+      </c>
+      <c r="M83" s="18">
         <v>5</v>
       </c>
       <c r="N83" s="14">
@@ -6236,26 +7005,36 @@
       <c r="O83" s="14">
         <v>10</v>
       </c>
-      <c r="P83" s="19"/>
-      <c r="Q83" s="19"/>
-      <c r="R83" s="19"/>
+      <c r="P83" s="18"/>
+      <c r="Q83" s="18"/>
+      <c r="R83" s="18"/>
       <c r="S83" s="16">
         <v>99</v>
       </c>
-      <c r="T83" s="16"/>
-      <c r="U83" s="16"/>
-      <c r="V83" s="16"/>
-      <c r="W83" s="21"/>
+      <c r="T83" s="16">
+        <v>0</v>
+      </c>
+      <c r="U83" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V83" s="11">
+        <v>0</v>
+      </c>
+      <c r="W83" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" ht="101" customHeight="1" spans="2:23">
       <c r="B84" s="10">
         <v>80</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D84" s="17"/>
-      <c r="E84" s="18"/>
+      <c r="E84" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F84" s="16">
         <v>10318</v>
       </c>
@@ -6270,12 +7049,12 @@
         <v>0</v>
       </c>
       <c r="K84" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="L84" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="M84" s="19">
+        <v>146</v>
+      </c>
+      <c r="M84" s="18">
         <v>5</v>
       </c>
       <c r="N84" s="14">
@@ -6284,26 +7063,36 @@
       <c r="O84" s="14">
         <v>10</v>
       </c>
-      <c r="P84" s="19"/>
-      <c r="Q84" s="19"/>
-      <c r="R84" s="19"/>
+      <c r="P84" s="18"/>
+      <c r="Q84" s="18"/>
+      <c r="R84" s="18"/>
       <c r="S84" s="16">
         <v>99</v>
       </c>
-      <c r="T84" s="16"/>
-      <c r="U84" s="16"/>
-      <c r="V84" s="16"/>
-      <c r="W84" s="21"/>
+      <c r="T84" s="16">
+        <v>0</v>
+      </c>
+      <c r="U84" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V84" s="11">
+        <v>0</v>
+      </c>
+      <c r="W84" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" ht="101" customHeight="1" spans="2:23">
       <c r="B85" s="10">
         <v>81</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D85" s="17"/>
-      <c r="E85" s="18"/>
+      <c r="E85" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F85" s="16">
         <v>1279</v>
       </c>
@@ -6318,12 +7107,12 @@
         <v>0</v>
       </c>
       <c r="K85" s="16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L85" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M85" s="19">
+        <v>92</v>
+      </c>
+      <c r="M85" s="18">
         <v>2</v>
       </c>
       <c r="N85" s="14">
@@ -6332,26 +7121,36 @@
       <c r="O85" s="14">
         <v>10</v>
       </c>
-      <c r="P85" s="19"/>
-      <c r="Q85" s="19"/>
-      <c r="R85" s="19"/>
+      <c r="P85" s="18"/>
+      <c r="Q85" s="18"/>
+      <c r="R85" s="18"/>
       <c r="S85" s="16">
         <v>99</v>
       </c>
-      <c r="T85" s="16"/>
-      <c r="U85" s="16"/>
-      <c r="V85" s="16"/>
-      <c r="W85" s="21"/>
+      <c r="T85" s="16">
+        <v>0</v>
+      </c>
+      <c r="U85" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V85" s="11">
+        <v>0</v>
+      </c>
+      <c r="W85" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" ht="101" customHeight="1" spans="2:23">
       <c r="B86" s="10">
         <v>82</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D86" s="17"/>
-      <c r="E86" s="18"/>
+      <c r="E86" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F86" s="16">
         <v>1280</v>
       </c>
@@ -6366,12 +7165,12 @@
         <v>0</v>
       </c>
       <c r="K86" s="16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L86" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="M86" s="19">
+        <v>110</v>
+      </c>
+      <c r="M86" s="18">
         <v>3</v>
       </c>
       <c r="N86" s="14">
@@ -6380,26 +7179,36 @@
       <c r="O86" s="14">
         <v>10</v>
       </c>
-      <c r="P86" s="19"/>
-      <c r="Q86" s="19"/>
-      <c r="R86" s="19"/>
+      <c r="P86" s="18"/>
+      <c r="Q86" s="18"/>
+      <c r="R86" s="18"/>
       <c r="S86" s="16">
         <v>99</v>
       </c>
-      <c r="T86" s="16"/>
-      <c r="U86" s="16"/>
-      <c r="V86" s="16"/>
-      <c r="W86" s="21"/>
+      <c r="T86" s="16">
+        <v>0</v>
+      </c>
+      <c r="U86" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V86" s="11">
+        <v>0</v>
+      </c>
+      <c r="W86" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" ht="101" customHeight="1" spans="2:23">
       <c r="B87" s="10">
         <v>83</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D87" s="17"/>
-      <c r="E87" s="18"/>
+      <c r="E87" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F87" s="16">
         <v>1281</v>
       </c>
@@ -6414,12 +7223,12 @@
         <v>0</v>
       </c>
       <c r="K87" s="16" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L87" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="M87" s="19">
+        <v>128</v>
+      </c>
+      <c r="M87" s="18">
         <v>4</v>
       </c>
       <c r="N87" s="14">
@@ -6428,26 +7237,36 @@
       <c r="O87" s="14">
         <v>10</v>
       </c>
-      <c r="P87" s="19"/>
-      <c r="Q87" s="19"/>
-      <c r="R87" s="19"/>
+      <c r="P87" s="18"/>
+      <c r="Q87" s="18"/>
+      <c r="R87" s="18"/>
       <c r="S87" s="16">
         <v>99</v>
       </c>
-      <c r="T87" s="16"/>
-      <c r="U87" s="16"/>
-      <c r="V87" s="16"/>
-      <c r="W87" s="21"/>
+      <c r="T87" s="16">
+        <v>0</v>
+      </c>
+      <c r="U87" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V87" s="11">
+        <v>0</v>
+      </c>
+      <c r="W87" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" ht="101" customHeight="1" spans="2:23">
       <c r="B88" s="10">
         <v>84</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D88" s="17"/>
-      <c r="E88" s="18"/>
+      <c r="E88" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F88" s="16">
         <v>1282</v>
       </c>
@@ -6462,12 +7281,12 @@
         <v>0</v>
       </c>
       <c r="K88" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="L88" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="M88" s="19">
+        <v>146</v>
+      </c>
+      <c r="M88" s="18">
         <v>5</v>
       </c>
       <c r="N88" s="14">
@@ -6476,26 +7295,36 @@
       <c r="O88" s="14">
         <v>10</v>
       </c>
-      <c r="P88" s="19"/>
-      <c r="Q88" s="19"/>
-      <c r="R88" s="19"/>
+      <c r="P88" s="18"/>
+      <c r="Q88" s="18"/>
+      <c r="R88" s="18"/>
       <c r="S88" s="16">
         <v>99</v>
       </c>
-      <c r="T88" s="16"/>
-      <c r="U88" s="16"/>
-      <c r="V88" s="16"/>
-      <c r="W88" s="21"/>
+      <c r="T88" s="16">
+        <v>0</v>
+      </c>
+      <c r="U88" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V88" s="11">
+        <v>0</v>
+      </c>
+      <c r="W88" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" ht="101" customHeight="1" spans="2:23">
       <c r="B89" s="10">
         <v>85</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D89" s="17"/>
-      <c r="E89" s="18"/>
+      <c r="E89" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F89" s="16">
         <v>1283</v>
       </c>
@@ -6510,12 +7339,12 @@
         <v>0</v>
       </c>
       <c r="K89" s="16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L89" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="M89" s="19">
+        <v>110</v>
+      </c>
+      <c r="M89" s="18">
         <v>3</v>
       </c>
       <c r="N89" s="14">
@@ -6524,26 +7353,36 @@
       <c r="O89" s="14">
         <v>10</v>
       </c>
-      <c r="P89" s="19"/>
-      <c r="Q89" s="19"/>
-      <c r="R89" s="19"/>
+      <c r="P89" s="18"/>
+      <c r="Q89" s="18"/>
+      <c r="R89" s="18"/>
       <c r="S89" s="16">
         <v>99</v>
       </c>
-      <c r="T89" s="16"/>
-      <c r="U89" s="16"/>
-      <c r="V89" s="16"/>
-      <c r="W89" s="21"/>
+      <c r="T89" s="16">
+        <v>0</v>
+      </c>
+      <c r="U89" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V89" s="11">
+        <v>0</v>
+      </c>
+      <c r="W89" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" ht="101" customHeight="1" spans="2:23">
       <c r="B90" s="10">
         <v>86</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D90" s="17"/>
-      <c r="E90" s="18"/>
+      <c r="E90" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F90" s="16">
         <v>1284</v>
       </c>
@@ -6558,12 +7397,12 @@
         <v>0</v>
       </c>
       <c r="K90" s="16" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L90" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="M90" s="19">
+        <v>128</v>
+      </c>
+      <c r="M90" s="18">
         <v>4</v>
       </c>
       <c r="N90" s="14">
@@ -6572,26 +7411,36 @@
       <c r="O90" s="14">
         <v>10</v>
       </c>
-      <c r="P90" s="19"/>
-      <c r="Q90" s="19"/>
-      <c r="R90" s="19"/>
+      <c r="P90" s="18"/>
+      <c r="Q90" s="18"/>
+      <c r="R90" s="18"/>
       <c r="S90" s="16">
         <v>99</v>
       </c>
-      <c r="T90" s="16"/>
-      <c r="U90" s="16"/>
-      <c r="V90" s="16"/>
-      <c r="W90" s="21"/>
+      <c r="T90" s="16">
+        <v>0</v>
+      </c>
+      <c r="U90" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V90" s="11">
+        <v>0</v>
+      </c>
+      <c r="W90" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" ht="101" customHeight="1" spans="2:23">
       <c r="B91" s="10">
         <v>87</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D91" s="17"/>
-      <c r="E91" s="18"/>
+      <c r="E91" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="F91" s="16">
         <v>1285</v>
       </c>
@@ -6606,12 +7455,12 @@
         <v>0</v>
       </c>
       <c r="K91" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="L91" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="M91" s="19">
+        <v>146</v>
+      </c>
+      <c r="M91" s="18">
         <v>5</v>
       </c>
       <c r="N91" s="14">
@@ -6620,26 +7469,36 @@
       <c r="O91" s="14">
         <v>10</v>
       </c>
-      <c r="P91" s="19"/>
-      <c r="Q91" s="19"/>
-      <c r="R91" s="19"/>
+      <c r="P91" s="18"/>
+      <c r="Q91" s="18"/>
+      <c r="R91" s="18"/>
       <c r="S91" s="16">
         <v>99</v>
       </c>
-      <c r="T91" s="16"/>
-      <c r="U91" s="16"/>
-      <c r="V91" s="16"/>
-      <c r="W91" s="21"/>
+      <c r="T91" s="16">
+        <v>0</v>
+      </c>
+      <c r="U91" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="V91" s="11">
+        <v>0</v>
+      </c>
+      <c r="W91" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" ht="101" customHeight="1" spans="2:23">
       <c r="B92" s="10">
         <v>88</v>
       </c>
-      <c r="C92" s="18" t="s">
-        <v>163</v>
+      <c r="C92" s="20" t="s">
+        <v>170</v>
       </c>
       <c r="D92" s="17"/>
-      <c r="E92" s="18"/>
+      <c r="E92" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="F92" s="16">
         <v>1005</v>
       </c>
@@ -6647,15 +7506,21 @@
         <v>10000</v>
       </c>
       <c r="H92" s="16" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="I92" s="16">
         <v>1</v>
       </c>
-      <c r="J92" s="16"/>
-      <c r="K92" s="16"/>
-      <c r="L92" s="16"/>
-      <c r="M92" s="19">
+      <c r="J92" s="16">
+        <v>0</v>
+      </c>
+      <c r="K92" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L92" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="M92" s="18">
         <v>2</v>
       </c>
       <c r="N92" s="14">
@@ -6664,9 +7529,9 @@
       <c r="O92" s="14">
         <v>10</v>
       </c>
-      <c r="P92" s="19"/>
-      <c r="Q92" s="19"/>
-      <c r="R92" s="19"/>
+      <c r="P92" s="18"/>
+      <c r="Q92" s="18"/>
+      <c r="R92" s="18"/>
       <c r="S92" s="16">
         <v>1</v>
       </c>
@@ -6674,20 +7539,26 @@
         <v>1</v>
       </c>
       <c r="U92" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="V92" s="16"/>
-      <c r="W92" s="21"/>
+        <v>75</v>
+      </c>
+      <c r="V92" s="11">
+        <v>0</v>
+      </c>
+      <c r="W92" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" ht="101" customHeight="1" spans="2:23">
       <c r="B93" s="10">
         <v>89</v>
       </c>
-      <c r="C93" s="18" t="s">
-        <v>166</v>
+      <c r="C93" s="20" t="s">
+        <v>173</v>
       </c>
       <c r="D93" s="17"/>
-      <c r="E93" s="18"/>
+      <c r="E93" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="F93" s="16">
         <v>1005</v>
       </c>
@@ -6695,15 +7566,21 @@
         <v>20000</v>
       </c>
       <c r="H93" s="16" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="I93" s="16">
         <v>2</v>
       </c>
-      <c r="J93" s="16"/>
-      <c r="K93" s="16"/>
-      <c r="L93" s="16"/>
-      <c r="M93" s="19">
+      <c r="J93" s="16">
+        <v>0</v>
+      </c>
+      <c r="K93" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L93" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="M93" s="18">
         <v>3</v>
       </c>
       <c r="N93" s="14">
@@ -6712,9 +7589,9 @@
       <c r="O93" s="14">
         <v>10</v>
       </c>
-      <c r="P93" s="19"/>
-      <c r="Q93" s="19"/>
-      <c r="R93" s="19"/>
+      <c r="P93" s="18"/>
+      <c r="Q93" s="18"/>
+      <c r="R93" s="18"/>
       <c r="S93" s="16">
         <v>1</v>
       </c>
@@ -6722,36 +7599,48 @@
         <v>1</v>
       </c>
       <c r="U93" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="V93" s="16"/>
-      <c r="W93" s="21"/>
+        <v>75</v>
+      </c>
+      <c r="V93" s="11">
+        <v>0</v>
+      </c>
+      <c r="W93" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" ht="101" customHeight="1" spans="2:23">
       <c r="B94" s="10">
         <v>90</v>
       </c>
-      <c r="C94" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="D94" s="23"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="24">
+      <c r="C94" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D94" s="22"/>
+      <c r="E94" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F94" s="23">
         <v>1005</v>
       </c>
-      <c r="G94" s="24">
+      <c r="G94" s="23">
         <v>30000</v>
       </c>
-      <c r="H94" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="I94" s="24">
+      <c r="H94" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="I94" s="23">
         <v>2</v>
       </c>
-      <c r="J94" s="24"/>
-      <c r="K94" s="24"/>
-      <c r="L94" s="24"/>
-      <c r="M94" s="25">
+      <c r="J94" s="23">
+        <v>0</v>
+      </c>
+      <c r="K94" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L94" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="M94" s="24">
         <v>4</v>
       </c>
       <c r="N94" s="14">
@@ -6760,20 +7649,24 @@
       <c r="O94" s="14">
         <v>10</v>
       </c>
-      <c r="P94" s="25"/>
-      <c r="Q94" s="25"/>
-      <c r="R94" s="25"/>
-      <c r="S94" s="24">
-        <v>1</v>
-      </c>
-      <c r="T94" s="24">
-        <v>1</v>
-      </c>
-      <c r="U94" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="V94" s="24"/>
-      <c r="W94" s="26"/>
+      <c r="P94" s="24"/>
+      <c r="Q94" s="24"/>
+      <c r="R94" s="24"/>
+      <c r="S94" s="23">
+        <v>1</v>
+      </c>
+      <c r="T94" s="23">
+        <v>1</v>
+      </c>
+      <c r="U94" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="V94" s="11">
+        <v>0</v>
+      </c>
+      <c r="W94" s="19">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H5">

--- a/doc_new/4.服务器配置文档/商城物品列表.xlsx
+++ b/doc_new/4.服务器配置文档/商城物品列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="商城(template_shopping)" sheetId="1" r:id="rId1"/>
@@ -1834,30 +1834,30 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{65375B9A-857C-4D0E-89FA-A6547CE58E96}">
+    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{11A7147A-81D9-4EF0-97C8-E509F524344A}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstColumn" dxfId="1"/>
       <tableStyleElement type="firstRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{4C652CE0-6CF3-4BEC-A946-1715273AD255}">
+    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{FEA3FE5C-8DAD-49F9-8C9A-1707DD35A3CF}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
       <tableStyleElement type="secondColumnStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{8659D3AB-D35D-4B60-A0C2-56E742B6D3D1}">
+    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{15D6A110-9A88-4FAA-8FC3-C961958138E1}">
       <tableStyleElement type="wholeTable" dxfId="10"/>
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{AEF2111C-E8F1-4E84-BC91-D3ED72A569DB}">
+    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{CDD49D21-95BF-42D6-9AB9-6E4C1F6CC0A2}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="firstColumnStripe" dxfId="12"/>
       <tableStyleElement type="secondColumnStripe" dxfId="11"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{EF209206-825F-44A1-865E-2DF204CA7BDE}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{A65AC458-F921-4BE7-95D5-960161C5C048}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="secondRowStripe" dxfId="15"/>
@@ -2161,9 +2161,9 @@
   <dimension ref="A1:X94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:W94"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3150,7 +3150,7 @@
         <v>64</v>
       </c>
       <c r="F17" s="16">
-        <v>10000</v>
+        <v>10001</v>
       </c>
       <c r="G17" s="16">
         <v>1</v>
@@ -3208,7 +3208,7 @@
         <v>64</v>
       </c>
       <c r="F18" s="16">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="G18" s="16">
         <v>1</v>
@@ -3266,7 +3266,7 @@
         <v>64</v>
       </c>
       <c r="F19" s="16">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="G19" s="16">
         <v>1</v>
@@ -3324,7 +3324,7 @@
         <v>64</v>
       </c>
       <c r="F20" s="16">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="G20" s="16">
         <v>1</v>
@@ -3382,7 +3382,7 @@
         <v>64</v>
       </c>
       <c r="F21" s="16">
-        <v>10004</v>
+        <v>10005</v>
       </c>
       <c r="G21" s="16">
         <v>1</v>
@@ -3440,7 +3440,7 @@
         <v>64</v>
       </c>
       <c r="F22" s="16">
-        <v>10005</v>
+        <v>10006</v>
       </c>
       <c r="G22" s="16">
         <v>1</v>
@@ -3498,7 +3498,7 @@
         <v>64</v>
       </c>
       <c r="F23" s="16">
-        <v>10006</v>
+        <v>10007</v>
       </c>
       <c r="G23" s="16">
         <v>1</v>
@@ -3556,7 +3556,7 @@
         <v>64</v>
       </c>
       <c r="F24" s="16">
-        <v>10007</v>
+        <v>10008</v>
       </c>
       <c r="G24" s="16">
         <v>1</v>
@@ -3614,7 +3614,7 @@
         <v>64</v>
       </c>
       <c r="F25" s="16">
-        <v>10008</v>
+        <v>10009</v>
       </c>
       <c r="G25" s="16">
         <v>1</v>
@@ -3672,7 +3672,7 @@
         <v>64</v>
       </c>
       <c r="F26" s="16">
-        <v>10009</v>
+        <v>10010</v>
       </c>
       <c r="G26" s="16">
         <v>1</v>
@@ -3730,7 +3730,7 @@
         <v>64</v>
       </c>
       <c r="F27" s="16">
-        <v>10010</v>
+        <v>10011</v>
       </c>
       <c r="G27" s="16">
         <v>1</v>
@@ -3788,7 +3788,7 @@
         <v>64</v>
       </c>
       <c r="F28" s="16">
-        <v>10011</v>
+        <v>10012</v>
       </c>
       <c r="G28" s="16">
         <v>1</v>
@@ -3846,7 +3846,7 @@
         <v>64</v>
       </c>
       <c r="F29" s="16">
-        <v>10012</v>
+        <v>10013</v>
       </c>
       <c r="G29" s="16">
         <v>1</v>
@@ -3904,7 +3904,7 @@
         <v>64</v>
       </c>
       <c r="F30" s="16">
-        <v>10013</v>
+        <v>10014</v>
       </c>
       <c r="G30" s="16">
         <v>1</v>
@@ -3962,7 +3962,7 @@
         <v>64</v>
       </c>
       <c r="F31" s="16">
-        <v>10014</v>
+        <v>10015</v>
       </c>
       <c r="G31" s="16">
         <v>1</v>
@@ -4020,7 +4020,7 @@
         <v>64</v>
       </c>
       <c r="F32" s="16">
-        <v>10016</v>
+        <v>10017</v>
       </c>
       <c r="G32" s="16">
         <v>1</v>
@@ -4077,8 +4077,8 @@
       <c r="E33" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="18">
-        <v>10017</v>
+      <c r="F33" s="16">
+        <v>10018</v>
       </c>
       <c r="G33" s="16">
         <v>1</v>

--- a/doc_new/4.服务器配置文档/商城物品列表.xlsx
+++ b/doc_new/4.服务器配置文档/商城物品列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="23145" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="商城(template_shopping)" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="179">
   <si>
     <t>字段名称</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>rmb_30</t>
+  </si>
+  <si>
+    <t>3,4,5</t>
   </si>
   <si>
     <t>N_0</t>
@@ -206,7 +209,7 @@
     <t>item_store/默认商品图标1</t>
   </si>
   <si>
-    <t>1001_9800,1201_10</t>
+    <t>1001_9800,1207_10</t>
   </si>
   <si>
     <t>rmb_98</t>
@@ -321,7 +324,7 @@
     <t>1*元素卷轴</t>
   </si>
   <si>
-    <t>1001_600,1005_60000</t>
+    <t>1001_600</t>
   </si>
   <si>
     <t>每日魂石礼包</t>
@@ -573,6 +576,9 @@
     <t>每日登录礼包</t>
   </si>
   <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>1003_1000</t>
   </si>
   <si>
@@ -588,7 +594,7 @@
     <t>每日终身卡礼包</t>
   </si>
   <si>
-    <t>1003_3000,1201_1</t>
+    <t>1003_3000,1207_1</t>
   </si>
 </sst>
 </file>
@@ -2158,12 +2164,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X94"/>
+  <dimension ref="A1:W94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2181,13 +2187,13 @@
     <col min="13" max="14" width="10.8416666666667" style="2" customWidth="1"/>
     <col min="15" max="15" width="12.9333333333333" style="2" customWidth="1"/>
     <col min="16" max="16" width="8.675" style="1" customWidth="1"/>
-    <col min="18" max="20" width="17.8416666666667" style="1" customWidth="1"/>
-    <col min="21" max="21" width="50.625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="31.175" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8.675" style="1" customWidth="1"/>
+    <col min="18" max="19" width="17.8416666666667" style="1" customWidth="1"/>
+    <col min="20" max="20" width="50.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="31.175" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.675" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="41" customHeight="1" spans="1:24">
+    <row r="1" ht="41" customHeight="1" spans="1:23">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2245,21 +2251,20 @@
       <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4"/>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="U1" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" ht="88.5" customHeight="1" spans="1:23">
+    <row r="2" ht="88.5" customHeight="1" spans="1:22">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -2290,16 +2295,15 @@
       <c r="P2" s="6"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="5"/>
-    </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:24">
+      <c r="V2" s="5"/>
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:23">
       <c r="A3" s="7" t="s">
         <v>31</v>
       </c>
@@ -2341,17 +2345,16 @@
         <v>33</v>
       </c>
       <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
+      <c r="T3" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="U3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="V3" s="7"/>
       <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:24">
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="1:23">
       <c r="A4" s="8" t="s">
         <v>34</v>
       </c>
@@ -2393,15 +2396,14 @@
         <v>44</v>
       </c>
       <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
+      <c r="T4" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="U4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="V4" s="8" t="s">
         <v>46</v>
       </c>
+      <c r="V4" s="7"/>
       <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
     </row>
     <row r="5" ht="130" customHeight="1" spans="1:23">
       <c r="A5" s="9"/>
@@ -2439,7 +2441,7 @@
         <v>51</v>
       </c>
       <c r="M5" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5" s="14">
         <v>0</v>
@@ -2448,7 +2450,9 @@
         <v>10</v>
       </c>
       <c r="P5" s="11"/>
-      <c r="Q5" s="14"/>
+      <c r="Q5" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="R5" s="14"/>
       <c r="S5" s="11">
         <v>0</v>
@@ -2457,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V5" s="11">
         <v>0</v>
@@ -2472,13 +2476,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F6" s="18">
         <v>20001</v>
@@ -2487,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I6" s="16">
         <v>0</v>
@@ -2496,10 +2500,10 @@
         <v>1</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M6" s="18">
         <v>5</v>
@@ -2511,7 +2515,9 @@
         <v>10</v>
       </c>
       <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
+      <c r="Q6" s="14">
+        <v>3</v>
+      </c>
       <c r="R6" s="18"/>
       <c r="S6" s="16">
         <v>1</v>
@@ -2520,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="U6" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V6" s="11">
         <v>0</v>
@@ -2535,13 +2541,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F7" s="18">
         <v>20003</v>
@@ -2557,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M7" s="18">
         <v>5</v>
@@ -2572,7 +2578,9 @@
         <v>10</v>
       </c>
       <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
+      <c r="Q7" s="14">
+        <v>3</v>
+      </c>
       <c r="R7" s="18"/>
       <c r="S7" s="16">
         <v>1</v>
@@ -2581,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="U7" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V7" s="11">
         <v>0</v>
@@ -2595,13 +2603,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F8" s="18">
         <v>20004</v>
@@ -2617,10 +2625,10 @@
         <v>1</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M8" s="18">
         <v>5</v>
@@ -2632,7 +2640,9 @@
         <v>10</v>
       </c>
       <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
+      <c r="Q8" s="14">
+        <v>3</v>
+      </c>
       <c r="R8" s="18"/>
       <c r="S8" s="16">
         <v>1</v>
@@ -2641,7 +2651,7 @@
         <v>1</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V8" s="11">
         <v>0</v>
@@ -2655,10 +2665,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>49</v>
@@ -2677,10 +2687,10 @@
         <v>1</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M9" s="18">
         <v>5</v>
@@ -2692,7 +2702,9 @@
         <v>10</v>
       </c>
       <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
+      <c r="Q9" s="14">
+        <v>3</v>
+      </c>
       <c r="R9" s="18"/>
       <c r="S9" s="16">
         <v>1</v>
@@ -2701,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V9" s="11">
         <v>0</v>
@@ -2715,16 +2727,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" s="18">
-        <v>1201</v>
+        <v>1207</v>
       </c>
       <c r="G10" s="16">
         <v>200</v>
@@ -2737,10 +2749,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M10" s="18">
         <v>5</v>
@@ -2752,7 +2764,9 @@
         <v>10</v>
       </c>
       <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
+      <c r="Q10" s="14">
+        <v>3</v>
+      </c>
       <c r="R10" s="18"/>
       <c r="S10" s="16">
         <v>1</v>
@@ -2761,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="U10" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V10" s="11">
         <v>0</v>
@@ -2775,13 +2789,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F11" s="18">
         <v>3501</v>
@@ -2790,7 +2804,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I11" s="16">
         <v>0</v>
@@ -2799,10 +2813,10 @@
         <v>0</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="18">
         <v>3</v>
@@ -2814,7 +2828,9 @@
         <v>10</v>
       </c>
       <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
+      <c r="Q11" s="14">
+        <v>3</v>
+      </c>
       <c r="R11" s="18"/>
       <c r="S11" s="16">
         <v>3</v>
@@ -2823,7 +2839,7 @@
         <v>3</v>
       </c>
       <c r="U11" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V11" s="11">
         <v>0</v>
@@ -2837,13 +2853,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" s="18">
         <v>3501</v>
@@ -2852,7 +2868,7 @@
         <v>20</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I12" s="16">
         <v>0</v>
@@ -2861,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M12" s="18">
         <v>4</v>
@@ -2876,7 +2892,9 @@
         <v>10</v>
       </c>
       <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
+      <c r="Q12" s="14">
+        <v>3</v>
+      </c>
       <c r="R12" s="18"/>
       <c r="S12" s="16">
         <v>3</v>
@@ -2885,7 +2903,7 @@
         <v>3</v>
       </c>
       <c r="U12" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V12" s="11">
         <v>0</v>
@@ -2899,10 +2917,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>49</v>
@@ -2914,7 +2932,7 @@
         <v>50</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I13" s="16">
         <v>0</v>
@@ -2923,10 +2941,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M13" s="18">
         <v>5</v>
@@ -2938,7 +2956,9 @@
         <v>10</v>
       </c>
       <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
+      <c r="Q13" s="14">
+        <v>3</v>
+      </c>
       <c r="R13" s="18"/>
       <c r="S13" s="16">
         <v>3</v>
@@ -2947,7 +2967,7 @@
         <v>3</v>
       </c>
       <c r="U13" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V13" s="11">
         <v>0</v>
@@ -2961,16 +2981,16 @@
         <v>10</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14" s="18">
-        <v>1201</v>
+        <v>1207</v>
       </c>
       <c r="G14" s="16">
         <v>10</v>
@@ -2998,7 +3018,9 @@
         <v>10</v>
       </c>
       <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
+      <c r="Q14" s="14">
+        <v>3</v>
+      </c>
       <c r="R14" s="18"/>
       <c r="S14" s="16">
         <v>1</v>
@@ -3007,7 +3029,7 @@
         <v>1</v>
       </c>
       <c r="U14" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V14" s="11">
         <v>0</v>
@@ -3021,16 +3043,16 @@
         <v>11</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F15" s="18">
-        <v>1201</v>
+        <v>1207</v>
       </c>
       <c r="G15" s="16">
         <v>1</v>
@@ -3043,10 +3065,10 @@
         <v>0</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M15" s="18">
         <v>2</v>
@@ -3058,7 +3080,9 @@
         <v>10</v>
       </c>
       <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
+      <c r="Q15" s="14">
+        <v>3</v>
+      </c>
       <c r="R15" s="18"/>
       <c r="S15" s="16">
         <v>99</v>
@@ -3067,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V15" s="11">
         <v>0</v>
@@ -3081,13 +3105,13 @@
         <v>12</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F16" s="18">
         <v>1287</v>
@@ -3103,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M16" s="18">
         <v>5</v>
@@ -3118,7 +3142,9 @@
         <v>10</v>
       </c>
       <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
+      <c r="Q16" s="14">
+        <v>3</v>
+      </c>
       <c r="R16" s="18"/>
       <c r="S16" s="16">
         <v>1</v>
@@ -3127,7 +3153,7 @@
         <v>1</v>
       </c>
       <c r="U16" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V16" s="11">
         <v>0</v>
@@ -3141,13 +3167,13 @@
         <v>13</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F17" s="16">
         <v>10001</v>
@@ -3163,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M17" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" s="14">
         <v>0</v>
@@ -3178,7 +3204,9 @@
         <v>10</v>
       </c>
       <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
+      <c r="Q17" s="14">
+        <v>3</v>
+      </c>
       <c r="R17" s="18"/>
       <c r="S17" s="16">
         <v>99</v>
@@ -3187,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V17" s="11">
         <v>0</v>
@@ -3201,11 +3229,11 @@
         <v>14</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F18" s="16">
         <v>10002</v>
@@ -3221,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M18" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18" s="14">
         <v>0</v>
@@ -3236,7 +3264,9 @@
         <v>10</v>
       </c>
       <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
+      <c r="Q18" s="14">
+        <v>3</v>
+      </c>
       <c r="R18" s="18"/>
       <c r="S18" s="16">
         <v>99</v>
@@ -3245,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V18" s="11">
         <v>0</v>
@@ -3259,11 +3289,11 @@
         <v>15</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F19" s="16">
         <v>10003</v>
@@ -3279,13 +3309,13 @@
         <v>0</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M19" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" s="14">
         <v>0</v>
@@ -3294,7 +3324,9 @@
         <v>10</v>
       </c>
       <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
+      <c r="Q19" s="14">
+        <v>3</v>
+      </c>
       <c r="R19" s="18"/>
       <c r="S19" s="16">
         <v>99</v>
@@ -3303,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V19" s="11">
         <v>0</v>
@@ -3317,11 +3349,11 @@
         <v>16</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F20" s="16">
         <v>10004</v>
@@ -3337,13 +3369,13 @@
         <v>0</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M20" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" s="14">
         <v>0</v>
@@ -3352,7 +3384,9 @@
         <v>10</v>
       </c>
       <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
+      <c r="Q20" s="14">
+        <v>3</v>
+      </c>
       <c r="R20" s="18"/>
       <c r="S20" s="16">
         <v>99</v>
@@ -3361,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V20" s="11">
         <v>0</v>
@@ -3375,11 +3409,11 @@
         <v>17</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F21" s="16">
         <v>10005</v>
@@ -3395,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M21" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N21" s="14">
         <v>0</v>
@@ -3410,7 +3444,9 @@
         <v>10</v>
       </c>
       <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
+      <c r="Q21" s="14">
+        <v>3</v>
+      </c>
       <c r="R21" s="18"/>
       <c r="S21" s="16">
         <v>99</v>
@@ -3419,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="U21" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V21" s="11">
         <v>0</v>
@@ -3433,11 +3469,11 @@
         <v>18</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F22" s="16">
         <v>10006</v>
@@ -3453,13 +3489,13 @@
         <v>0</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M22" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22" s="14">
         <v>0</v>
@@ -3468,7 +3504,9 @@
         <v>10</v>
       </c>
       <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
+      <c r="Q22" s="14">
+        <v>3</v>
+      </c>
       <c r="R22" s="18"/>
       <c r="S22" s="16">
         <v>99</v>
@@ -3477,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V22" s="11">
         <v>0</v>
@@ -3491,11 +3529,11 @@
         <v>19</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F23" s="16">
         <v>10007</v>
@@ -3511,13 +3549,13 @@
         <v>0</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M23" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23" s="14">
         <v>0</v>
@@ -3526,7 +3564,9 @@
         <v>10</v>
       </c>
       <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
+      <c r="Q23" s="14">
+        <v>3</v>
+      </c>
       <c r="R23" s="18"/>
       <c r="S23" s="16">
         <v>99</v>
@@ -3535,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V23" s="11">
         <v>0</v>
@@ -3549,11 +3589,11 @@
         <v>20</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F24" s="16">
         <v>10008</v>
@@ -3569,13 +3609,13 @@
         <v>0</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M24" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24" s="14">
         <v>0</v>
@@ -3584,7 +3624,9 @@
         <v>10</v>
       </c>
       <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
+      <c r="Q24" s="14">
+        <v>3</v>
+      </c>
       <c r="R24" s="18"/>
       <c r="S24" s="16">
         <v>99</v>
@@ -3593,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V24" s="11">
         <v>0</v>
@@ -3607,11 +3649,11 @@
         <v>21</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F25" s="16">
         <v>10009</v>
@@ -3627,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M25" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25" s="14">
         <v>0</v>
@@ -3642,7 +3684,9 @@
         <v>10</v>
       </c>
       <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
+      <c r="Q25" s="14">
+        <v>3</v>
+      </c>
       <c r="R25" s="18"/>
       <c r="S25" s="16">
         <v>99</v>
@@ -3651,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="U25" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V25" s="11">
         <v>0</v>
@@ -3665,11 +3709,11 @@
         <v>22</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F26" s="16">
         <v>10010</v>
@@ -3685,13 +3729,13 @@
         <v>0</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M26" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N26" s="14">
         <v>0</v>
@@ -3700,7 +3744,9 @@
         <v>10</v>
       </c>
       <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
+      <c r="Q26" s="14">
+        <v>3</v>
+      </c>
       <c r="R26" s="18"/>
       <c r="S26" s="16">
         <v>99</v>
@@ -3709,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="U26" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V26" s="11">
         <v>0</v>
@@ -3723,11 +3769,11 @@
         <v>23</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" s="16">
         <v>10011</v>
@@ -3743,13 +3789,13 @@
         <v>0</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M27" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N27" s="14">
         <v>0</v>
@@ -3758,7 +3804,9 @@
         <v>10</v>
       </c>
       <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
+      <c r="Q27" s="14">
+        <v>3</v>
+      </c>
       <c r="R27" s="18"/>
       <c r="S27" s="16">
         <v>99</v>
@@ -3767,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V27" s="11">
         <v>0</v>
@@ -3781,11 +3829,11 @@
         <v>24</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F28" s="16">
         <v>10012</v>
@@ -3801,13 +3849,13 @@
         <v>0</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M28" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N28" s="14">
         <v>0</v>
@@ -3816,7 +3864,9 @@
         <v>10</v>
       </c>
       <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
+      <c r="Q28" s="14">
+        <v>3</v>
+      </c>
       <c r="R28" s="18"/>
       <c r="S28" s="16">
         <v>99</v>
@@ -3825,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V28" s="11">
         <v>0</v>
@@ -3839,11 +3889,11 @@
         <v>25</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F29" s="16">
         <v>10013</v>
@@ -3859,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M29" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N29" s="14">
         <v>0</v>
@@ -3874,7 +3924,9 @@
         <v>10</v>
       </c>
       <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
+      <c r="Q29" s="14">
+        <v>3</v>
+      </c>
       <c r="R29" s="18"/>
       <c r="S29" s="16">
         <v>99</v>
@@ -3883,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V29" s="11">
         <v>0</v>
@@ -3897,11 +3949,11 @@
         <v>26</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F30" s="16">
         <v>10014</v>
@@ -3917,13 +3969,13 @@
         <v>0</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M30" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N30" s="14">
         <v>0</v>
@@ -3932,7 +3984,9 @@
         <v>10</v>
       </c>
       <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
+      <c r="Q30" s="14">
+        <v>3</v>
+      </c>
       <c r="R30" s="18"/>
       <c r="S30" s="16">
         <v>99</v>
@@ -3941,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V30" s="11">
         <v>0</v>
@@ -3955,11 +4009,11 @@
         <v>27</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F31" s="16">
         <v>10015</v>
@@ -3975,13 +4029,13 @@
         <v>0</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M31" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N31" s="14">
         <v>0</v>
@@ -3990,7 +4044,9 @@
         <v>10</v>
       </c>
       <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
+      <c r="Q31" s="14">
+        <v>3</v>
+      </c>
       <c r="R31" s="18"/>
       <c r="S31" s="16">
         <v>99</v>
@@ -3999,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="U31" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V31" s="11">
         <v>0</v>
@@ -4013,11 +4069,11 @@
         <v>28</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F32" s="16">
         <v>10017</v>
@@ -4033,13 +4089,13 @@
         <v>0</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M32" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N32" s="14">
         <v>0</v>
@@ -4048,7 +4104,9 @@
         <v>10</v>
       </c>
       <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
+      <c r="Q32" s="14">
+        <v>3</v>
+      </c>
       <c r="R32" s="18"/>
       <c r="S32" s="16">
         <v>99</v>
@@ -4057,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V32" s="11">
         <v>0</v>
@@ -4071,11 +4129,11 @@
         <v>29</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F33" s="16">
         <v>10018</v>
@@ -4091,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M33" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N33" s="14">
         <v>0</v>
@@ -4106,7 +4164,9 @@
         <v>10</v>
       </c>
       <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
+      <c r="Q33" s="14">
+        <v>3</v>
+      </c>
       <c r="R33" s="18"/>
       <c r="S33" s="16">
         <v>99</v>
@@ -4115,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="U33" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V33" s="11">
         <v>0</v>
@@ -4129,11 +4189,11 @@
         <v>30</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F34" s="16">
         <v>10101</v>
@@ -4149,13 +4209,13 @@
         <v>0</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L34" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M34" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N34" s="14">
         <v>0</v>
@@ -4164,7 +4224,9 @@
         <v>10</v>
       </c>
       <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
+      <c r="Q34" s="14">
+        <v>3</v>
+      </c>
       <c r="R34" s="18"/>
       <c r="S34" s="16">
         <v>99</v>
@@ -4173,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V34" s="11">
         <v>0</v>
@@ -4187,11 +4249,11 @@
         <v>31</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F35" s="16">
         <v>10102</v>
@@ -4207,13 +4269,13 @@
         <v>0</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M35" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N35" s="14">
         <v>0</v>
@@ -4222,7 +4284,9 @@
         <v>10</v>
       </c>
       <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
+      <c r="Q35" s="14">
+        <v>3</v>
+      </c>
       <c r="R35" s="18"/>
       <c r="S35" s="16">
         <v>99</v>
@@ -4231,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V35" s="11">
         <v>0</v>
@@ -4245,11 +4309,11 @@
         <v>32</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F36" s="16">
         <v>10103</v>
@@ -4265,13 +4329,13 @@
         <v>0</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M36" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N36" s="14">
         <v>0</v>
@@ -4280,7 +4344,9 @@
         <v>10</v>
       </c>
       <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
+      <c r="Q36" s="14">
+        <v>3</v>
+      </c>
       <c r="R36" s="18"/>
       <c r="S36" s="16">
         <v>99</v>
@@ -4289,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="U36" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V36" s="11">
         <v>0</v>
@@ -4303,11 +4369,11 @@
         <v>33</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F37" s="16">
         <v>10104</v>
@@ -4323,13 +4389,13 @@
         <v>0</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M37" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N37" s="14">
         <v>0</v>
@@ -4338,7 +4404,9 @@
         <v>10</v>
       </c>
       <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
+      <c r="Q37" s="14">
+        <v>3</v>
+      </c>
       <c r="R37" s="18"/>
       <c r="S37" s="16">
         <v>99</v>
@@ -4347,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="U37" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V37" s="11">
         <v>0</v>
@@ -4361,11 +4429,11 @@
         <v>34</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F38" s="16">
         <v>10105</v>
@@ -4381,13 +4449,13 @@
         <v>0</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L38" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M38" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N38" s="14">
         <v>0</v>
@@ -4396,7 +4464,9 @@
         <v>10</v>
       </c>
       <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
+      <c r="Q38" s="14">
+        <v>3</v>
+      </c>
       <c r="R38" s="18"/>
       <c r="S38" s="16">
         <v>99</v>
@@ -4405,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="U38" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V38" s="11">
         <v>0</v>
@@ -4419,11 +4489,11 @@
         <v>35</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F39" s="16">
         <v>10106</v>
@@ -4439,13 +4509,13 @@
         <v>0</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M39" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N39" s="14">
         <v>0</v>
@@ -4454,7 +4524,9 @@
         <v>10</v>
       </c>
       <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
+      <c r="Q39" s="14">
+        <v>3</v>
+      </c>
       <c r="R39" s="18"/>
       <c r="S39" s="16">
         <v>99</v>
@@ -4463,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V39" s="11">
         <v>0</v>
@@ -4477,11 +4549,11 @@
         <v>36</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F40" s="16">
         <v>10107</v>
@@ -4497,13 +4569,13 @@
         <v>0</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L40" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M40" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N40" s="14">
         <v>0</v>
@@ -4512,7 +4584,9 @@
         <v>10</v>
       </c>
       <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
+      <c r="Q40" s="14">
+        <v>3</v>
+      </c>
       <c r="R40" s="18"/>
       <c r="S40" s="16">
         <v>99</v>
@@ -4521,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="U40" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V40" s="11">
         <v>0</v>
@@ -4535,11 +4609,11 @@
         <v>37</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F41" s="16">
         <v>10108</v>
@@ -4555,13 +4629,13 @@
         <v>0</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L41" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M41" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N41" s="14">
         <v>0</v>
@@ -4570,7 +4644,9 @@
         <v>10</v>
       </c>
       <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
+      <c r="Q41" s="14">
+        <v>3</v>
+      </c>
       <c r="R41" s="18"/>
       <c r="S41" s="16">
         <v>99</v>
@@ -4579,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="U41" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V41" s="11">
         <v>0</v>
@@ -4593,11 +4669,11 @@
         <v>38</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F42" s="16">
         <v>10109</v>
@@ -4613,13 +4689,13 @@
         <v>0</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L42" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M42" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N42" s="14">
         <v>0</v>
@@ -4628,7 +4704,9 @@
         <v>10</v>
       </c>
       <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
+      <c r="Q42" s="14">
+        <v>3</v>
+      </c>
       <c r="R42" s="18"/>
       <c r="S42" s="16">
         <v>99</v>
@@ -4637,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="U42" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V42" s="11">
         <v>0</v>
@@ -4651,11 +4729,11 @@
         <v>39</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F43" s="16">
         <v>10110</v>
@@ -4671,13 +4749,13 @@
         <v>0</v>
       </c>
       <c r="K43" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L43" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M43" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N43" s="14">
         <v>0</v>
@@ -4686,7 +4764,9 @@
         <v>10</v>
       </c>
       <c r="P43" s="18"/>
-      <c r="Q43" s="18"/>
+      <c r="Q43" s="14">
+        <v>3</v>
+      </c>
       <c r="R43" s="18"/>
       <c r="S43" s="16">
         <v>99</v>
@@ -4695,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="U43" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V43" s="11">
         <v>0</v>
@@ -4709,11 +4789,11 @@
         <v>40</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F44" s="16">
         <v>10111</v>
@@ -4729,13 +4809,13 @@
         <v>0</v>
       </c>
       <c r="K44" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L44" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M44" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N44" s="14">
         <v>0</v>
@@ -4744,7 +4824,9 @@
         <v>10</v>
       </c>
       <c r="P44" s="18"/>
-      <c r="Q44" s="18"/>
+      <c r="Q44" s="14">
+        <v>3</v>
+      </c>
       <c r="R44" s="18"/>
       <c r="S44" s="16">
         <v>99</v>
@@ -4753,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="U44" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V44" s="11">
         <v>0</v>
@@ -4767,11 +4849,11 @@
         <v>41</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F45" s="16">
         <v>10112</v>
@@ -4787,13 +4869,13 @@
         <v>0</v>
       </c>
       <c r="K45" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L45" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M45" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N45" s="14">
         <v>0</v>
@@ -4802,7 +4884,9 @@
         <v>10</v>
       </c>
       <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
+      <c r="Q45" s="14">
+        <v>3</v>
+      </c>
       <c r="R45" s="18"/>
       <c r="S45" s="16">
         <v>99</v>
@@ -4811,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="U45" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V45" s="11">
         <v>0</v>
@@ -4825,11 +4909,11 @@
         <v>42</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F46" s="16">
         <v>10113</v>
@@ -4845,13 +4929,13 @@
         <v>0</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L46" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M46" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N46" s="14">
         <v>0</v>
@@ -4860,7 +4944,9 @@
         <v>10</v>
       </c>
       <c r="P46" s="18"/>
-      <c r="Q46" s="18"/>
+      <c r="Q46" s="14">
+        <v>3</v>
+      </c>
       <c r="R46" s="18"/>
       <c r="S46" s="16">
         <v>99</v>
@@ -4869,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="U46" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V46" s="11">
         <v>0</v>
@@ -4883,11 +4969,11 @@
         <v>43</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F47" s="16">
         <v>10114</v>
@@ -4903,13 +4989,13 @@
         <v>0</v>
       </c>
       <c r="K47" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M47" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N47" s="14">
         <v>0</v>
@@ -4918,7 +5004,9 @@
         <v>10</v>
       </c>
       <c r="P47" s="18"/>
-      <c r="Q47" s="18"/>
+      <c r="Q47" s="14">
+        <v>3</v>
+      </c>
       <c r="R47" s="18"/>
       <c r="S47" s="16">
         <v>99</v>
@@ -4927,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="U47" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V47" s="11">
         <v>0</v>
@@ -4941,11 +5029,11 @@
         <v>44</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F48" s="16">
         <v>10115</v>
@@ -4961,13 +5049,13 @@
         <v>0</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L48" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M48" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N48" s="14">
         <v>0</v>
@@ -4976,7 +5064,9 @@
         <v>10</v>
       </c>
       <c r="P48" s="18"/>
-      <c r="Q48" s="18"/>
+      <c r="Q48" s="14">
+        <v>3</v>
+      </c>
       <c r="R48" s="18"/>
       <c r="S48" s="16">
         <v>99</v>
@@ -4985,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="U48" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V48" s="11">
         <v>0</v>
@@ -4999,11 +5089,11 @@
         <v>45</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F49" s="16">
         <v>10117</v>
@@ -5019,13 +5109,13 @@
         <v>0</v>
       </c>
       <c r="K49" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L49" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M49" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N49" s="14">
         <v>0</v>
@@ -5034,7 +5124,9 @@
         <v>10</v>
       </c>
       <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
+      <c r="Q49" s="14">
+        <v>3</v>
+      </c>
       <c r="R49" s="18"/>
       <c r="S49" s="16">
         <v>99</v>
@@ -5043,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="U49" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V49" s="11">
         <v>0</v>
@@ -5057,11 +5149,11 @@
         <v>46</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F50" s="16">
         <v>10118</v>
@@ -5077,13 +5169,13 @@
         <v>0</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L50" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M50" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N50" s="14">
         <v>0</v>
@@ -5092,7 +5184,9 @@
         <v>10</v>
       </c>
       <c r="P50" s="18"/>
-      <c r="Q50" s="18"/>
+      <c r="Q50" s="14">
+        <v>3</v>
+      </c>
       <c r="R50" s="18"/>
       <c r="S50" s="16">
         <v>99</v>
@@ -5101,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="U50" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V50" s="11">
         <v>0</v>
@@ -5115,11 +5209,11 @@
         <v>47</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F51" s="16">
         <v>10201</v>
@@ -5135,13 +5229,13 @@
         <v>0</v>
       </c>
       <c r="K51" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L51" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M51" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N51" s="14">
         <v>0</v>
@@ -5150,7 +5244,9 @@
         <v>10</v>
       </c>
       <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
+      <c r="Q51" s="14">
+        <v>3</v>
+      </c>
       <c r="R51" s="18"/>
       <c r="S51" s="16">
         <v>99</v>
@@ -5159,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="U51" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V51" s="11">
         <v>0</v>
@@ -5173,11 +5269,11 @@
         <v>48</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F52" s="16">
         <v>10202</v>
@@ -5193,13 +5289,13 @@
         <v>0</v>
       </c>
       <c r="K52" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L52" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M52" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N52" s="14">
         <v>0</v>
@@ -5208,7 +5304,9 @@
         <v>10</v>
       </c>
       <c r="P52" s="18"/>
-      <c r="Q52" s="18"/>
+      <c r="Q52" s="14">
+        <v>3</v>
+      </c>
       <c r="R52" s="18"/>
       <c r="S52" s="16">
         <v>99</v>
@@ -5217,7 +5315,7 @@
         <v>0</v>
       </c>
       <c r="U52" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V52" s="11">
         <v>0</v>
@@ -5231,11 +5329,11 @@
         <v>49</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F53" s="16">
         <v>10203</v>
@@ -5251,13 +5349,13 @@
         <v>0</v>
       </c>
       <c r="K53" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L53" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M53" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N53" s="14">
         <v>0</v>
@@ -5266,7 +5364,9 @@
         <v>10</v>
       </c>
       <c r="P53" s="18"/>
-      <c r="Q53" s="18"/>
+      <c r="Q53" s="14">
+        <v>3</v>
+      </c>
       <c r="R53" s="18"/>
       <c r="S53" s="16">
         <v>99</v>
@@ -5275,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="U53" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V53" s="11">
         <v>0</v>
@@ -5289,11 +5389,11 @@
         <v>50</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F54" s="16">
         <v>10204</v>
@@ -5309,13 +5409,13 @@
         <v>0</v>
       </c>
       <c r="K54" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L54" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M54" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N54" s="14">
         <v>0</v>
@@ -5324,7 +5424,9 @@
         <v>10</v>
       </c>
       <c r="P54" s="18"/>
-      <c r="Q54" s="18"/>
+      <c r="Q54" s="14">
+        <v>3</v>
+      </c>
       <c r="R54" s="18"/>
       <c r="S54" s="16">
         <v>99</v>
@@ -5333,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V54" s="11">
         <v>0</v>
@@ -5347,11 +5449,11 @@
         <v>51</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F55" s="16">
         <v>10205</v>
@@ -5367,13 +5469,13 @@
         <v>0</v>
       </c>
       <c r="K55" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L55" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M55" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N55" s="14">
         <v>0</v>
@@ -5382,7 +5484,9 @@
         <v>10</v>
       </c>
       <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
+      <c r="Q55" s="14">
+        <v>3</v>
+      </c>
       <c r="R55" s="18"/>
       <c r="S55" s="16">
         <v>99</v>
@@ -5391,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="U55" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V55" s="11">
         <v>0</v>
@@ -5405,11 +5509,11 @@
         <v>52</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F56" s="16">
         <v>10206</v>
@@ -5425,13 +5529,13 @@
         <v>0</v>
       </c>
       <c r="K56" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L56" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M56" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N56" s="14">
         <v>0</v>
@@ -5440,7 +5544,9 @@
         <v>10</v>
       </c>
       <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
+      <c r="Q56" s="14">
+        <v>3</v>
+      </c>
       <c r="R56" s="18"/>
       <c r="S56" s="16">
         <v>99</v>
@@ -5449,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="U56" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V56" s="11">
         <v>0</v>
@@ -5463,11 +5569,11 @@
         <v>53</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F57" s="16">
         <v>10207</v>
@@ -5483,13 +5589,13 @@
         <v>0</v>
       </c>
       <c r="K57" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L57" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M57" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N57" s="14">
         <v>0</v>
@@ -5498,7 +5604,9 @@
         <v>10</v>
       </c>
       <c r="P57" s="18"/>
-      <c r="Q57" s="18"/>
+      <c r="Q57" s="14">
+        <v>3</v>
+      </c>
       <c r="R57" s="18"/>
       <c r="S57" s="16">
         <v>99</v>
@@ -5507,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="U57" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V57" s="11">
         <v>0</v>
@@ -5521,11 +5629,11 @@
         <v>54</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D58" s="17"/>
       <c r="E58" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F58" s="16">
         <v>10208</v>
@@ -5541,13 +5649,13 @@
         <v>0</v>
       </c>
       <c r="K58" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L58" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M58" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N58" s="14">
         <v>0</v>
@@ -5556,7 +5664,9 @@
         <v>10</v>
       </c>
       <c r="P58" s="18"/>
-      <c r="Q58" s="18"/>
+      <c r="Q58" s="14">
+        <v>3</v>
+      </c>
       <c r="R58" s="18"/>
       <c r="S58" s="16">
         <v>99</v>
@@ -5565,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="U58" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V58" s="11">
         <v>0</v>
@@ -5579,11 +5689,11 @@
         <v>55</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F59" s="16">
         <v>10209</v>
@@ -5599,13 +5709,13 @@
         <v>0</v>
       </c>
       <c r="K59" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L59" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M59" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N59" s="14">
         <v>0</v>
@@ -5614,7 +5724,9 @@
         <v>10</v>
       </c>
       <c r="P59" s="18"/>
-      <c r="Q59" s="18"/>
+      <c r="Q59" s="14">
+        <v>3</v>
+      </c>
       <c r="R59" s="18"/>
       <c r="S59" s="16">
         <v>99</v>
@@ -5623,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="U59" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V59" s="11">
         <v>0</v>
@@ -5637,11 +5749,11 @@
         <v>56</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F60" s="16">
         <v>10210</v>
@@ -5657,13 +5769,13 @@
         <v>0</v>
       </c>
       <c r="K60" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L60" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M60" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N60" s="14">
         <v>0</v>
@@ -5672,7 +5784,9 @@
         <v>10</v>
       </c>
       <c r="P60" s="18"/>
-      <c r="Q60" s="18"/>
+      <c r="Q60" s="14">
+        <v>3</v>
+      </c>
       <c r="R60" s="18"/>
       <c r="S60" s="16">
         <v>99</v>
@@ -5681,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="U60" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V60" s="11">
         <v>0</v>
@@ -5695,11 +5809,11 @@
         <v>57</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F61" s="16">
         <v>10211</v>
@@ -5715,13 +5829,13 @@
         <v>0</v>
       </c>
       <c r="K61" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L61" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M61" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N61" s="14">
         <v>0</v>
@@ -5730,7 +5844,9 @@
         <v>10</v>
       </c>
       <c r="P61" s="18"/>
-      <c r="Q61" s="18"/>
+      <c r="Q61" s="14">
+        <v>3</v>
+      </c>
       <c r="R61" s="18"/>
       <c r="S61" s="16">
         <v>99</v>
@@ -5739,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V61" s="11">
         <v>0</v>
@@ -5753,11 +5869,11 @@
         <v>58</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F62" s="16">
         <v>10212</v>
@@ -5773,13 +5889,13 @@
         <v>0</v>
       </c>
       <c r="K62" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L62" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M62" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N62" s="14">
         <v>0</v>
@@ -5788,7 +5904,9 @@
         <v>10</v>
       </c>
       <c r="P62" s="18"/>
-      <c r="Q62" s="18"/>
+      <c r="Q62" s="14">
+        <v>3</v>
+      </c>
       <c r="R62" s="18"/>
       <c r="S62" s="16">
         <v>99</v>
@@ -5797,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="U62" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V62" s="11">
         <v>0</v>
@@ -5811,11 +5929,11 @@
         <v>59</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F63" s="16">
         <v>10213</v>
@@ -5831,13 +5949,13 @@
         <v>0</v>
       </c>
       <c r="K63" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L63" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M63" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N63" s="14">
         <v>0</v>
@@ -5846,7 +5964,9 @@
         <v>10</v>
       </c>
       <c r="P63" s="18"/>
-      <c r="Q63" s="18"/>
+      <c r="Q63" s="14">
+        <v>3</v>
+      </c>
       <c r="R63" s="18"/>
       <c r="S63" s="16">
         <v>99</v>
@@ -5855,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="U63" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V63" s="11">
         <v>0</v>
@@ -5869,11 +5989,11 @@
         <v>60</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F64" s="16">
         <v>10214</v>
@@ -5889,13 +6009,13 @@
         <v>0</v>
       </c>
       <c r="K64" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L64" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M64" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N64" s="14">
         <v>0</v>
@@ -5904,7 +6024,9 @@
         <v>10</v>
       </c>
       <c r="P64" s="18"/>
-      <c r="Q64" s="18"/>
+      <c r="Q64" s="14">
+        <v>3</v>
+      </c>
       <c r="R64" s="18"/>
       <c r="S64" s="16">
         <v>99</v>
@@ -5913,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="U64" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V64" s="11">
         <v>0</v>
@@ -5927,11 +6049,11 @@
         <v>61</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F65" s="16">
         <v>10215</v>
@@ -5947,13 +6069,13 @@
         <v>0</v>
       </c>
       <c r="K65" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L65" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M65" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N65" s="14">
         <v>0</v>
@@ -5962,7 +6084,9 @@
         <v>10</v>
       </c>
       <c r="P65" s="18"/>
-      <c r="Q65" s="18"/>
+      <c r="Q65" s="14">
+        <v>3</v>
+      </c>
       <c r="R65" s="18"/>
       <c r="S65" s="16">
         <v>99</v>
@@ -5971,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="U65" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V65" s="11">
         <v>0</v>
@@ -5985,11 +6109,11 @@
         <v>62</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F66" s="16">
         <v>10217</v>
@@ -6005,13 +6129,13 @@
         <v>0</v>
       </c>
       <c r="K66" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L66" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M66" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N66" s="14">
         <v>0</v>
@@ -6020,7 +6144,9 @@
         <v>10</v>
       </c>
       <c r="P66" s="18"/>
-      <c r="Q66" s="18"/>
+      <c r="Q66" s="14">
+        <v>3</v>
+      </c>
       <c r="R66" s="18"/>
       <c r="S66" s="16">
         <v>99</v>
@@ -6029,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="U66" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V66" s="11">
         <v>0</v>
@@ -6043,11 +6169,11 @@
         <v>63</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F67" s="16">
         <v>10218</v>
@@ -6063,13 +6189,13 @@
         <v>0</v>
       </c>
       <c r="K67" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L67" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M67" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N67" s="14">
         <v>0</v>
@@ -6078,7 +6204,9 @@
         <v>10</v>
       </c>
       <c r="P67" s="18"/>
-      <c r="Q67" s="18"/>
+      <c r="Q67" s="14">
+        <v>3</v>
+      </c>
       <c r="R67" s="18"/>
       <c r="S67" s="16">
         <v>99</v>
@@ -6087,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="U67" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V67" s="11">
         <v>0</v>
@@ -6101,11 +6229,11 @@
         <v>64</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D68" s="17"/>
       <c r="E68" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F68" s="16">
         <v>10301</v>
@@ -6121,13 +6249,13 @@
         <v>0</v>
       </c>
       <c r="K68" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L68" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M68" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N68" s="14">
         <v>0</v>
@@ -6136,7 +6264,9 @@
         <v>10</v>
       </c>
       <c r="P68" s="18"/>
-      <c r="Q68" s="18"/>
+      <c r="Q68" s="14">
+        <v>3</v>
+      </c>
       <c r="R68" s="18"/>
       <c r="S68" s="16">
         <v>99</v>
@@ -6145,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="U68" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V68" s="11">
         <v>0</v>
@@ -6159,11 +6289,11 @@
         <v>65</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F69" s="16">
         <v>10302</v>
@@ -6179,13 +6309,13 @@
         <v>0</v>
       </c>
       <c r="K69" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L69" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M69" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N69" s="14">
         <v>0</v>
@@ -6194,7 +6324,9 @@
         <v>10</v>
       </c>
       <c r="P69" s="18"/>
-      <c r="Q69" s="18"/>
+      <c r="Q69" s="14">
+        <v>3</v>
+      </c>
       <c r="R69" s="18"/>
       <c r="S69" s="16">
         <v>99</v>
@@ -6203,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="U69" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V69" s="11">
         <v>0</v>
@@ -6217,11 +6349,11 @@
         <v>66</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F70" s="16">
         <v>10303</v>
@@ -6237,13 +6369,13 @@
         <v>0</v>
       </c>
       <c r="K70" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L70" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M70" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N70" s="14">
         <v>0</v>
@@ -6252,7 +6384,9 @@
         <v>10</v>
       </c>
       <c r="P70" s="18"/>
-      <c r="Q70" s="18"/>
+      <c r="Q70" s="14">
+        <v>3</v>
+      </c>
       <c r="R70" s="18"/>
       <c r="S70" s="16">
         <v>99</v>
@@ -6261,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="U70" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V70" s="11">
         <v>0</v>
@@ -6275,11 +6409,11 @@
         <v>67</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F71" s="16">
         <v>10304</v>
@@ -6295,13 +6429,13 @@
         <v>0</v>
       </c>
       <c r="K71" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L71" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M71" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N71" s="14">
         <v>0</v>
@@ -6310,7 +6444,9 @@
         <v>10</v>
       </c>
       <c r="P71" s="18"/>
-      <c r="Q71" s="18"/>
+      <c r="Q71" s="14">
+        <v>3</v>
+      </c>
       <c r="R71" s="18"/>
       <c r="S71" s="16">
         <v>99</v>
@@ -6319,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="U71" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V71" s="11">
         <v>0</v>
@@ -6333,11 +6469,11 @@
         <v>68</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F72" s="16">
         <v>10305</v>
@@ -6353,13 +6489,13 @@
         <v>0</v>
       </c>
       <c r="K72" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L72" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M72" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N72" s="14">
         <v>0</v>
@@ -6368,7 +6504,9 @@
         <v>10</v>
       </c>
       <c r="P72" s="18"/>
-      <c r="Q72" s="18"/>
+      <c r="Q72" s="14">
+        <v>3</v>
+      </c>
       <c r="R72" s="18"/>
       <c r="S72" s="16">
         <v>99</v>
@@ -6377,7 +6515,7 @@
         <v>0</v>
       </c>
       <c r="U72" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V72" s="11">
         <v>0</v>
@@ -6391,11 +6529,11 @@
         <v>69</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F73" s="16">
         <v>10306</v>
@@ -6411,13 +6549,13 @@
         <v>0</v>
       </c>
       <c r="K73" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L73" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M73" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N73" s="14">
         <v>0</v>
@@ -6426,7 +6564,9 @@
         <v>10</v>
       </c>
       <c r="P73" s="18"/>
-      <c r="Q73" s="18"/>
+      <c r="Q73" s="14">
+        <v>3</v>
+      </c>
       <c r="R73" s="18"/>
       <c r="S73" s="16">
         <v>99</v>
@@ -6435,7 +6575,7 @@
         <v>0</v>
       </c>
       <c r="U73" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V73" s="11">
         <v>0</v>
@@ -6449,11 +6589,11 @@
         <v>70</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F74" s="16">
         <v>10307</v>
@@ -6469,13 +6609,13 @@
         <v>0</v>
       </c>
       <c r="K74" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L74" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M74" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N74" s="14">
         <v>0</v>
@@ -6484,7 +6624,9 @@
         <v>10</v>
       </c>
       <c r="P74" s="18"/>
-      <c r="Q74" s="18"/>
+      <c r="Q74" s="14">
+        <v>3</v>
+      </c>
       <c r="R74" s="18"/>
       <c r="S74" s="16">
         <v>99</v>
@@ -6493,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="U74" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V74" s="11">
         <v>0</v>
@@ -6507,11 +6649,11 @@
         <v>71</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F75" s="16">
         <v>10308</v>
@@ -6527,13 +6669,13 @@
         <v>0</v>
       </c>
       <c r="K75" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L75" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M75" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N75" s="14">
         <v>0</v>
@@ -6542,7 +6684,9 @@
         <v>10</v>
       </c>
       <c r="P75" s="18"/>
-      <c r="Q75" s="18"/>
+      <c r="Q75" s="14">
+        <v>3</v>
+      </c>
       <c r="R75" s="18"/>
       <c r="S75" s="16">
         <v>99</v>
@@ -6551,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="U75" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V75" s="11">
         <v>0</v>
@@ -6565,11 +6709,11 @@
         <v>72</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D76" s="17"/>
       <c r="E76" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F76" s="16">
         <v>10309</v>
@@ -6585,13 +6729,13 @@
         <v>0</v>
       </c>
       <c r="K76" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L76" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M76" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N76" s="14">
         <v>0</v>
@@ -6600,7 +6744,9 @@
         <v>10</v>
       </c>
       <c r="P76" s="18"/>
-      <c r="Q76" s="18"/>
+      <c r="Q76" s="14">
+        <v>3</v>
+      </c>
       <c r="R76" s="18"/>
       <c r="S76" s="16">
         <v>99</v>
@@ -6609,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="U76" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V76" s="11">
         <v>0</v>
@@ -6623,11 +6769,11 @@
         <v>73</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F77" s="16">
         <v>10310</v>
@@ -6643,13 +6789,13 @@
         <v>0</v>
       </c>
       <c r="K77" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L77" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M77" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N77" s="14">
         <v>0</v>
@@ -6658,7 +6804,9 @@
         <v>10</v>
       </c>
       <c r="P77" s="18"/>
-      <c r="Q77" s="18"/>
+      <c r="Q77" s="14">
+        <v>3</v>
+      </c>
       <c r="R77" s="18"/>
       <c r="S77" s="16">
         <v>99</v>
@@ -6667,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="U77" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V77" s="11">
         <v>0</v>
@@ -6681,11 +6829,11 @@
         <v>74</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F78" s="16">
         <v>10311</v>
@@ -6701,13 +6849,13 @@
         <v>0</v>
       </c>
       <c r="K78" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L78" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M78" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N78" s="14">
         <v>0</v>
@@ -6716,7 +6864,9 @@
         <v>10</v>
       </c>
       <c r="P78" s="18"/>
-      <c r="Q78" s="18"/>
+      <c r="Q78" s="14">
+        <v>3</v>
+      </c>
       <c r="R78" s="18"/>
       <c r="S78" s="16">
         <v>99</v>
@@ -6725,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="U78" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V78" s="11">
         <v>0</v>
@@ -6739,11 +6889,11 @@
         <v>75</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F79" s="16">
         <v>10312</v>
@@ -6759,13 +6909,13 @@
         <v>0</v>
       </c>
       <c r="K79" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L79" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M79" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N79" s="14">
         <v>0</v>
@@ -6774,7 +6924,9 @@
         <v>10</v>
       </c>
       <c r="P79" s="18"/>
-      <c r="Q79" s="18"/>
+      <c r="Q79" s="14">
+        <v>3</v>
+      </c>
       <c r="R79" s="18"/>
       <c r="S79" s="16">
         <v>99</v>
@@ -6783,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="U79" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V79" s="11">
         <v>0</v>
@@ -6797,11 +6949,11 @@
         <v>76</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F80" s="16">
         <v>10313</v>
@@ -6817,13 +6969,13 @@
         <v>0</v>
       </c>
       <c r="K80" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L80" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M80" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N80" s="14">
         <v>0</v>
@@ -6832,7 +6984,9 @@
         <v>10</v>
       </c>
       <c r="P80" s="18"/>
-      <c r="Q80" s="18"/>
+      <c r="Q80" s="14">
+        <v>3</v>
+      </c>
       <c r="R80" s="18"/>
       <c r="S80" s="16">
         <v>99</v>
@@ -6841,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="U80" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V80" s="11">
         <v>0</v>
@@ -6855,11 +7009,11 @@
         <v>77</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F81" s="16">
         <v>10314</v>
@@ -6875,13 +7029,13 @@
         <v>0</v>
       </c>
       <c r="K81" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L81" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M81" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N81" s="14">
         <v>0</v>
@@ -6890,7 +7044,9 @@
         <v>10</v>
       </c>
       <c r="P81" s="18"/>
-      <c r="Q81" s="18"/>
+      <c r="Q81" s="14">
+        <v>3</v>
+      </c>
       <c r="R81" s="18"/>
       <c r="S81" s="16">
         <v>99</v>
@@ -6899,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="U81" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V81" s="11">
         <v>0</v>
@@ -6913,11 +7069,11 @@
         <v>78</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F82" s="16">
         <v>10315</v>
@@ -6933,13 +7089,13 @@
         <v>0</v>
       </c>
       <c r="K82" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L82" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M82" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N82" s="14">
         <v>0</v>
@@ -6948,7 +7104,9 @@
         <v>10</v>
       </c>
       <c r="P82" s="18"/>
-      <c r="Q82" s="18"/>
+      <c r="Q82" s="14">
+        <v>3</v>
+      </c>
       <c r="R82" s="18"/>
       <c r="S82" s="16">
         <v>99</v>
@@ -6957,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="U82" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V82" s="11">
         <v>0</v>
@@ -6971,11 +7129,11 @@
         <v>79</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F83" s="16">
         <v>10317</v>
@@ -6991,13 +7149,13 @@
         <v>0</v>
       </c>
       <c r="K83" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L83" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M83" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N83" s="14">
         <v>0</v>
@@ -7006,7 +7164,9 @@
         <v>10</v>
       </c>
       <c r="P83" s="18"/>
-      <c r="Q83" s="18"/>
+      <c r="Q83" s="14">
+        <v>3</v>
+      </c>
       <c r="R83" s="18"/>
       <c r="S83" s="16">
         <v>99</v>
@@ -7015,7 +7175,7 @@
         <v>0</v>
       </c>
       <c r="U83" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V83" s="11">
         <v>0</v>
@@ -7029,11 +7189,11 @@
         <v>80</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F84" s="16">
         <v>10318</v>
@@ -7049,13 +7209,13 @@
         <v>0</v>
       </c>
       <c r="K84" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L84" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M84" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N84" s="14">
         <v>0</v>
@@ -7064,7 +7224,9 @@
         <v>10</v>
       </c>
       <c r="P84" s="18"/>
-      <c r="Q84" s="18"/>
+      <c r="Q84" s="14">
+        <v>3</v>
+      </c>
       <c r="R84" s="18"/>
       <c r="S84" s="16">
         <v>99</v>
@@ -7073,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="U84" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V84" s="11">
         <v>0</v>
@@ -7087,11 +7249,11 @@
         <v>81</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F85" s="16">
         <v>1279</v>
@@ -7107,13 +7269,13 @@
         <v>0</v>
       </c>
       <c r="K85" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L85" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M85" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N85" s="14">
         <v>0</v>
@@ -7122,7 +7284,9 @@
         <v>10</v>
       </c>
       <c r="P85" s="18"/>
-      <c r="Q85" s="18"/>
+      <c r="Q85" s="14">
+        <v>3</v>
+      </c>
       <c r="R85" s="18"/>
       <c r="S85" s="16">
         <v>99</v>
@@ -7131,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="U85" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V85" s="11">
         <v>0</v>
@@ -7145,11 +7309,11 @@
         <v>82</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F86" s="16">
         <v>1280</v>
@@ -7165,13 +7329,13 @@
         <v>0</v>
       </c>
       <c r="K86" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L86" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M86" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N86" s="14">
         <v>0</v>
@@ -7180,7 +7344,9 @@
         <v>10</v>
       </c>
       <c r="P86" s="18"/>
-      <c r="Q86" s="18"/>
+      <c r="Q86" s="14">
+        <v>3</v>
+      </c>
       <c r="R86" s="18"/>
       <c r="S86" s="16">
         <v>99</v>
@@ -7189,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="U86" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V86" s="11">
         <v>0</v>
@@ -7203,11 +7369,11 @@
         <v>83</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D87" s="17"/>
       <c r="E87" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F87" s="16">
         <v>1281</v>
@@ -7223,13 +7389,13 @@
         <v>0</v>
       </c>
       <c r="K87" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L87" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M87" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N87" s="14">
         <v>0</v>
@@ -7238,7 +7404,9 @@
         <v>10</v>
       </c>
       <c r="P87" s="18"/>
-      <c r="Q87" s="18"/>
+      <c r="Q87" s="14">
+        <v>3</v>
+      </c>
       <c r="R87" s="18"/>
       <c r="S87" s="16">
         <v>99</v>
@@ -7247,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="U87" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V87" s="11">
         <v>0</v>
@@ -7261,11 +7429,11 @@
         <v>84</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D88" s="17"/>
       <c r="E88" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F88" s="16">
         <v>1282</v>
@@ -7281,13 +7449,13 @@
         <v>0</v>
       </c>
       <c r="K88" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L88" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M88" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N88" s="14">
         <v>0</v>
@@ -7296,7 +7464,9 @@
         <v>10</v>
       </c>
       <c r="P88" s="18"/>
-      <c r="Q88" s="18"/>
+      <c r="Q88" s="14">
+        <v>3</v>
+      </c>
       <c r="R88" s="18"/>
       <c r="S88" s="16">
         <v>99</v>
@@ -7305,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="U88" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V88" s="11">
         <v>0</v>
@@ -7319,11 +7489,11 @@
         <v>85</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D89" s="17"/>
       <c r="E89" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F89" s="16">
         <v>1283</v>
@@ -7339,13 +7509,13 @@
         <v>0</v>
       </c>
       <c r="K89" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L89" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M89" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N89" s="14">
         <v>0</v>
@@ -7354,7 +7524,9 @@
         <v>10</v>
       </c>
       <c r="P89" s="18"/>
-      <c r="Q89" s="18"/>
+      <c r="Q89" s="14">
+        <v>3</v>
+      </c>
       <c r="R89" s="18"/>
       <c r="S89" s="16">
         <v>99</v>
@@ -7363,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="U89" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V89" s="11">
         <v>0</v>
@@ -7377,11 +7549,11 @@
         <v>86</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D90" s="17"/>
       <c r="E90" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F90" s="16">
         <v>1284</v>
@@ -7397,13 +7569,13 @@
         <v>0</v>
       </c>
       <c r="K90" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L90" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M90" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N90" s="14">
         <v>0</v>
@@ -7412,7 +7584,9 @@
         <v>10</v>
       </c>
       <c r="P90" s="18"/>
-      <c r="Q90" s="18"/>
+      <c r="Q90" s="14">
+        <v>3</v>
+      </c>
       <c r="R90" s="18"/>
       <c r="S90" s="16">
         <v>99</v>
@@ -7421,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="U90" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V90" s="11">
         <v>0</v>
@@ -7435,7 +7609,7 @@
         <v>87</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D91" s="17"/>
       <c r="E91" s="13" t="s">
@@ -7455,13 +7629,13 @@
         <v>0</v>
       </c>
       <c r="K91" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L91" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M91" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N91" s="14">
         <v>0</v>
@@ -7470,7 +7644,9 @@
         <v>10</v>
       </c>
       <c r="P91" s="18"/>
-      <c r="Q91" s="18"/>
+      <c r="Q91" s="14">
+        <v>3</v>
+      </c>
       <c r="R91" s="18"/>
       <c r="S91" s="16">
         <v>99</v>
@@ -7479,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="U91" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V91" s="11">
         <v>0</v>
@@ -7493,11 +7669,11 @@
         <v>88</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D92" s="17"/>
       <c r="E92" s="13" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="F92" s="16">
         <v>1005</v>
@@ -7506,7 +7682,7 @@
         <v>10000</v>
       </c>
       <c r="H92" s="16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I92" s="16">
         <v>1</v>
@@ -7515,10 +7691,10 @@
         <v>0</v>
       </c>
       <c r="K92" s="16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L92" s="16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M92" s="18">
         <v>2</v>
@@ -7530,7 +7706,9 @@
         <v>10</v>
       </c>
       <c r="P92" s="18"/>
-      <c r="Q92" s="18"/>
+      <c r="Q92" s="14">
+        <v>2</v>
+      </c>
       <c r="R92" s="18"/>
       <c r="S92" s="16">
         <v>1</v>
@@ -7539,7 +7717,7 @@
         <v>1</v>
       </c>
       <c r="U92" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V92" s="11">
         <v>0</v>
@@ -7553,11 +7731,11 @@
         <v>89</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="13" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="F93" s="16">
         <v>1005</v>
@@ -7566,7 +7744,7 @@
         <v>20000</v>
       </c>
       <c r="H93" s="16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I93" s="16">
         <v>2</v>
@@ -7575,10 +7753,10 @@
         <v>0</v>
       </c>
       <c r="K93" s="16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L93" s="16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M93" s="18">
         <v>3</v>
@@ -7590,7 +7768,9 @@
         <v>10</v>
       </c>
       <c r="P93" s="18"/>
-      <c r="Q93" s="18"/>
+      <c r="Q93" s="14">
+        <v>2</v>
+      </c>
       <c r="R93" s="18"/>
       <c r="S93" s="16">
         <v>1</v>
@@ -7599,7 +7779,7 @@
         <v>1</v>
       </c>
       <c r="U93" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V93" s="11">
         <v>0</v>
@@ -7613,11 +7793,11 @@
         <v>90</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D94" s="22"/>
       <c r="E94" s="13" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="F94" s="23">
         <v>1005</v>
@@ -7626,7 +7806,7 @@
         <v>30000</v>
       </c>
       <c r="H94" s="23" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I94" s="23">
         <v>2</v>
@@ -7635,10 +7815,10 @@
         <v>0</v>
       </c>
       <c r="K94" s="16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L94" s="16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M94" s="24">
         <v>4</v>
@@ -7650,7 +7830,9 @@
         <v>10</v>
       </c>
       <c r="P94" s="24"/>
-      <c r="Q94" s="24"/>
+      <c r="Q94" s="14">
+        <v>2</v>
+      </c>
       <c r="R94" s="24"/>
       <c r="S94" s="23">
         <v>1</v>
@@ -7659,7 +7841,7 @@
         <v>1</v>
       </c>
       <c r="U94" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V94" s="11">
         <v>0</v>

--- a/doc_new/4.服务器配置文档/商城物品列表.xlsx
+++ b/doc_new/4.服务器配置文档/商城物品列表.xlsx
@@ -2167,9 +2167,9 @@
   <dimension ref="A1:W94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="X6" sqref="X6"/>
+      <selection pane="bottomLeft" activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/doc_new/4.服务器配置文档/商城物品列表.xlsx
+++ b/doc_new/4.服务器配置文档/商城物品列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="13395"/>
+    <workbookView windowWidth="27945" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="商城(template_shopping)" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="180">
   <si>
     <t>字段名称</t>
   </si>
@@ -595,6 +595,9 @@
   </si>
   <si>
     <t>1003_3000,1207_1</t>
+  </si>
+  <si>
+    <t>每日双卡礼包</t>
   </si>
 </sst>
 </file>
@@ -1840,30 +1843,30 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{11A7147A-81D9-4EF0-97C8-E509F524344A}">
+    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{97BE219F-5FDC-465A-878A-991FE45FB125}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstColumn" dxfId="1"/>
       <tableStyleElement type="firstRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{FEA3FE5C-8DAD-49F9-8C9A-1707DD35A3CF}">
+    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{140D6EC9-67B1-4C1F-90A9-056F3932DFA2}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
       <tableStyleElement type="secondColumnStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{15D6A110-9A88-4FAA-8FC3-C961958138E1}">
+    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{D7FB3DBD-B46E-458A-9A81-EB7B4B659F5C}">
       <tableStyleElement type="wholeTable" dxfId="10"/>
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{CDD49D21-95BF-42D6-9AB9-6E4C1F6CC0A2}">
+    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{C2FEBAAD-AE95-4513-8DA5-F6949CB92A16}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="firstColumnStripe" dxfId="12"/>
       <tableStyleElement type="secondColumnStripe" dxfId="11"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{A65AC458-F921-4BE7-95D5-960161C5C048}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1D22A256-C89A-4123-8208-260044269762}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="secondRowStripe" dxfId="15"/>
@@ -2164,12 +2167,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W94"/>
+  <dimension ref="A1:W95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="U35" sqref="U35"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7850,8 +7853,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="95" customFormat="1" ht="101" customHeight="1" spans="1:23">
+      <c r="A95" s="1"/>
+      <c r="B95" s="10">
+        <v>91</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D95" s="22"/>
+      <c r="E95" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F95" s="23">
+        <v>1005</v>
+      </c>
+      <c r="G95" s="23">
+        <v>1</v>
+      </c>
+      <c r="H95" s="23"/>
+      <c r="I95" s="23">
+        <v>2</v>
+      </c>
+      <c r="J95" s="23">
+        <v>0</v>
+      </c>
+      <c r="K95" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L95" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="M95" s="24">
+        <v>5</v>
+      </c>
+      <c r="N95" s="14">
+        <v>0</v>
+      </c>
+      <c r="O95" s="14">
+        <v>10</v>
+      </c>
+      <c r="P95" s="24"/>
+      <c r="Q95" s="14">
+        <v>2</v>
+      </c>
+      <c r="R95" s="24"/>
+      <c r="S95" s="23">
+        <v>1</v>
+      </c>
+      <c r="T95" s="23">
+        <v>1</v>
+      </c>
+      <c r="U95" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="V95" s="11">
+        <v>0</v>
+      </c>
+      <c r="W95" s="19">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="H5">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H95">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -7864,7 +7940,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H94">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/doc_new/4.服务器配置文档/商城物品列表.xlsx
+++ b/doc_new/4.服务器配置文档/商城物品列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="商城(template_shopping)" sheetId="1" r:id="rId1"/>
@@ -1843,30 +1843,30 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{97BE219F-5FDC-465A-878A-991FE45FB125}">
+    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{7984D368-5149-4CC0-96BF-1D709B581BFF}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstColumn" dxfId="1"/>
       <tableStyleElement type="firstRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{140D6EC9-67B1-4C1F-90A9-056F3932DFA2}">
+    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{780E43D4-AD65-4435-BC28-516E69F4BEF7}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
       <tableStyleElement type="secondColumnStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{D7FB3DBD-B46E-458A-9A81-EB7B4B659F5C}">
+    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{3C05E41F-1E5E-4AF0-B15E-875EE2C2C2A6}">
       <tableStyleElement type="wholeTable" dxfId="10"/>
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{C2FEBAAD-AE95-4513-8DA5-F6949CB92A16}">
+    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{4DF31D57-AF04-4DFD-B840-1D9F41B6996D}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="firstColumnStripe" dxfId="12"/>
       <tableStyleElement type="secondColumnStripe" dxfId="11"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1D22A256-C89A-4123-8208-260044269762}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{C75A5932-838D-43D3-AB85-B8348752FB17}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="secondRowStripe" dxfId="15"/>
@@ -2170,9 +2170,9 @@
   <dimension ref="A1:W95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/doc_new/4.服务器配置文档/商城物品列表.xlsx
+++ b/doc_new/4.服务器配置文档/商城物品列表.xlsx
@@ -1843,30 +1843,30 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{7984D368-5149-4CC0-96BF-1D709B581BFF}">
+    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{30F927F8-2EFE-46DC-ABDE-A9A3461C5ECB}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstColumn" dxfId="1"/>
       <tableStyleElement type="firstRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{780E43D4-AD65-4435-BC28-516E69F4BEF7}">
+    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{D3CDCEE4-3FEB-4BF8-AC09-0F9763A367D6}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
       <tableStyleElement type="secondColumnStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{3C05E41F-1E5E-4AF0-B15E-875EE2C2C2A6}">
+    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{240F42DE-4D9B-41C6-A66D-BE518DAAF9A0}">
       <tableStyleElement type="wholeTable" dxfId="10"/>
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{4DF31D57-AF04-4DFD-B840-1D9F41B6996D}">
+    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{F7F275DF-322D-44C3-BCCA-7ADCCB5E4FDE}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="firstColumnStripe" dxfId="12"/>
       <tableStyleElement type="secondColumnStripe" dxfId="11"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{C75A5932-838D-43D3-AB85-B8348752FB17}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{C41164C3-AB53-42B2-ABBC-20FA792C5066}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="secondRowStripe" dxfId="15"/>
@@ -2169,10 +2169,10 @@
   <sheetPr/>
   <dimension ref="A1:W95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/doc_new/4.服务器配置文档/商城物品列表.xlsx
+++ b/doc_new/4.服务器配置文档/商城物品列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="商城(template_shopping)" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="339">
   <si>
     <t>字段名称</t>
   </si>
@@ -2475,30 +2475,30 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{33F0F6F0-6172-47BA-99F8-9D7406FE6BA7}">
+    <tableStyle name="纵横双标题行简约系列2" count="4" xr9:uid="{26D59EFE-AB30-4770-879B-2C00E987BA01}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstColumn" dxfId="1"/>
       <tableStyleElement type="firstRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{251FFF67-013A-49F2-A959-033BF651F092}">
+    <tableStyle name="中色商务表格样式46" count="4" xr9:uid="{BAF79ECB-2CE9-425B-8F11-A21A59AD6EC7}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
       <tableStyleElement type="secondColumnStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{A583FB21-7636-4A51-9FB4-9772B8BD4994}">
+    <tableStyle name="浅色通用商务表格样式24" count="3" xr9:uid="{984E50B4-CA7D-48EE-AE80-4420DAE94B55}">
       <tableStyleElement type="wholeTable" dxfId="10"/>
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{BB986435-E33C-4950-9737-470C94010DEA}">
+    <tableStyle name="绿色浅色系三线式标题行表格样式" count="4" xr9:uid="{2F1D1294-A634-421A-9D0B-767513264D5F}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="firstColumnStripe" dxfId="12"/>
       <tableStyleElement type="secondColumnStripe" dxfId="11"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{2DD0DA6C-5F44-4846-A48F-40FEC62954BA}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{774ED763-9B77-4D24-B980-B134569C4430}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="secondRowStripe" dxfId="15"/>
@@ -2801,10 +2801,10 @@
   <sheetPr/>
   <dimension ref="A1:X390"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F265" sqref="F265:F295"/>
+      <selection pane="bottomLeft" activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3864,11 +3864,11 @@
       <c r="T17" s="16">
         <v>20</v>
       </c>
-      <c r="U17" s="16" t="s">
+      <c r="U17" s="16">
+        <v>20</v>
+      </c>
+      <c r="V17" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="V17" s="16" t="s">
-        <v>54</v>
       </c>
       <c r="W17" s="11">
         <v>0</v>
